--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DE13BE-326B-4073-91A0-F22807C99A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D8FF29-E4B6-499E-B0E5-155316E9FBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="45" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <sheet name="Case_C_9" sheetId="11" r:id="rId6"/>
     <sheet name="Case_C_12" sheetId="51" r:id="rId7"/>
     <sheet name="Case_D_Manual" sheetId="3" r:id="rId8"/>
-    <sheet name="Case_D_Cyclic_A " sheetId="47" r:id="rId9"/>
+    <sheet name="Case_D_Cyclic_A" sheetId="47" r:id="rId9"/>
     <sheet name="Case_E_Preferences_Manual" sheetId="4" r:id="rId10"/>
     <sheet name="Case_E_Preferences_A" sheetId="50" r:id="rId11"/>
     <sheet name="Case E Constraints" sheetId="5" r:id="rId12"/>
     <sheet name="Case E Constraints Example" sheetId="8" r:id="rId13"/>
     <sheet name="Case E MonthlyRoster DepX" sheetId="10" r:id="rId14"/>
-    <sheet name="Case E MonthlyRoster DepX Ex" sheetId="9" r:id="rId15"/>
+    <sheet name="Case_E_MonthlyRoster_A" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2629,7 +2629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B96D7-1082-46EC-950D-18F4EAFC725D}">
   <dimension ref="A1:EM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -17371,10 +17371,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:AD103"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI33" sqref="AI33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17385,191 +17385,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="15">
-        <v>37</v>
+      <c r="A1" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18">
+        <v>3</v>
+      </c>
+      <c r="I2" s="18">
+        <v>3</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1</v>
+      </c>
+      <c r="K2" s="18">
+        <v>3</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2" s="18">
+        <v>1</v>
+      </c>
+      <c r="N2" s="18">
+        <v>2</v>
+      </c>
+      <c r="O2" s="18">
+        <v>3</v>
+      </c>
+      <c r="P2" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18">
+        <v>1</v>
+      </c>
+      <c r="T2" s="18">
+        <v>1</v>
+      </c>
+      <c r="U2" s="18">
+        <v>3</v>
+      </c>
+      <c r="V2" s="18">
+        <v>3</v>
+      </c>
+      <c r="W2" s="18">
+        <v>2</v>
+      </c>
+      <c r="X2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC3" s="30" t="s">
-        <v>92</v>
+      <c r="A3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2</v>
+      </c>
+      <c r="H3" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>3</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <v>3</v>
+      </c>
+      <c r="L3" s="15">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15">
+        <v>1</v>
+      </c>
+      <c r="N3" s="15">
+        <v>2</v>
+      </c>
+      <c r="O3" s="15">
+        <v>3</v>
+      </c>
+      <c r="P3" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0</v>
+      </c>
+      <c r="S3" s="15">
+        <v>1</v>
+      </c>
+      <c r="T3" s="15">
+        <v>1</v>
+      </c>
+      <c r="U3" s="15">
+        <v>3</v>
+      </c>
+      <c r="V3" s="15">
+        <v>3</v>
+      </c>
+      <c r="W3" s="15">
+        <v>2</v>
+      </c>
+      <c r="X3" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="18">
-        <v>2</v>
-      </c>
-      <c r="H4" s="18">
-        <v>3</v>
-      </c>
-      <c r="I4" s="18">
-        <v>3</v>
-      </c>
-      <c r="J4" s="18">
-        <v>1</v>
-      </c>
-      <c r="K4" s="18">
-        <v>3</v>
-      </c>
-      <c r="L4" s="18">
-        <v>1</v>
-      </c>
-      <c r="M4" s="18">
-        <v>1</v>
-      </c>
-      <c r="N4" s="18">
-        <v>2</v>
-      </c>
-      <c r="O4" s="18">
-        <v>3</v>
-      </c>
-      <c r="P4" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18">
-        <v>0</v>
-      </c>
-      <c r="S4" s="18">
-        <v>1</v>
-      </c>
-      <c r="T4" s="18">
-        <v>1</v>
-      </c>
-      <c r="U4" s="18">
-        <v>3</v>
-      </c>
-      <c r="V4" s="18">
-        <v>3</v>
-      </c>
-      <c r="W4" s="18">
-        <v>2</v>
-      </c>
-      <c r="X4" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="17">
+        <v>109</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>3</v>
+      </c>
+      <c r="I4" s="15">
+        <v>3</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>3</v>
+      </c>
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15">
+        <v>1</v>
+      </c>
+      <c r="N4" s="15">
+        <v>2</v>
+      </c>
+      <c r="O4" s="15">
+        <v>3</v>
+      </c>
+      <c r="P4" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>1</v>
+      </c>
+      <c r="T4" s="15">
+        <v>1</v>
+      </c>
+      <c r="U4" s="15">
+        <v>3</v>
+      </c>
+      <c r="V4" s="15">
+        <v>3</v>
+      </c>
+      <c r="W4" s="15">
+        <v>2</v>
+      </c>
+      <c r="X4" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="19">
         <v>2</v>
@@ -17658,7 +17831,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" s="19">
         <v>2</v>
@@ -17747,7 +17920,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="19">
         <v>2</v>
@@ -17836,7 +18009,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" s="19">
         <v>2</v>
@@ -17925,7 +18098,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" s="19">
         <v>2</v>
@@ -18014,7 +18187,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" s="19">
         <v>2</v>
@@ -18103,7 +18276,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" s="19">
         <v>2</v>
@@ -18192,7 +18365,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="19">
         <v>2</v>
@@ -18281,7 +18454,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" s="19">
         <v>2</v>
@@ -18366,11 +18539,14 @@
       </c>
       <c r="AC13" s="20">
         <v>2</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" s="19">
         <v>2</v>
@@ -18459,7 +18635,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" s="19">
         <v>2</v>
@@ -18544,14 +18720,11 @@
       </c>
       <c r="AC15" s="20">
         <v>2</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" s="19">
         <v>2</v>
@@ -18640,7 +18813,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="19">
         <v>2</v>
@@ -18729,7 +18902,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" s="19">
         <v>2</v>
@@ -18818,7 +18991,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="19">
         <v>2</v>
@@ -18904,10 +19077,11 @@
       <c r="AC19" s="20">
         <v>2</v>
       </c>
+      <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="19">
         <v>2</v>
@@ -18996,7 +19170,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" s="19">
         <v>2</v>
@@ -19082,11 +19256,10 @@
       <c r="AC21" s="20">
         <v>2</v>
       </c>
-      <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="19">
         <v>2</v>
@@ -19175,7 +19348,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23" s="19">
         <v>2</v>
@@ -19264,7 +19437,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" s="19">
         <v>2</v>
@@ -19353,7 +19526,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" s="19">
         <v>2</v>
@@ -19442,7 +19615,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" s="19">
         <v>2</v>
@@ -19531,7 +19704,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B27" s="19">
         <v>2</v>
@@ -19620,7 +19793,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B28" s="19">
         <v>2</v>
@@ -19709,7 +19882,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B29" s="19">
         <v>2</v>
@@ -19798,7 +19971,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B30" s="19">
         <v>2</v>
@@ -19887,7 +20060,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B31" s="19">
         <v>2</v>
@@ -19976,7 +20149,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B32" s="19">
         <v>2</v>
@@ -20065,7 +20238,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B33" s="19">
         <v>2</v>
@@ -20154,7 +20327,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B34" s="19">
         <v>2</v>
@@ -20243,7 +20416,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B35" s="19">
         <v>2</v>
@@ -20332,7 +20505,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B36" s="19">
         <v>2</v>
@@ -20421,7 +20594,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B37" s="19">
         <v>2</v>
@@ -20510,7 +20683,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B38" s="19">
         <v>2</v>
@@ -20598,185 +20771,69 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="19">
-        <v>2</v>
-      </c>
-      <c r="C39" s="15">
-        <v>0</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0</v>
-      </c>
-      <c r="E39" s="15">
-        <v>1</v>
-      </c>
-      <c r="F39" s="15">
-        <v>1</v>
-      </c>
-      <c r="G39" s="15">
-        <v>2</v>
-      </c>
-      <c r="H39" s="15">
-        <v>3</v>
-      </c>
-      <c r="I39" s="15">
-        <v>3</v>
-      </c>
-      <c r="J39" s="15">
-        <v>1</v>
-      </c>
-      <c r="K39" s="15">
-        <v>3</v>
-      </c>
-      <c r="L39" s="15">
-        <v>1</v>
-      </c>
-      <c r="M39" s="15">
-        <v>1</v>
-      </c>
-      <c r="N39" s="15">
-        <v>2</v>
-      </c>
-      <c r="O39" s="15">
-        <v>3</v>
-      </c>
-      <c r="P39" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="15">
-        <v>0</v>
-      </c>
-      <c r="R39" s="15">
-        <v>0</v>
-      </c>
-      <c r="S39" s="15">
-        <v>1</v>
-      </c>
-      <c r="T39" s="15">
-        <v>1</v>
-      </c>
-      <c r="U39" s="15">
-        <v>3</v>
-      </c>
-      <c r="V39" s="15">
-        <v>3</v>
-      </c>
-      <c r="W39" s="15">
-        <v>2</v>
-      </c>
-      <c r="X39" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC39" s="20">
-        <v>2</v>
-      </c>
+      <c r="A39" s="20"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="20"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="19">
-        <v>2</v>
-      </c>
-      <c r="C40" s="15">
-        <v>0</v>
-      </c>
-      <c r="D40" s="15">
-        <v>0</v>
-      </c>
-      <c r="E40" s="15">
-        <v>1</v>
-      </c>
-      <c r="F40" s="15">
-        <v>1</v>
-      </c>
-      <c r="G40" s="15">
-        <v>2</v>
-      </c>
-      <c r="H40" s="15">
-        <v>3</v>
-      </c>
-      <c r="I40" s="15">
-        <v>3</v>
-      </c>
-      <c r="J40" s="15">
-        <v>1</v>
-      </c>
-      <c r="K40" s="15">
-        <v>3</v>
-      </c>
-      <c r="L40" s="15">
-        <v>1</v>
-      </c>
-      <c r="M40" s="15">
-        <v>1</v>
-      </c>
-      <c r="N40" s="15">
-        <v>2</v>
-      </c>
-      <c r="O40" s="15">
-        <v>3</v>
-      </c>
-      <c r="P40" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>0</v>
-      </c>
-      <c r="R40" s="15">
-        <v>0</v>
-      </c>
-      <c r="S40" s="15">
-        <v>1</v>
-      </c>
-      <c r="T40" s="15">
-        <v>1</v>
-      </c>
-      <c r="U40" s="15">
-        <v>3</v>
-      </c>
-      <c r="V40" s="15">
-        <v>3</v>
-      </c>
-      <c r="W40" s="15">
-        <v>2</v>
-      </c>
-      <c r="X40" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="20">
-        <v>2</v>
-      </c>
+      <c r="A40" s="27"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="20"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="19"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -22666,68 +22723,6 @@
       <c r="AB101" s="15"/>
       <c r="AC101" s="20"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A102" s="27"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="V102" s="15"/>
-      <c r="W102" s="15"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="15"/>
-      <c r="AA102" s="15"/>
-      <c r="AB102" s="15"/>
-      <c r="AC102" s="20"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A103" s="27"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="15"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="15"/>
-      <c r="S103" s="15"/>
-      <c r="T103" s="15"/>
-      <c r="U103" s="15"/>
-      <c r="V103" s="15"/>
-      <c r="W103" s="15"/>
-      <c r="X103" s="15"/>
-      <c r="Y103" s="15"/>
-      <c r="Z103" s="15"/>
-      <c r="AA103" s="15"/>
-      <c r="AB103" s="15"/>
-      <c r="AC103" s="20"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23809,111 +23804,195 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECAD9F2-13EF-4C04-89F6-14104CA591B6}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>32</v>
+      <c r="A1" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="X1" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y1" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z1" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA1" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB1" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC1" s="55" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="P2" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q2" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="R2" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="S2" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="T2" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="U2" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="V2" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="W2" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="X2" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y2" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z2" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA2" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB2" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC2" s="55" t="s">
-        <v>209</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -24002,10 +24081,10 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -24020,13 +24099,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -24041,13 +24120,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -24062,13 +24141,13 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -24083,7 +24162,7 @@
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -24097,7 +24176,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -24112,13 +24191,13 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -24133,13 +24212,13 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -24154,13 +24233,13 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -24175,7 +24254,7 @@
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
@@ -24183,13 +24262,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -24204,13 +24283,13 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -24225,13 +24304,13 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -24246,13 +24325,13 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -24269,7 +24348,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -24358,19 +24437,19 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -24385,13 +24464,13 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -24406,13 +24485,13 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -24427,13 +24506,13 @@
         <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -24456,13 +24535,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -24477,13 +24556,13 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -24498,13 +24577,13 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -24519,13 +24598,13 @@
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>1</v>
@@ -24536,7 +24615,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -24625,7 +24704,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -24637,13 +24716,13 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -24658,13 +24737,13 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -24679,13 +24758,13 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -24700,13 +24779,13 @@
         <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -24717,93 +24796,93 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12">
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -24981,10 +25060,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -24999,13 +25078,13 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -25020,13 +25099,13 @@
         <v>2</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -25041,13 +25120,13 @@
         <v>2</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>2</v>
@@ -25062,7 +25141,7 @@
         <v>2</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -25076,7 +25155,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -25091,13 +25170,13 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -25112,13 +25191,13 @@
         <v>2</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>2</v>
@@ -25133,13 +25212,13 @@
         <v>2</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -25154,12 +25233,12 @@
         <v>2</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -25337,16 +25416,16 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -25361,13 +25440,13 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -25382,13 +25461,13 @@
         <v>2</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>2</v>
@@ -25403,13 +25482,13 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>2</v>
@@ -25432,13 +25511,13 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -25453,13 +25532,13 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -25474,13 +25553,13 @@
         <v>2</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>2</v>
@@ -25495,13 +25574,13 @@
         <v>2</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -25524,13 +25603,13 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -25545,13 +25624,13 @@
         <v>2</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -25566,13 +25645,13 @@
         <v>2</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -25587,13 +25666,13 @@
         <v>2</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>2</v>
@@ -25604,7 +25683,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -25782,7 +25861,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -25794,13 +25873,13 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -25815,13 +25894,13 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -25836,13 +25915,13 @@
         <v>2</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>2</v>
@@ -25857,13 +25936,13 @@
         <v>2</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>2</v>
@@ -25874,93 +25953,93 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -26138,13 +26217,13 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -26156,16 +26235,16 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -26177,16 +26256,16 @@
         <v>3</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>3</v>
@@ -26198,16 +26277,16 @@
         <v>3</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>3</v>
@@ -26219,15 +26298,15 @@
         <v>3</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -26405,22 +26484,22 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -26429,19 +26508,19 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>3</v>
@@ -26450,19 +26529,19 @@
         <v>3</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R31">
         <v>3</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>3</v>
@@ -26471,19 +26550,19 @@
         <v>3</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y31">
         <v>3</v>
       </c>
       <c r="Z31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>3</v>
@@ -26494,7 +26573,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -26667,95 +26746,6 @@
         <v>3</v>
       </c>
       <c r="AC33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34">
-        <v>3</v>
-      </c>
-      <c r="P34">
-        <v>3</v>
-      </c>
-      <c r="Q34">
-        <v>3</v>
-      </c>
-      <c r="R34">
-        <v>3</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>3</v>
-      </c>
-      <c r="V34">
-        <v>3</v>
-      </c>
-      <c r="W34">
-        <v>3</v>
-      </c>
-      <c r="X34">
-        <v>3</v>
-      </c>
-      <c r="Y34">
-        <v>3</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>3</v>
-      </c>
-      <c r="AC34">
         <v>3</v>
       </c>
     </row>

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D8FF29-E4B6-499E-B0E5-155316E9FBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2FCA4-DAE2-427D-8F45-1BBBF8799EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="45" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="Case_C_12" sheetId="51" r:id="rId7"/>
     <sheet name="Case_D_Manual" sheetId="3" r:id="rId8"/>
     <sheet name="Case_D_Cyclic_A" sheetId="47" r:id="rId9"/>
-    <sheet name="Case_E_Preferences_Manual" sheetId="4" r:id="rId10"/>
+    <sheet name="Case_E_Manual" sheetId="4" r:id="rId10"/>
     <sheet name="Case_E_Preferences_A" sheetId="50" r:id="rId11"/>
-    <sheet name="Case E Constraints" sheetId="5" r:id="rId12"/>
-    <sheet name="Case E Constraints Example" sheetId="8" r:id="rId13"/>
-    <sheet name="Case E MonthlyRoster DepX" sheetId="10" r:id="rId14"/>
-    <sheet name="Case_E_MonthlyRoster_A" sheetId="9" r:id="rId15"/>
+    <sheet name="Case_E_Constraints_A" sheetId="5" r:id="rId12"/>
+    <sheet name="Case_E_MonthlyRoster_A" sheetId="9" r:id="rId13"/>
+    <sheet name="Case E Constraints Example" sheetId="8" r:id="rId14"/>
+    <sheet name="Case E MonthlyRoster DepX" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="227">
   <si>
     <t>University Hospital Case Study</t>
   </si>
@@ -499,9 +499,6 @@
     <t>302X038</t>
   </si>
   <si>
-    <t>DEPARTMENT X</t>
-  </si>
-  <si>
     <t>NUMBER OF ASSIGNMENTS</t>
   </si>
   <si>
@@ -511,64 +508,16 @@
     <t>Maximum</t>
   </si>
   <si>
-    <t>Minimum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER OF CONSECUTIVE ASSIGNMENTS</t>
   </si>
   <si>
     <t>NUMBER OF CONSECUTIVE ASSIGNMENTS PER SHIFT TYPE</t>
   </si>
   <si>
-    <t>Minimum S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum S3</t>
-  </si>
-  <si>
-    <t>Maximum S3</t>
-  </si>
-  <si>
-    <t>Minimum S4</t>
-  </si>
-  <si>
-    <t>Maximum S4</t>
-  </si>
-  <si>
-    <t>Minimum S5</t>
-  </si>
-  <si>
-    <t>Maximum S5</t>
-  </si>
-  <si>
     <t>NUMBER OF ASSIGNMENTS PER SHIFT TYPE</t>
   </si>
   <si>
-    <t>Maximum S2</t>
-  </si>
-  <si>
     <t>IDENTICAL WEEKEND CONSTRAINT</t>
-  </si>
-  <si>
-    <t>YES/NO</t>
   </si>
   <si>
     <t>* The chosen constraint parameters in case D are stricter than the constraint settings in case E</t>
@@ -2629,13 +2578,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B96D7-1082-46EC-950D-18F4EAFC725D}">
   <dimension ref="A1:EM32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="EO5" sqref="EO5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B1" s="57">
         <v>1</v>
@@ -3066,7 +3017,7 @@
     </row>
     <row r="2" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B2" s="64">
         <v>100</v>
@@ -3497,7 +3448,7 @@
     </row>
     <row r="3" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B3" s="64">
         <v>4</v>
@@ -3928,7 +3879,7 @@
     </row>
     <row r="4" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A4" s="56" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B4" s="64">
         <v>100</v>
@@ -4359,7 +4310,7 @@
     </row>
     <row r="5" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A5" s="56" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B5" s="64">
         <v>5</v>
@@ -4790,7 +4741,7 @@
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B6" s="64">
         <v>1</v>
@@ -5221,7 +5172,7 @@
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B7" s="64">
         <v>100</v>
@@ -5652,7 +5603,7 @@
     </row>
     <row r="8" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B8" s="64">
         <v>100</v>
@@ -6083,7 +6034,7 @@
     </row>
     <row r="9" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B9" s="64">
         <v>6</v>
@@ -6514,7 +6465,7 @@
     </row>
     <row r="10" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B10" s="64">
         <v>1</v>
@@ -6945,7 +6896,7 @@
     </row>
     <row r="11" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B11" s="72">
         <v>1</v>
@@ -7376,7 +7327,7 @@
     </row>
     <row r="12" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B12" s="72">
         <v>5</v>
@@ -7807,7 +7758,7 @@
     </row>
     <row r="13" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B13" s="72">
         <v>7</v>
@@ -8238,7 +8189,7 @@
     </row>
     <row r="14" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A14" s="76" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B14" s="72">
         <v>1</v>
@@ -8669,7 +8620,7 @@
     </row>
     <row r="15" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A15" s="76" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B15" s="72">
         <v>6</v>
@@ -9100,7 +9051,7 @@
     </row>
     <row r="16" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B16" s="72">
         <v>3</v>
@@ -9531,7 +9482,7 @@
     </row>
     <row r="17" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A17" s="76" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B17" s="72">
         <v>5</v>
@@ -9962,7 +9913,7 @@
     </row>
     <row r="18" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A18" s="76" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B18" s="72">
         <v>1</v>
@@ -10393,7 +10344,7 @@
     </row>
     <row r="19" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A19" s="76" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B19" s="72">
         <v>100</v>
@@ -10824,7 +10775,7 @@
     </row>
     <row r="20" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A20" s="76" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B20" s="72">
         <v>100</v>
@@ -11255,7 +11206,7 @@
     </row>
     <row r="21" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A21" s="76" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B21" s="72">
         <v>100</v>
@@ -11686,7 +11637,7 @@
     </row>
     <row r="22" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A22" s="76" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B22" s="69">
         <v>1</v>
@@ -12117,7 +12068,7 @@
     </row>
     <row r="23" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A23" s="76" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B23" s="77">
         <v>100</v>
@@ -12548,7 +12499,7 @@
     </row>
     <row r="24" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A24" s="76" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B24" s="72">
         <v>9</v>
@@ -12979,7 +12930,7 @@
     </row>
     <row r="25" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A25" s="76" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B25" s="72">
         <v>5</v>
@@ -13410,7 +13361,7 @@
     </row>
     <row r="26" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A26" s="76" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B26" s="72">
         <v>1</v>
@@ -13841,7 +13792,7 @@
     </row>
     <row r="27" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A27" s="76" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B27" s="72">
         <v>100</v>
@@ -14272,7 +14223,7 @@
     </row>
     <row r="28" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A28" s="76" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B28" s="72">
         <v>100</v>
@@ -14703,7 +14654,7 @@
     </row>
     <row r="29" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A29" s="76" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B29" s="72">
         <v>100</v>
@@ -15134,7 +15085,7 @@
     </row>
     <row r="30" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A30" s="76" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B30" s="72">
         <v>100</v>
@@ -15565,7 +15516,7 @@
     </row>
     <row r="31" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A31" s="76" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B31" s="69">
         <v>1</v>
@@ -15996,7 +15947,7 @@
     </row>
     <row r="32" spans="1:143" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="76" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B32" s="81">
         <v>1</v>
@@ -16434,8 +16385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16446,168 +16397,150 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="14" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>149</v>
+      <c r="A4" s="15">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>149</v>
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="13"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>153</v>
+      <c r="A12" s="15">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>155</v>
+      <c r="A13" s="15">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>157</v>
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>159</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>161</v>
-      </c>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>149</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>155</v>
+      <c r="A20" s="15">
+        <v>0</v>
+      </c>
+      <c r="B20" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>155</v>
+      <c r="A21" s="15">
+        <v>0</v>
+      </c>
+      <c r="B21" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>163</v>
+      <c r="A22" s="15">
+        <v>0</v>
+      </c>
+      <c r="B22" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -16627,7 +16560,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="49" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -16642,7 +16575,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="49" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -16657,7 +16590,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="52" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -16679,701 +16612,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B111"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="13.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
-        <v>0</v>
-      </c>
-      <c r="B4" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
-        <v>1</v>
-      </c>
-      <c r="B13" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
-        <v>1</v>
-      </c>
-      <c r="B14" s="15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
-        <v>0</v>
-      </c>
-      <c r="B20" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
-        <v>0</v>
-      </c>
-      <c r="B21" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
-        <v>0</v>
-      </c>
-      <c r="B22" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.6">
-      <c r="A29" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="15">
-        <v>0</v>
-      </c>
-      <c r="B32" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="15">
-        <v>1</v>
-      </c>
-      <c r="B36" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="15">
-        <v>1</v>
-      </c>
-      <c r="B40" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="15">
-        <v>1</v>
-      </c>
-      <c r="B41" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="15">
-        <v>1</v>
-      </c>
-      <c r="B42" s="15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="15">
-        <v>0</v>
-      </c>
-      <c r="B48" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="15">
-        <v>0</v>
-      </c>
-      <c r="B49" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="15">
-        <v>0</v>
-      </c>
-      <c r="B50" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.6">
-      <c r="A57" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="15">
-        <v>0</v>
-      </c>
-      <c r="B60" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="15">
-        <v>1</v>
-      </c>
-      <c r="B64" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="15">
-        <v>1</v>
-      </c>
-      <c r="B68" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="15">
-        <v>1</v>
-      </c>
-      <c r="B69" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="15">
-        <v>1</v>
-      </c>
-      <c r="B70" s="15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="15">
-        <v>0</v>
-      </c>
-      <c r="B76" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="15">
-        <v>0</v>
-      </c>
-      <c r="B77" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="15">
-        <v>0</v>
-      </c>
-      <c r="B78" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="26" x14ac:dyDescent="0.6">
-      <c r="A85" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="15">
-        <v>0</v>
-      </c>
-      <c r="B88" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="15">
-        <v>1</v>
-      </c>
-      <c r="B92" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="15">
-        <v>1</v>
-      </c>
-      <c r="B96" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="15">
-        <v>1</v>
-      </c>
-      <c r="B97" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="15">
-        <v>1</v>
-      </c>
-      <c r="B98" s="15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="15">
-        <v>0</v>
-      </c>
-      <c r="B104" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="15">
-        <v>0</v>
-      </c>
-      <c r="B105" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="15">
-        <v>0</v>
-      </c>
-      <c r="B106" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -17386,7 +16628,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>65</v>
@@ -18541,7 +17783,7 @@
         <v>2</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
@@ -22731,6 +21973,697 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>0</v>
+      </c>
+      <c r="B20" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>0</v>
+      </c>
+      <c r="B21" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>0</v>
+      </c>
+      <c r="B22" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+      <c r="A29" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>0</v>
+      </c>
+      <c r="B32" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>1</v>
+      </c>
+      <c r="B36" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="15">
+        <v>1</v>
+      </c>
+      <c r="B40" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
+        <v>1</v>
+      </c>
+      <c r="B41" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="15">
+        <v>1</v>
+      </c>
+      <c r="B42" s="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="15">
+        <v>0</v>
+      </c>
+      <c r="B48" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="15">
+        <v>0</v>
+      </c>
+      <c r="B49" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="15">
+        <v>0</v>
+      </c>
+      <c r="B50" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+      <c r="A57" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="15">
+        <v>0</v>
+      </c>
+      <c r="B60" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="15">
+        <v>1</v>
+      </c>
+      <c r="B64" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="15">
+        <v>1</v>
+      </c>
+      <c r="B68" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="15">
+        <v>1</v>
+      </c>
+      <c r="B69" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="15">
+        <v>1</v>
+      </c>
+      <c r="B70" s="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="15">
+        <v>0</v>
+      </c>
+      <c r="B76" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="15">
+        <v>0</v>
+      </c>
+      <c r="B77" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="15">
+        <v>0</v>
+      </c>
+      <c r="B78" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+      <c r="A85" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="15">
+        <v>0</v>
+      </c>
+      <c r="B88" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="15">
+        <v>1</v>
+      </c>
+      <c r="B92" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="15">
+        <v>1</v>
+      </c>
+      <c r="B96" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="15">
+        <v>1</v>
+      </c>
+      <c r="B97" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="15">
+        <v>1</v>
+      </c>
+      <c r="B98" s="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="15">
+        <v>0</v>
+      </c>
+      <c r="B104" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="15">
+        <v>0</v>
+      </c>
+      <c r="B105" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="15">
+        <v>0</v>
+      </c>
+      <c r="B106" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O10"/>
@@ -22941,7 +22874,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -23165,7 +23098,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -23814,91 +23747,91 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="Q1" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="R1" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="S1" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="T1" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="U1" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="V1" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="W1" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="X1" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="Y1" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="Z1" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="AA1" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="AB1" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="AC1" s="55" t="s">
         <v>194</v>
-      </c>
-      <c r="O1" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q1" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="R1" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="S1" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="T1" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="U1" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="W1" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="X1" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y1" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z1" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA1" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB1" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC1" s="55" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2FCA4-DAE2-427D-8F45-1BBBF8799EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8C3258-3EE4-40B3-939F-1EB9A4D1670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16385,8 +16385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="61" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8C3258-3EE4-40B3-939F-1EB9A4D1670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B96C2B-4C69-4666-86FB-32002DF9ECCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="45" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="190">
   <si>
     <t>University Hospital Case Study</t>
   </si>
@@ -386,117 +386,6 @@
       </rPr>
       <t xml:space="preserve"> 302A039</t>
     </r>
-  </si>
-  <si>
-    <t>301X001</t>
-  </si>
-  <si>
-    <t>301X002</t>
-  </si>
-  <si>
-    <t>301X003</t>
-  </si>
-  <si>
-    <t>301X004</t>
-  </si>
-  <si>
-    <t>301X005</t>
-  </si>
-  <si>
-    <t>301X006</t>
-  </si>
-  <si>
-    <t>301X007</t>
-  </si>
-  <si>
-    <t>301X008</t>
-  </si>
-  <si>
-    <t>301X009</t>
-  </si>
-  <si>
-    <t>301X010</t>
-  </si>
-  <si>
-    <t>301X011</t>
-  </si>
-  <si>
-    <t>301X013</t>
-  </si>
-  <si>
-    <t>301X014</t>
-  </si>
-  <si>
-    <t>301X015</t>
-  </si>
-  <si>
-    <t>301X016</t>
-  </si>
-  <si>
-    <t>301X017</t>
-  </si>
-  <si>
-    <t>301X018</t>
-  </si>
-  <si>
-    <t>302X019</t>
-  </si>
-  <si>
-    <t>302X020</t>
-  </si>
-  <si>
-    <t>302X021</t>
-  </si>
-  <si>
-    <t>302X022</t>
-  </si>
-  <si>
-    <t>302X023</t>
-  </si>
-  <si>
-    <t>302X024</t>
-  </si>
-  <si>
-    <t>302X025</t>
-  </si>
-  <si>
-    <t>302X026</t>
-  </si>
-  <si>
-    <t>302X027</t>
-  </si>
-  <si>
-    <t>302X028</t>
-  </si>
-  <si>
-    <t>302X029</t>
-  </si>
-  <si>
-    <t>302X030</t>
-  </si>
-  <si>
-    <t>302X031</t>
-  </si>
-  <si>
-    <t>302X032</t>
-  </si>
-  <si>
-    <t>302X033</t>
-  </si>
-  <si>
-    <t>302X034</t>
-  </si>
-  <si>
-    <t>302X035</t>
-  </si>
-  <si>
-    <t>302X036</t>
-  </si>
-  <si>
-    <t>302X037</t>
-  </si>
-  <si>
-    <t>302X038</t>
   </si>
   <si>
     <t>NUMBER OF ASSIGNMENTS</t>
@@ -2578,15 +2467,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B96D7-1082-46EC-950D-18F4EAFC725D}">
   <dimension ref="A1:EM32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="EO5" sqref="EO5"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B1" s="57">
         <v>1</v>
@@ -3017,7 +2906,7 @@
     </row>
     <row r="2" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B2" s="64">
         <v>100</v>
@@ -3448,7 +3337,7 @@
     </row>
     <row r="3" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="B3" s="64">
         <v>4</v>
@@ -3879,7 +3768,7 @@
     </row>
     <row r="4" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A4" s="56" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="B4" s="64">
         <v>100</v>
@@ -4310,7 +4199,7 @@
     </row>
     <row r="5" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A5" s="56" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="B5" s="64">
         <v>5</v>
@@ -4741,7 +4630,7 @@
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B6" s="64">
         <v>1</v>
@@ -5172,7 +5061,7 @@
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="B7" s="64">
         <v>100</v>
@@ -5603,7 +5492,7 @@
     </row>
     <row r="8" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B8" s="64">
         <v>100</v>
@@ -6034,7 +5923,7 @@
     </row>
     <row r="9" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B9" s="64">
         <v>6</v>
@@ -6465,7 +6354,7 @@
     </row>
     <row r="10" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="B10" s="64">
         <v>1</v>
@@ -6896,7 +6785,7 @@
     </row>
     <row r="11" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B11" s="72">
         <v>1</v>
@@ -7327,7 +7216,7 @@
     </row>
     <row r="12" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="B12" s="72">
         <v>5</v>
@@ -7758,7 +7647,7 @@
     </row>
     <row r="13" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="B13" s="72">
         <v>7</v>
@@ -8189,7 +8078,7 @@
     </row>
     <row r="14" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A14" s="76" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="B14" s="72">
         <v>1</v>
@@ -8620,7 +8509,7 @@
     </row>
     <row r="15" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A15" s="76" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B15" s="72">
         <v>6</v>
@@ -9051,7 +8940,7 @@
     </row>
     <row r="16" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="B16" s="72">
         <v>3</v>
@@ -9482,7 +9371,7 @@
     </row>
     <row r="17" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A17" s="76" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="B17" s="72">
         <v>5</v>
@@ -9913,7 +9802,7 @@
     </row>
     <row r="18" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A18" s="76" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B18" s="72">
         <v>1</v>
@@ -10344,7 +10233,7 @@
     </row>
     <row r="19" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A19" s="76" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B19" s="72">
         <v>100</v>
@@ -10775,7 +10664,7 @@
     </row>
     <row r="20" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A20" s="76" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B20" s="72">
         <v>100</v>
@@ -11206,7 +11095,7 @@
     </row>
     <row r="21" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A21" s="76" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B21" s="72">
         <v>100</v>
@@ -11637,7 +11526,7 @@
     </row>
     <row r="22" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A22" s="76" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="B22" s="69">
         <v>1</v>
@@ -12068,7 +11957,7 @@
     </row>
     <row r="23" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A23" s="76" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="B23" s="77">
         <v>100</v>
@@ -12499,7 +12388,7 @@
     </row>
     <row r="24" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A24" s="76" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="B24" s="72">
         <v>9</v>
@@ -12930,7 +12819,7 @@
     </row>
     <row r="25" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A25" s="76" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="B25" s="72">
         <v>5</v>
@@ -13361,7 +13250,7 @@
     </row>
     <row r="26" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A26" s="76" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B26" s="72">
         <v>1</v>
@@ -13792,7 +13681,7 @@
     </row>
     <row r="27" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A27" s="76" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="B27" s="72">
         <v>100</v>
@@ -14223,7 +14112,7 @@
     </row>
     <row r="28" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A28" s="76" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B28" s="72">
         <v>100</v>
@@ -14654,7 +14543,7 @@
     </row>
     <row r="29" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A29" s="76" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="B29" s="72">
         <v>100</v>
@@ -15085,7 +14974,7 @@
     </row>
     <row r="30" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A30" s="76" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="B30" s="72">
         <v>100</v>
@@ -15516,7 +15405,7 @@
     </row>
     <row r="31" spans="1:143" x14ac:dyDescent="0.35">
       <c r="A31" s="76" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B31" s="69">
         <v>1</v>
@@ -15947,7 +15836,7 @@
     </row>
     <row r="32" spans="1:143" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="76" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B32" s="81">
         <v>1</v>
@@ -16385,8 +16274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="61" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A8" zoomScale="61" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16397,21 +16286,21 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="14" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -16424,15 +16313,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -16445,15 +16334,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -16490,15 +16379,15 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -16535,7 +16424,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -16560,7 +16449,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="49" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -16575,7 +16464,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="49" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -16590,7 +16479,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="52" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -16615,8 +16504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16628,7 +16517,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>65</v>
@@ -16716,8 +16605,8 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>107</v>
+      <c r="A2" s="56" t="s">
+        <v>158</v>
       </c>
       <c r="B2" s="16">
         <v>2</v>
@@ -16805,8 +16694,8 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>108</v>
+      <c r="A3" s="56" t="s">
+        <v>159</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
@@ -16894,8 +16783,8 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>109</v>
+      <c r="A4" s="56" t="s">
+        <v>160</v>
       </c>
       <c r="B4" s="19">
         <v>2</v>
@@ -16983,8 +16872,8 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>110</v>
+      <c r="A5" s="56" t="s">
+        <v>161</v>
       </c>
       <c r="B5" s="19">
         <v>2</v>
@@ -17072,8 +16961,8 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>111</v>
+      <c r="A6" s="56" t="s">
+        <v>162</v>
       </c>
       <c r="B6" s="19">
         <v>2</v>
@@ -17161,8 +17050,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>112</v>
+      <c r="A7" s="56" t="s">
+        <v>163</v>
       </c>
       <c r="B7" s="19">
         <v>2</v>
@@ -17250,8 +17139,8 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>113</v>
+      <c r="A8" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="B8" s="19">
         <v>2</v>
@@ -17339,8 +17228,8 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>114</v>
+      <c r="A9" s="56" t="s">
+        <v>165</v>
       </c>
       <c r="B9" s="19">
         <v>2</v>
@@ -17428,8 +17317,8 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
-        <v>115</v>
+      <c r="A10" s="56" t="s">
+        <v>166</v>
       </c>
       <c r="B10" s="19">
         <v>2</v>
@@ -17517,8 +17406,8 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
-        <v>116</v>
+      <c r="A11" s="56" t="s">
+        <v>167</v>
       </c>
       <c r="B11" s="19">
         <v>2</v>
@@ -17606,8 +17495,8 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>117</v>
+      <c r="A12" s="76" t="s">
+        <v>168</v>
       </c>
       <c r="B12" s="19">
         <v>2</v>
@@ -17695,8 +17584,8 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>118</v>
+      <c r="A13" s="76" t="s">
+        <v>169</v>
       </c>
       <c r="B13" s="19">
         <v>2</v>
@@ -17783,12 +17672,12 @@
         <v>2</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
-        <v>119</v>
+      <c r="A14" s="76" t="s">
+        <v>170</v>
       </c>
       <c r="B14" s="19">
         <v>2</v>
@@ -17876,8 +17765,8 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
-        <v>120</v>
+      <c r="A15" s="76" t="s">
+        <v>171</v>
       </c>
       <c r="B15" s="19">
         <v>2</v>
@@ -17965,8 +17854,8 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
-        <v>121</v>
+      <c r="A16" s="76" t="s">
+        <v>172</v>
       </c>
       <c r="B16" s="19">
         <v>2</v>
@@ -18054,8 +17943,8 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
-        <v>122</v>
+      <c r="A17" s="76" t="s">
+        <v>173</v>
       </c>
       <c r="B17" s="19">
         <v>2</v>
@@ -18143,8 +18032,8 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
-        <v>123</v>
+      <c r="A18" s="76" t="s">
+        <v>174</v>
       </c>
       <c r="B18" s="19">
         <v>2</v>
@@ -18232,8 +18121,8 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
-        <v>124</v>
+      <c r="A19" s="76" t="s">
+        <v>175</v>
       </c>
       <c r="B19" s="19">
         <v>2</v>
@@ -18322,8 +18211,8 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
-        <v>125</v>
+      <c r="A20" s="76" t="s">
+        <v>176</v>
       </c>
       <c r="B20" s="19">
         <v>2</v>
@@ -18411,8 +18300,8 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
-        <v>126</v>
+      <c r="A21" s="76" t="s">
+        <v>177</v>
       </c>
       <c r="B21" s="19">
         <v>2</v>
@@ -18500,8 +18389,8 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>127</v>
+      <c r="A22" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="B22" s="19">
         <v>2</v>
@@ -18589,8 +18478,8 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
-        <v>128</v>
+      <c r="A23" s="76" t="s">
+        <v>179</v>
       </c>
       <c r="B23" s="19">
         <v>2</v>
@@ -18678,8 +18567,8 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>129</v>
+      <c r="A24" s="76" t="s">
+        <v>180</v>
       </c>
       <c r="B24" s="19">
         <v>2</v>
@@ -18767,8 +18656,8 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>130</v>
+      <c r="A25" s="76" t="s">
+        <v>181</v>
       </c>
       <c r="B25" s="19">
         <v>2</v>
@@ -18856,8 +18745,8 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
-        <v>131</v>
+      <c r="A26" s="76" t="s">
+        <v>182</v>
       </c>
       <c r="B26" s="19">
         <v>2</v>
@@ -18945,8 +18834,8 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
-        <v>132</v>
+      <c r="A27" s="76" t="s">
+        <v>183</v>
       </c>
       <c r="B27" s="19">
         <v>2</v>
@@ -19034,8 +18923,8 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
-        <v>133</v>
+      <c r="A28" s="76" t="s">
+        <v>184</v>
       </c>
       <c r="B28" s="19">
         <v>2</v>
@@ -19123,8 +19012,8 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
-        <v>134</v>
+      <c r="A29" s="76" t="s">
+        <v>185</v>
       </c>
       <c r="B29" s="19">
         <v>2</v>
@@ -19212,8 +19101,8 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>135</v>
+      <c r="A30" s="76" t="s">
+        <v>186</v>
       </c>
       <c r="B30" s="19">
         <v>2</v>
@@ -19301,8 +19190,8 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
-        <v>136</v>
+      <c r="A31" s="76" t="s">
+        <v>187</v>
       </c>
       <c r="B31" s="19">
         <v>2</v>
@@ -19390,8 +19279,8 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
-        <v>137</v>
+      <c r="A32" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="B32" s="19">
         <v>2</v>
@@ -19479,8 +19368,8 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
-        <v>138</v>
+      <c r="A33" s="76" t="s">
+        <v>189</v>
       </c>
       <c r="B33" s="19">
         <v>2</v>
@@ -19568,449 +19457,159 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="19">
-        <v>2</v>
-      </c>
-      <c r="C34" s="15">
-        <v>0</v>
-      </c>
-      <c r="D34" s="15">
-        <v>0</v>
-      </c>
-      <c r="E34" s="15">
-        <v>1</v>
-      </c>
-      <c r="F34" s="15">
-        <v>1</v>
-      </c>
-      <c r="G34" s="15">
-        <v>2</v>
-      </c>
-      <c r="H34" s="15">
-        <v>3</v>
-      </c>
-      <c r="I34" s="15">
-        <v>3</v>
-      </c>
-      <c r="J34" s="15">
-        <v>1</v>
-      </c>
-      <c r="K34" s="15">
-        <v>3</v>
-      </c>
-      <c r="L34" s="15">
-        <v>1</v>
-      </c>
-      <c r="M34" s="15">
-        <v>1</v>
-      </c>
-      <c r="N34" s="15">
-        <v>2</v>
-      </c>
-      <c r="O34" s="15">
-        <v>3</v>
-      </c>
-      <c r="P34" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="15">
-        <v>0</v>
-      </c>
-      <c r="R34" s="15">
-        <v>0</v>
-      </c>
-      <c r="S34" s="15">
-        <v>1</v>
-      </c>
-      <c r="T34" s="15">
-        <v>1</v>
-      </c>
-      <c r="U34" s="15">
-        <v>3</v>
-      </c>
-      <c r="V34" s="15">
-        <v>3</v>
-      </c>
-      <c r="W34" s="15">
-        <v>2</v>
-      </c>
-      <c r="X34" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC34" s="20">
-        <v>2</v>
-      </c>
+      <c r="A34" s="27"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="20"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" s="19">
-        <v>2</v>
-      </c>
-      <c r="C35" s="15">
-        <v>0</v>
-      </c>
-      <c r="D35" s="15">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
-        <v>1</v>
-      </c>
-      <c r="F35" s="15">
-        <v>1</v>
-      </c>
-      <c r="G35" s="15">
-        <v>2</v>
-      </c>
-      <c r="H35" s="15">
-        <v>3</v>
-      </c>
-      <c r="I35" s="15">
-        <v>3</v>
-      </c>
-      <c r="J35" s="15">
-        <v>1</v>
-      </c>
-      <c r="K35" s="15">
-        <v>3</v>
-      </c>
-      <c r="L35" s="15">
-        <v>1</v>
-      </c>
-      <c r="M35" s="15">
-        <v>1</v>
-      </c>
-      <c r="N35" s="15">
-        <v>2</v>
-      </c>
-      <c r="O35" s="15">
-        <v>3</v>
-      </c>
-      <c r="P35" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="15">
-        <v>0</v>
-      </c>
-      <c r="R35" s="15">
-        <v>0</v>
-      </c>
-      <c r="S35" s="15">
-        <v>1</v>
-      </c>
-      <c r="T35" s="15">
-        <v>1</v>
-      </c>
-      <c r="U35" s="15">
-        <v>3</v>
-      </c>
-      <c r="V35" s="15">
-        <v>3</v>
-      </c>
-      <c r="W35" s="15">
-        <v>2</v>
-      </c>
-      <c r="X35" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC35" s="20">
-        <v>2</v>
-      </c>
+      <c r="A35" s="27"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="20"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="19">
-        <v>2</v>
-      </c>
-      <c r="C36" s="15">
-        <v>0</v>
-      </c>
-      <c r="D36" s="15">
-        <v>0</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1</v>
-      </c>
-      <c r="F36" s="15">
-        <v>1</v>
-      </c>
-      <c r="G36" s="15">
-        <v>2</v>
-      </c>
-      <c r="H36" s="15">
-        <v>3</v>
-      </c>
-      <c r="I36" s="15">
-        <v>3</v>
-      </c>
-      <c r="J36" s="15">
-        <v>1</v>
-      </c>
-      <c r="K36" s="15">
-        <v>3</v>
-      </c>
-      <c r="L36" s="15">
-        <v>1</v>
-      </c>
-      <c r="M36" s="15">
-        <v>1</v>
-      </c>
-      <c r="N36" s="15">
-        <v>2</v>
-      </c>
-      <c r="O36" s="15">
-        <v>3</v>
-      </c>
-      <c r="P36" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>0</v>
-      </c>
-      <c r="R36" s="15">
-        <v>0</v>
-      </c>
-      <c r="S36" s="15">
-        <v>1</v>
-      </c>
-      <c r="T36" s="15">
-        <v>1</v>
-      </c>
-      <c r="U36" s="15">
-        <v>3</v>
-      </c>
-      <c r="V36" s="15">
-        <v>3</v>
-      </c>
-      <c r="W36" s="15">
-        <v>2</v>
-      </c>
-      <c r="X36" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC36" s="20">
-        <v>2</v>
-      </c>
+      <c r="A36" s="27"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="20"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="19">
-        <v>2</v>
-      </c>
-      <c r="C37" s="15">
-        <v>0</v>
-      </c>
-      <c r="D37" s="15">
-        <v>0</v>
-      </c>
-      <c r="E37" s="15">
-        <v>1</v>
-      </c>
-      <c r="F37" s="15">
-        <v>1</v>
-      </c>
-      <c r="G37" s="15">
-        <v>2</v>
-      </c>
-      <c r="H37" s="15">
-        <v>3</v>
-      </c>
-      <c r="I37" s="15">
-        <v>3</v>
-      </c>
-      <c r="J37" s="15">
-        <v>1</v>
-      </c>
-      <c r="K37" s="15">
-        <v>3</v>
-      </c>
-      <c r="L37" s="15">
-        <v>1</v>
-      </c>
-      <c r="M37" s="15">
-        <v>1</v>
-      </c>
-      <c r="N37" s="15">
-        <v>2</v>
-      </c>
-      <c r="O37" s="15">
-        <v>3</v>
-      </c>
-      <c r="P37" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>0</v>
-      </c>
-      <c r="R37" s="15">
-        <v>0</v>
-      </c>
-      <c r="S37" s="15">
-        <v>1</v>
-      </c>
-      <c r="T37" s="15">
-        <v>1</v>
-      </c>
-      <c r="U37" s="15">
-        <v>3</v>
-      </c>
-      <c r="V37" s="15">
-        <v>3</v>
-      </c>
-      <c r="W37" s="15">
-        <v>2</v>
-      </c>
-      <c r="X37" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC37" s="20">
-        <v>2</v>
-      </c>
+      <c r="A37" s="27"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="20"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="19">
-        <v>2</v>
-      </c>
-      <c r="C38" s="15">
-        <v>0</v>
-      </c>
-      <c r="D38" s="15">
-        <v>0</v>
-      </c>
-      <c r="E38" s="15">
-        <v>1</v>
-      </c>
-      <c r="F38" s="15">
-        <v>1</v>
-      </c>
-      <c r="G38" s="15">
-        <v>2</v>
-      </c>
-      <c r="H38" s="15">
-        <v>3</v>
-      </c>
-      <c r="I38" s="15">
-        <v>3</v>
-      </c>
-      <c r="J38" s="15">
-        <v>1</v>
-      </c>
-      <c r="K38" s="15">
-        <v>3</v>
-      </c>
-      <c r="L38" s="15">
-        <v>1</v>
-      </c>
-      <c r="M38" s="15">
-        <v>1</v>
-      </c>
-      <c r="N38" s="15">
-        <v>2</v>
-      </c>
-      <c r="O38" s="15">
-        <v>3</v>
-      </c>
-      <c r="P38" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>0</v>
-      </c>
-      <c r="R38" s="15">
-        <v>0</v>
-      </c>
-      <c r="S38" s="15">
-        <v>1</v>
-      </c>
-      <c r="T38" s="15">
-        <v>1</v>
-      </c>
-      <c r="U38" s="15">
-        <v>3</v>
-      </c>
-      <c r="V38" s="15">
-        <v>3</v>
-      </c>
-      <c r="W38" s="15">
-        <v>2</v>
-      </c>
-      <c r="X38" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC38" s="20">
-        <v>2</v>
-      </c>
+      <c r="A38" s="27"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="20"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
@@ -21988,20 +21587,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="14" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -22014,15 +21613,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -22035,15 +21634,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -22080,15 +21679,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -22125,7 +21724,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -22135,20 +21734,20 @@
     </row>
     <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.6">
       <c r="A29" s="14" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -22161,15 +21760,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -22182,15 +21781,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -22227,15 +21826,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -22272,7 +21871,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -22282,20 +21881,20 @@
     </row>
     <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.6">
       <c r="A57" s="14" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -22308,15 +21907,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -22329,15 +21928,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -22374,15 +21973,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -22419,7 +22018,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -22429,20 +22028,20 @@
     </row>
     <row r="85" spans="1:2" ht="26" x14ac:dyDescent="0.6">
       <c r="A85" s="14" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -22455,15 +22054,15 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -22476,15 +22075,15 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -22521,15 +22120,15 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -22566,7 +22165,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -22594,20 +22193,20 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -22626,7 +22225,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -22874,7 +22473,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -23098,7 +22697,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -23747,91 +23346,91 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="P1" s="55" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="55" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="S1" s="55" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="T1" s="55" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="U1" s="55" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="V1" s="55" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="W1" s="55" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="X1" s="55" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="55" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="55" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="55" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="55" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="AC1" s="55" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B96C2B-4C69-4666-86FB-32002DF9ECCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42500E2-DAB5-4362-8C40-86A53BB3CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1223,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1379,6 +1379,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16504,8 +16505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16608,177 +16609,177 @@
       <c r="A2" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="16">
-        <v>2</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18">
-        <v>1</v>
-      </c>
-      <c r="G2" s="18">
-        <v>2</v>
-      </c>
-      <c r="H2" s="18">
-        <v>3</v>
-      </c>
-      <c r="I2" s="18">
-        <v>3</v>
-      </c>
-      <c r="J2" s="18">
-        <v>1</v>
-      </c>
-      <c r="K2" s="18">
-        <v>3</v>
-      </c>
-      <c r="L2" s="18">
-        <v>1</v>
-      </c>
-      <c r="M2" s="18">
-        <v>1</v>
-      </c>
-      <c r="N2" s="18">
-        <v>2</v>
-      </c>
-      <c r="O2" s="18">
-        <v>3</v>
-      </c>
-      <c r="P2" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>0</v>
-      </c>
-      <c r="R2" s="18">
-        <v>0</v>
-      </c>
-      <c r="S2" s="18">
-        <v>1</v>
-      </c>
-      <c r="T2" s="18">
-        <v>1</v>
-      </c>
-      <c r="U2" s="18">
-        <v>3</v>
-      </c>
-      <c r="V2" s="18">
-        <v>3</v>
-      </c>
-      <c r="W2" s="18">
-        <v>2</v>
-      </c>
-      <c r="X2" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="17">
-        <v>2</v>
+      <c r="B2" s="89">
+        <v>3</v>
+      </c>
+      <c r="C2" s="89">
+        <v>3</v>
+      </c>
+      <c r="D2" s="89">
+        <v>3</v>
+      </c>
+      <c r="E2" s="89">
+        <v>3</v>
+      </c>
+      <c r="F2" s="89">
+        <v>3</v>
+      </c>
+      <c r="G2" s="89">
+        <v>0</v>
+      </c>
+      <c r="H2" s="89">
+        <v>0</v>
+      </c>
+      <c r="I2" s="89">
+        <v>3</v>
+      </c>
+      <c r="J2" s="89">
+        <v>3</v>
+      </c>
+      <c r="K2" s="89">
+        <v>3</v>
+      </c>
+      <c r="L2" s="89">
+        <v>3</v>
+      </c>
+      <c r="M2" s="89">
+        <v>3</v>
+      </c>
+      <c r="N2" s="89">
+        <v>0</v>
+      </c>
+      <c r="O2" s="89">
+        <v>0</v>
+      </c>
+      <c r="P2" s="89">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="89">
+        <v>3</v>
+      </c>
+      <c r="R2" s="89">
+        <v>3</v>
+      </c>
+      <c r="S2" s="89">
+        <v>3</v>
+      </c>
+      <c r="T2" s="89">
+        <v>3</v>
+      </c>
+      <c r="U2" s="89">
+        <v>0</v>
+      </c>
+      <c r="V2" s="89">
+        <v>0</v>
+      </c>
+      <c r="W2" s="89">
+        <v>3</v>
+      </c>
+      <c r="X2" s="89">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="89">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="89">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="89">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="19">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15">
-        <v>2</v>
-      </c>
-      <c r="H3" s="15">
-        <v>3</v>
-      </c>
-      <c r="I3" s="15">
-        <v>3</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
-        <v>3</v>
-      </c>
-      <c r="L3" s="15">
-        <v>1</v>
-      </c>
-      <c r="M3" s="15">
-        <v>1</v>
-      </c>
-      <c r="N3" s="15">
-        <v>2</v>
-      </c>
-      <c r="O3" s="15">
-        <v>3</v>
-      </c>
-      <c r="P3" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>0</v>
-      </c>
-      <c r="R3" s="15">
-        <v>0</v>
-      </c>
-      <c r="S3" s="15">
-        <v>1</v>
-      </c>
-      <c r="T3" s="15">
-        <v>1</v>
-      </c>
-      <c r="U3" s="15">
-        <v>3</v>
-      </c>
-      <c r="V3" s="15">
-        <v>3</v>
-      </c>
-      <c r="W3" s="15">
-        <v>2</v>
-      </c>
-      <c r="X3" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="20">
+      <c r="B3" s="89">
+        <v>0</v>
+      </c>
+      <c r="C3" s="89">
+        <v>0</v>
+      </c>
+      <c r="D3" s="89">
+        <v>0</v>
+      </c>
+      <c r="E3" s="89">
+        <v>1</v>
+      </c>
+      <c r="F3" s="89">
+        <v>1</v>
+      </c>
+      <c r="G3" s="89">
+        <v>1</v>
+      </c>
+      <c r="H3" s="89">
+        <v>2</v>
+      </c>
+      <c r="I3" s="89">
+        <v>0</v>
+      </c>
+      <c r="J3" s="89">
+        <v>0</v>
+      </c>
+      <c r="K3" s="89">
+        <v>0</v>
+      </c>
+      <c r="L3" s="89">
+        <v>1</v>
+      </c>
+      <c r="M3" s="89">
+        <v>1</v>
+      </c>
+      <c r="N3" s="89">
+        <v>1</v>
+      </c>
+      <c r="O3" s="89">
+        <v>0</v>
+      </c>
+      <c r="P3" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="89">
+        <v>0</v>
+      </c>
+      <c r="R3" s="89">
+        <v>0</v>
+      </c>
+      <c r="S3" s="89">
+        <v>1</v>
+      </c>
+      <c r="T3" s="89">
+        <v>1</v>
+      </c>
+      <c r="U3" s="89">
+        <v>1</v>
+      </c>
+      <c r="V3" s="89">
+        <v>2</v>
+      </c>
+      <c r="W3" s="89">
+        <v>0</v>
+      </c>
+      <c r="X3" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="89">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="89">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="89">
         <v>2</v>
       </c>
     </row>
@@ -16786,177 +16787,177 @@
       <c r="A4" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="19">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15">
-        <v>3</v>
-      </c>
-      <c r="I4" s="15">
-        <v>3</v>
-      </c>
-      <c r="J4" s="15">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15">
-        <v>3</v>
-      </c>
-      <c r="L4" s="15">
-        <v>1</v>
-      </c>
-      <c r="M4" s="15">
-        <v>1</v>
-      </c>
-      <c r="N4" s="15">
-        <v>2</v>
-      </c>
-      <c r="O4" s="15">
-        <v>3</v>
-      </c>
-      <c r="P4" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
-      <c r="R4" s="15">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15">
-        <v>1</v>
-      </c>
-      <c r="T4" s="15">
-        <v>1</v>
-      </c>
-      <c r="U4" s="15">
-        <v>3</v>
-      </c>
-      <c r="V4" s="15">
-        <v>3</v>
-      </c>
-      <c r="W4" s="15">
-        <v>2</v>
-      </c>
-      <c r="X4" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="20">
-        <v>2</v>
+      <c r="B4" s="89">
+        <v>2</v>
+      </c>
+      <c r="C4" s="89">
+        <v>2</v>
+      </c>
+      <c r="D4" s="89">
+        <v>2</v>
+      </c>
+      <c r="E4" s="89">
+        <v>2</v>
+      </c>
+      <c r="F4" s="89">
+        <v>2</v>
+      </c>
+      <c r="G4" s="89">
+        <v>0</v>
+      </c>
+      <c r="H4" s="89">
+        <v>0</v>
+      </c>
+      <c r="I4" s="89">
+        <v>2</v>
+      </c>
+      <c r="J4" s="89">
+        <v>2</v>
+      </c>
+      <c r="K4" s="89">
+        <v>2</v>
+      </c>
+      <c r="L4" s="89">
+        <v>2</v>
+      </c>
+      <c r="M4" s="89">
+        <v>2</v>
+      </c>
+      <c r="N4" s="89">
+        <v>0</v>
+      </c>
+      <c r="O4" s="89">
+        <v>0</v>
+      </c>
+      <c r="P4" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="89">
+        <v>2</v>
+      </c>
+      <c r="R4" s="89">
+        <v>2</v>
+      </c>
+      <c r="S4" s="89">
+        <v>2</v>
+      </c>
+      <c r="T4" s="89">
+        <v>2</v>
+      </c>
+      <c r="U4" s="89">
+        <v>0</v>
+      </c>
+      <c r="V4" s="89">
+        <v>0</v>
+      </c>
+      <c r="W4" s="89">
+        <v>2</v>
+      </c>
+      <c r="X4" s="89">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="89">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="89">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="89">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2</v>
-      </c>
-      <c r="H5" s="15">
-        <v>3</v>
-      </c>
-      <c r="I5" s="15">
-        <v>3</v>
-      </c>
-      <c r="J5" s="15">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <v>3</v>
-      </c>
-      <c r="L5" s="15">
-        <v>1</v>
-      </c>
-      <c r="M5" s="15">
-        <v>1</v>
-      </c>
-      <c r="N5" s="15">
-        <v>2</v>
-      </c>
-      <c r="O5" s="15">
-        <v>3</v>
-      </c>
-      <c r="P5" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>0</v>
-      </c>
-      <c r="R5" s="15">
-        <v>0</v>
-      </c>
-      <c r="S5" s="15">
-        <v>1</v>
-      </c>
-      <c r="T5" s="15">
-        <v>1</v>
-      </c>
-      <c r="U5" s="15">
-        <v>3</v>
-      </c>
-      <c r="V5" s="15">
-        <v>3</v>
-      </c>
-      <c r="W5" s="15">
-        <v>2</v>
-      </c>
-      <c r="X5" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="20">
+      <c r="B5" s="89">
+        <v>0</v>
+      </c>
+      <c r="C5" s="89">
+        <v>0</v>
+      </c>
+      <c r="D5" s="89">
+        <v>1</v>
+      </c>
+      <c r="E5" s="89">
+        <v>1</v>
+      </c>
+      <c r="F5" s="89">
+        <v>1</v>
+      </c>
+      <c r="G5" s="89">
+        <v>1</v>
+      </c>
+      <c r="H5" s="89">
+        <v>2</v>
+      </c>
+      <c r="I5" s="89">
+        <v>0</v>
+      </c>
+      <c r="J5" s="89">
+        <v>0</v>
+      </c>
+      <c r="K5" s="89">
+        <v>1</v>
+      </c>
+      <c r="L5" s="89">
+        <v>1</v>
+      </c>
+      <c r="M5" s="89">
+        <v>1</v>
+      </c>
+      <c r="N5" s="89">
+        <v>1</v>
+      </c>
+      <c r="O5" s="89">
+        <v>2</v>
+      </c>
+      <c r="P5" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="89">
+        <v>0</v>
+      </c>
+      <c r="R5" s="89">
+        <v>1</v>
+      </c>
+      <c r="S5" s="89">
+        <v>1</v>
+      </c>
+      <c r="T5" s="89">
+        <v>1</v>
+      </c>
+      <c r="U5" s="89">
+        <v>1</v>
+      </c>
+      <c r="V5" s="89">
+        <v>2</v>
+      </c>
+      <c r="W5" s="89">
+        <v>0</v>
+      </c>
+      <c r="X5" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="89">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="89">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="89">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="89">
         <v>2</v>
       </c>
     </row>
@@ -16964,712 +16965,712 @@
       <c r="A6" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="19">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15">
-        <v>2</v>
-      </c>
-      <c r="H6" s="15">
-        <v>3</v>
-      </c>
-      <c r="I6" s="15">
-        <v>3</v>
-      </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15">
-        <v>3</v>
-      </c>
-      <c r="L6" s="15">
-        <v>1</v>
-      </c>
-      <c r="M6" s="15">
-        <v>1</v>
-      </c>
-      <c r="N6" s="15">
-        <v>2</v>
-      </c>
-      <c r="O6" s="15">
-        <v>3</v>
-      </c>
-      <c r="P6" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>0</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <v>1</v>
-      </c>
-      <c r="T6" s="15">
-        <v>1</v>
-      </c>
-      <c r="U6" s="15">
-        <v>3</v>
-      </c>
-      <c r="V6" s="15">
-        <v>3</v>
-      </c>
-      <c r="W6" s="15">
-        <v>2</v>
-      </c>
-      <c r="X6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="20">
-        <v>2</v>
+      <c r="B6" s="89">
+        <v>2</v>
+      </c>
+      <c r="C6" s="89">
+        <v>2</v>
+      </c>
+      <c r="D6" s="89">
+        <v>2</v>
+      </c>
+      <c r="E6" s="89">
+        <v>2</v>
+      </c>
+      <c r="F6" s="89">
+        <v>2</v>
+      </c>
+      <c r="G6" s="89">
+        <v>0</v>
+      </c>
+      <c r="H6" s="89">
+        <v>0</v>
+      </c>
+      <c r="I6" s="89">
+        <v>2</v>
+      </c>
+      <c r="J6" s="89">
+        <v>2</v>
+      </c>
+      <c r="K6" s="89">
+        <v>2</v>
+      </c>
+      <c r="L6" s="89">
+        <v>2</v>
+      </c>
+      <c r="M6" s="89">
+        <v>2</v>
+      </c>
+      <c r="N6" s="89">
+        <v>0</v>
+      </c>
+      <c r="O6" s="89">
+        <v>0</v>
+      </c>
+      <c r="P6" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="89">
+        <v>2</v>
+      </c>
+      <c r="R6" s="89">
+        <v>2</v>
+      </c>
+      <c r="S6" s="89">
+        <v>2</v>
+      </c>
+      <c r="T6" s="89">
+        <v>2</v>
+      </c>
+      <c r="U6" s="89">
+        <v>0</v>
+      </c>
+      <c r="V6" s="89">
+        <v>0</v>
+      </c>
+      <c r="W6" s="89">
+        <v>2</v>
+      </c>
+      <c r="X6" s="89">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="89">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="89">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="89">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="19">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15">
-        <v>3</v>
-      </c>
-      <c r="I7" s="15">
-        <v>3</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15">
-        <v>3</v>
-      </c>
-      <c r="L7" s="15">
-        <v>1</v>
-      </c>
-      <c r="M7" s="15">
-        <v>1</v>
-      </c>
-      <c r="N7" s="15">
-        <v>2</v>
-      </c>
-      <c r="O7" s="15">
-        <v>3</v>
-      </c>
-      <c r="P7" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>0</v>
-      </c>
-      <c r="R7" s="15">
-        <v>0</v>
-      </c>
-      <c r="S7" s="15">
-        <v>1</v>
-      </c>
-      <c r="T7" s="15">
-        <v>1</v>
-      </c>
-      <c r="U7" s="15">
-        <v>3</v>
-      </c>
-      <c r="V7" s="15">
-        <v>3</v>
-      </c>
-      <c r="W7" s="15">
-        <v>2</v>
-      </c>
-      <c r="X7" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="20">
-        <v>2</v>
+      <c r="B7" s="89">
+        <v>1</v>
+      </c>
+      <c r="C7" s="89">
+        <v>1</v>
+      </c>
+      <c r="D7" s="89">
+        <v>1</v>
+      </c>
+      <c r="E7" s="89">
+        <v>1</v>
+      </c>
+      <c r="F7" s="89">
+        <v>1</v>
+      </c>
+      <c r="G7" s="89">
+        <v>0</v>
+      </c>
+      <c r="H7" s="89">
+        <v>0</v>
+      </c>
+      <c r="I7" s="89">
+        <v>1</v>
+      </c>
+      <c r="J7" s="89">
+        <v>1</v>
+      </c>
+      <c r="K7" s="89">
+        <v>1</v>
+      </c>
+      <c r="L7" s="89">
+        <v>1</v>
+      </c>
+      <c r="M7" s="89">
+        <v>1</v>
+      </c>
+      <c r="N7" s="89">
+        <v>0</v>
+      </c>
+      <c r="O7" s="89">
+        <v>0</v>
+      </c>
+      <c r="P7" s="89">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="89">
+        <v>1</v>
+      </c>
+      <c r="R7" s="89">
+        <v>1</v>
+      </c>
+      <c r="S7" s="89">
+        <v>1</v>
+      </c>
+      <c r="T7" s="89">
+        <v>1</v>
+      </c>
+      <c r="U7" s="89">
+        <v>0</v>
+      </c>
+      <c r="V7" s="89">
+        <v>0</v>
+      </c>
+      <c r="W7" s="89">
+        <v>1</v>
+      </c>
+      <c r="X7" s="89">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="89">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="89">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="19">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15">
-        <v>2</v>
-      </c>
-      <c r="H8" s="15">
-        <v>3</v>
-      </c>
-      <c r="I8" s="15">
-        <v>3</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
-        <v>3</v>
-      </c>
-      <c r="L8" s="15">
-        <v>1</v>
-      </c>
-      <c r="M8" s="15">
-        <v>1</v>
-      </c>
-      <c r="N8" s="15">
-        <v>2</v>
-      </c>
-      <c r="O8" s="15">
-        <v>3</v>
-      </c>
-      <c r="P8" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>0</v>
-      </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <v>1</v>
-      </c>
-      <c r="T8" s="15">
-        <v>1</v>
-      </c>
-      <c r="U8" s="15">
-        <v>3</v>
-      </c>
-      <c r="V8" s="15">
-        <v>3</v>
-      </c>
-      <c r="W8" s="15">
-        <v>2</v>
-      </c>
-      <c r="X8" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="20">
-        <v>2</v>
+      <c r="B8" s="89">
+        <v>3</v>
+      </c>
+      <c r="C8" s="89">
+        <v>3</v>
+      </c>
+      <c r="D8" s="89">
+        <v>0</v>
+      </c>
+      <c r="E8" s="89">
+        <v>0</v>
+      </c>
+      <c r="F8" s="89">
+        <v>3</v>
+      </c>
+      <c r="G8" s="89">
+        <v>3</v>
+      </c>
+      <c r="H8" s="89">
+        <v>3</v>
+      </c>
+      <c r="I8" s="89">
+        <v>3</v>
+      </c>
+      <c r="J8" s="89">
+        <v>3</v>
+      </c>
+      <c r="K8" s="89">
+        <v>0</v>
+      </c>
+      <c r="L8" s="89">
+        <v>0</v>
+      </c>
+      <c r="M8" s="89">
+        <v>3</v>
+      </c>
+      <c r="N8" s="89">
+        <v>3</v>
+      </c>
+      <c r="O8" s="89">
+        <v>3</v>
+      </c>
+      <c r="P8" s="89">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="89">
+        <v>3</v>
+      </c>
+      <c r="R8" s="89">
+        <v>0</v>
+      </c>
+      <c r="S8" s="89">
+        <v>0</v>
+      </c>
+      <c r="T8" s="89">
+        <v>3</v>
+      </c>
+      <c r="U8" s="89">
+        <v>3</v>
+      </c>
+      <c r="V8" s="89">
+        <v>3</v>
+      </c>
+      <c r="W8" s="89">
+        <v>3</v>
+      </c>
+      <c r="X8" s="89">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="89">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="89">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="89">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="19">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>2</v>
-      </c>
-      <c r="H9" s="15">
-        <v>3</v>
-      </c>
-      <c r="I9" s="15">
-        <v>3</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15">
-        <v>3</v>
-      </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15">
-        <v>1</v>
-      </c>
-      <c r="N9" s="15">
-        <v>2</v>
-      </c>
-      <c r="O9" s="15">
-        <v>3</v>
-      </c>
-      <c r="P9" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>0</v>
-      </c>
-      <c r="R9" s="15">
-        <v>0</v>
-      </c>
-      <c r="S9" s="15">
-        <v>1</v>
-      </c>
-      <c r="T9" s="15">
-        <v>1</v>
-      </c>
-      <c r="U9" s="15">
-        <v>3</v>
-      </c>
-      <c r="V9" s="15">
-        <v>3</v>
-      </c>
-      <c r="W9" s="15">
-        <v>2</v>
-      </c>
-      <c r="X9" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="20">
-        <v>2</v>
+      <c r="B9" s="89">
+        <v>1</v>
+      </c>
+      <c r="C9" s="89">
+        <v>1</v>
+      </c>
+      <c r="D9" s="89">
+        <v>2</v>
+      </c>
+      <c r="E9" s="89">
+        <v>2</v>
+      </c>
+      <c r="F9" s="89">
+        <v>2</v>
+      </c>
+      <c r="G9" s="89">
+        <v>0</v>
+      </c>
+      <c r="H9" s="89">
+        <v>0</v>
+      </c>
+      <c r="I9" s="89">
+        <v>1</v>
+      </c>
+      <c r="J9" s="89">
+        <v>1</v>
+      </c>
+      <c r="K9" s="89">
+        <v>2</v>
+      </c>
+      <c r="L9" s="89">
+        <v>2</v>
+      </c>
+      <c r="M9" s="89">
+        <v>2</v>
+      </c>
+      <c r="N9" s="89">
+        <v>0</v>
+      </c>
+      <c r="O9" s="89">
+        <v>0</v>
+      </c>
+      <c r="P9" s="89">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="89">
+        <v>1</v>
+      </c>
+      <c r="R9" s="89">
+        <v>2</v>
+      </c>
+      <c r="S9" s="89">
+        <v>2</v>
+      </c>
+      <c r="T9" s="89">
+        <v>2</v>
+      </c>
+      <c r="U9" s="89">
+        <v>0</v>
+      </c>
+      <c r="V9" s="89">
+        <v>0</v>
+      </c>
+      <c r="W9" s="89">
+        <v>1</v>
+      </c>
+      <c r="X9" s="89">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="89">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="89">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="89">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="19">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>2</v>
-      </c>
-      <c r="H10" s="15">
-        <v>3</v>
-      </c>
-      <c r="I10" s="15">
-        <v>3</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>3</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="15">
-        <v>1</v>
-      </c>
-      <c r="N10" s="15">
-        <v>2</v>
-      </c>
-      <c r="O10" s="15">
-        <v>3</v>
-      </c>
-      <c r="P10" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>0</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>1</v>
-      </c>
-      <c r="T10" s="15">
-        <v>1</v>
-      </c>
-      <c r="U10" s="15">
-        <v>3</v>
-      </c>
-      <c r="V10" s="15">
-        <v>3</v>
-      </c>
-      <c r="W10" s="15">
-        <v>2</v>
-      </c>
-      <c r="X10" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="20">
-        <v>2</v>
+      <c r="B10" s="89">
+        <v>1</v>
+      </c>
+      <c r="C10" s="89">
+        <v>1</v>
+      </c>
+      <c r="D10" s="89">
+        <v>1</v>
+      </c>
+      <c r="E10" s="89">
+        <v>1</v>
+      </c>
+      <c r="F10" s="89">
+        <v>1</v>
+      </c>
+      <c r="G10" s="89">
+        <v>0</v>
+      </c>
+      <c r="H10" s="89">
+        <v>0</v>
+      </c>
+      <c r="I10" s="89">
+        <v>1</v>
+      </c>
+      <c r="J10" s="89">
+        <v>1</v>
+      </c>
+      <c r="K10" s="89">
+        <v>1</v>
+      </c>
+      <c r="L10" s="89">
+        <v>1</v>
+      </c>
+      <c r="M10" s="89">
+        <v>1</v>
+      </c>
+      <c r="N10" s="89">
+        <v>0</v>
+      </c>
+      <c r="O10" s="89">
+        <v>0</v>
+      </c>
+      <c r="P10" s="89">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="89">
+        <v>1</v>
+      </c>
+      <c r="R10" s="89">
+        <v>1</v>
+      </c>
+      <c r="S10" s="89">
+        <v>1</v>
+      </c>
+      <c r="T10" s="89">
+        <v>1</v>
+      </c>
+      <c r="U10" s="89">
+        <v>0</v>
+      </c>
+      <c r="V10" s="89">
+        <v>0</v>
+      </c>
+      <c r="W10" s="89">
+        <v>1</v>
+      </c>
+      <c r="X10" s="89">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="89">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="89">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="19">
-        <v>2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>2</v>
-      </c>
-      <c r="H11" s="15">
-        <v>3</v>
-      </c>
-      <c r="I11" s="15">
-        <v>3</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15">
-        <v>3</v>
-      </c>
-      <c r="L11" s="15">
-        <v>1</v>
-      </c>
-      <c r="M11" s="15">
-        <v>1</v>
-      </c>
-      <c r="N11" s="15">
-        <v>2</v>
-      </c>
-      <c r="O11" s="15">
-        <v>3</v>
-      </c>
-      <c r="P11" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>0</v>
-      </c>
-      <c r="R11" s="15">
-        <v>0</v>
-      </c>
-      <c r="S11" s="15">
-        <v>1</v>
-      </c>
-      <c r="T11" s="15">
-        <v>1</v>
-      </c>
-      <c r="U11" s="15">
-        <v>3</v>
-      </c>
-      <c r="V11" s="15">
-        <v>3</v>
-      </c>
-      <c r="W11" s="15">
-        <v>2</v>
-      </c>
-      <c r="X11" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="20">
-        <v>2</v>
+      <c r="B11" s="89">
+        <v>1</v>
+      </c>
+      <c r="C11" s="89">
+        <v>1</v>
+      </c>
+      <c r="D11" s="89">
+        <v>1</v>
+      </c>
+      <c r="E11" s="89">
+        <v>1</v>
+      </c>
+      <c r="F11" s="89">
+        <v>1</v>
+      </c>
+      <c r="G11" s="89">
+        <v>0</v>
+      </c>
+      <c r="H11" s="89">
+        <v>0</v>
+      </c>
+      <c r="I11" s="89">
+        <v>1</v>
+      </c>
+      <c r="J11" s="89">
+        <v>1</v>
+      </c>
+      <c r="K11" s="89">
+        <v>1</v>
+      </c>
+      <c r="L11" s="89">
+        <v>1</v>
+      </c>
+      <c r="M11" s="89">
+        <v>1</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="89">
+        <v>0</v>
+      </c>
+      <c r="P11" s="89">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="89">
+        <v>1</v>
+      </c>
+      <c r="R11" s="89">
+        <v>1</v>
+      </c>
+      <c r="S11" s="89">
+        <v>1</v>
+      </c>
+      <c r="T11" s="89">
+        <v>1</v>
+      </c>
+      <c r="U11" s="89">
+        <v>0</v>
+      </c>
+      <c r="V11" s="89">
+        <v>0</v>
+      </c>
+      <c r="W11" s="89">
+        <v>1</v>
+      </c>
+      <c r="X11" s="89">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="89">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="89">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>2</v>
-      </c>
-      <c r="H12" s="15">
-        <v>3</v>
-      </c>
-      <c r="I12" s="15">
-        <v>3</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15">
-        <v>3</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1</v>
-      </c>
-      <c r="M12" s="15">
-        <v>1</v>
-      </c>
-      <c r="N12" s="15">
-        <v>2</v>
-      </c>
-      <c r="O12" s="15">
-        <v>3</v>
-      </c>
-      <c r="P12" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>0</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <v>1</v>
-      </c>
-      <c r="T12" s="15">
-        <v>1</v>
-      </c>
-      <c r="U12" s="15">
-        <v>3</v>
-      </c>
-      <c r="V12" s="15">
-        <v>3</v>
-      </c>
-      <c r="W12" s="15">
-        <v>2</v>
-      </c>
-      <c r="X12" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="20">
-        <v>2</v>
+      <c r="B12" s="89">
+        <v>1</v>
+      </c>
+      <c r="C12" s="89">
+        <v>1</v>
+      </c>
+      <c r="D12" s="89">
+        <v>0</v>
+      </c>
+      <c r="E12" s="89">
+        <v>0</v>
+      </c>
+      <c r="F12" s="89">
+        <v>0</v>
+      </c>
+      <c r="G12" s="89">
+        <v>1</v>
+      </c>
+      <c r="H12" s="89">
+        <v>1</v>
+      </c>
+      <c r="I12" s="89">
+        <v>1</v>
+      </c>
+      <c r="J12" s="89">
+        <v>1</v>
+      </c>
+      <c r="K12" s="89">
+        <v>0</v>
+      </c>
+      <c r="L12" s="89">
+        <v>0</v>
+      </c>
+      <c r="M12" s="89">
+        <v>0</v>
+      </c>
+      <c r="N12" s="89">
+        <v>1</v>
+      </c>
+      <c r="O12" s="89">
+        <v>1</v>
+      </c>
+      <c r="P12" s="89">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="89">
+        <v>1</v>
+      </c>
+      <c r="R12" s="89">
+        <v>0</v>
+      </c>
+      <c r="S12" s="89">
+        <v>0</v>
+      </c>
+      <c r="T12" s="89">
+        <v>0</v>
+      </c>
+      <c r="U12" s="89">
+        <v>1</v>
+      </c>
+      <c r="V12" s="89">
+        <v>1</v>
+      </c>
+      <c r="W12" s="89">
+        <v>1</v>
+      </c>
+      <c r="X12" s="89">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="89">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="19">
-        <v>2</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15">
-        <v>2</v>
-      </c>
-      <c r="H13" s="15">
-        <v>3</v>
-      </c>
-      <c r="I13" s="15">
-        <v>3</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15">
-        <v>3</v>
-      </c>
-      <c r="L13" s="15">
-        <v>1</v>
-      </c>
-      <c r="M13" s="15">
-        <v>1</v>
-      </c>
-      <c r="N13" s="15">
-        <v>2</v>
-      </c>
-      <c r="O13" s="15">
-        <v>3</v>
-      </c>
-      <c r="P13" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>0</v>
-      </c>
-      <c r="R13" s="15">
-        <v>0</v>
-      </c>
-      <c r="S13" s="15">
-        <v>1</v>
-      </c>
-      <c r="T13" s="15">
-        <v>1</v>
-      </c>
-      <c r="U13" s="15">
-        <v>3</v>
-      </c>
-      <c r="V13" s="15">
-        <v>3</v>
-      </c>
-      <c r="W13" s="15">
-        <v>2</v>
-      </c>
-      <c r="X13" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="20">
-        <v>2</v>
+      <c r="B13" s="89">
+        <v>2</v>
+      </c>
+      <c r="C13" s="89">
+        <v>0</v>
+      </c>
+      <c r="D13" s="89">
+        <v>0</v>
+      </c>
+      <c r="E13" s="89">
+        <v>0</v>
+      </c>
+      <c r="F13" s="89">
+        <v>1</v>
+      </c>
+      <c r="G13" s="89">
+        <v>1</v>
+      </c>
+      <c r="H13" s="89">
+        <v>1</v>
+      </c>
+      <c r="I13" s="89">
+        <v>0</v>
+      </c>
+      <c r="J13" s="89">
+        <v>0</v>
+      </c>
+      <c r="K13" s="89">
+        <v>0</v>
+      </c>
+      <c r="L13" s="89">
+        <v>0</v>
+      </c>
+      <c r="M13" s="89">
+        <v>1</v>
+      </c>
+      <c r="N13" s="89">
+        <v>1</v>
+      </c>
+      <c r="O13" s="89">
+        <v>1</v>
+      </c>
+      <c r="P13" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="89">
+        <v>0</v>
+      </c>
+      <c r="R13" s="89">
+        <v>0</v>
+      </c>
+      <c r="S13" s="89">
+        <v>0</v>
+      </c>
+      <c r="T13" s="89">
+        <v>1</v>
+      </c>
+      <c r="U13" s="89">
+        <v>1</v>
+      </c>
+      <c r="V13" s="89">
+        <v>1</v>
+      </c>
+      <c r="W13" s="89">
+        <v>2</v>
+      </c>
+      <c r="X13" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="89">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="89">
+        <v>1</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>127</v>
@@ -17679,533 +17680,533 @@
       <c r="A14" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="19">
-        <v>2</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
-        <v>2</v>
-      </c>
-      <c r="H14" s="15">
-        <v>3</v>
-      </c>
-      <c r="I14" s="15">
-        <v>3</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15">
-        <v>3</v>
-      </c>
-      <c r="L14" s="15">
-        <v>1</v>
-      </c>
-      <c r="M14" s="15">
-        <v>1</v>
-      </c>
-      <c r="N14" s="15">
-        <v>2</v>
-      </c>
-      <c r="O14" s="15">
-        <v>3</v>
-      </c>
-      <c r="P14" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>0</v>
-      </c>
-      <c r="R14" s="15">
-        <v>0</v>
-      </c>
-      <c r="S14" s="15">
-        <v>1</v>
-      </c>
-      <c r="T14" s="15">
-        <v>1</v>
-      </c>
-      <c r="U14" s="15">
-        <v>3</v>
-      </c>
-      <c r="V14" s="15">
-        <v>3</v>
-      </c>
-      <c r="W14" s="15">
-        <v>2</v>
-      </c>
-      <c r="X14" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="20">
-        <v>2</v>
+      <c r="B14" s="89">
+        <v>2</v>
+      </c>
+      <c r="C14" s="89">
+        <v>2</v>
+      </c>
+      <c r="D14" s="89">
+        <v>2</v>
+      </c>
+      <c r="E14" s="89">
+        <v>0</v>
+      </c>
+      <c r="F14" s="89">
+        <v>0</v>
+      </c>
+      <c r="G14" s="89">
+        <v>1</v>
+      </c>
+      <c r="H14" s="89">
+        <v>1</v>
+      </c>
+      <c r="I14" s="89">
+        <v>2</v>
+      </c>
+      <c r="J14" s="89">
+        <v>2</v>
+      </c>
+      <c r="K14" s="89">
+        <v>2</v>
+      </c>
+      <c r="L14" s="89">
+        <v>0</v>
+      </c>
+      <c r="M14" s="89">
+        <v>0</v>
+      </c>
+      <c r="N14" s="89">
+        <v>1</v>
+      </c>
+      <c r="O14" s="89">
+        <v>1</v>
+      </c>
+      <c r="P14" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="89">
+        <v>2</v>
+      </c>
+      <c r="R14" s="89">
+        <v>2</v>
+      </c>
+      <c r="S14" s="89">
+        <v>0</v>
+      </c>
+      <c r="T14" s="89">
+        <v>0</v>
+      </c>
+      <c r="U14" s="89">
+        <v>1</v>
+      </c>
+      <c r="V14" s="89">
+        <v>1</v>
+      </c>
+      <c r="W14" s="89">
+        <v>2</v>
+      </c>
+      <c r="X14" s="89">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="89">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="89">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="89">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="19">
-        <v>2</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>2</v>
-      </c>
-      <c r="H15" s="15">
-        <v>3</v>
-      </c>
-      <c r="I15" s="15">
-        <v>3</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15">
-        <v>3</v>
-      </c>
-      <c r="L15" s="15">
-        <v>1</v>
-      </c>
-      <c r="M15" s="15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="15">
-        <v>2</v>
-      </c>
-      <c r="O15" s="15">
-        <v>3</v>
-      </c>
-      <c r="P15" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="15">
-        <v>0</v>
-      </c>
-      <c r="S15" s="15">
-        <v>1</v>
-      </c>
-      <c r="T15" s="15">
-        <v>1</v>
-      </c>
-      <c r="U15" s="15">
-        <v>3</v>
-      </c>
-      <c r="V15" s="15">
-        <v>3</v>
-      </c>
-      <c r="W15" s="15">
-        <v>2</v>
-      </c>
-      <c r="X15" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="20">
-        <v>2</v>
+      <c r="B15" s="89">
+        <v>1</v>
+      </c>
+      <c r="C15" s="89">
+        <v>1</v>
+      </c>
+      <c r="D15" s="89">
+        <v>2</v>
+      </c>
+      <c r="E15" s="89">
+        <v>2</v>
+      </c>
+      <c r="F15" s="89">
+        <v>0</v>
+      </c>
+      <c r="G15" s="89">
+        <v>0</v>
+      </c>
+      <c r="H15" s="89">
+        <v>0</v>
+      </c>
+      <c r="I15" s="89">
+        <v>1</v>
+      </c>
+      <c r="J15" s="89">
+        <v>1</v>
+      </c>
+      <c r="K15" s="89">
+        <v>2</v>
+      </c>
+      <c r="L15" s="89">
+        <v>2</v>
+      </c>
+      <c r="M15" s="89">
+        <v>0</v>
+      </c>
+      <c r="N15" s="89">
+        <v>0</v>
+      </c>
+      <c r="O15" s="89">
+        <v>0</v>
+      </c>
+      <c r="P15" s="89">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="89">
+        <v>1</v>
+      </c>
+      <c r="R15" s="89">
+        <v>2</v>
+      </c>
+      <c r="S15" s="89">
+        <v>0</v>
+      </c>
+      <c r="T15" s="89">
+        <v>0</v>
+      </c>
+      <c r="U15" s="89">
+        <v>0</v>
+      </c>
+      <c r="V15" s="89">
+        <v>0</v>
+      </c>
+      <c r="W15" s="89">
+        <v>1</v>
+      </c>
+      <c r="X15" s="89">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="89">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="89">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="19">
-        <v>2</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>2</v>
-      </c>
-      <c r="H16" s="15">
-        <v>3</v>
-      </c>
-      <c r="I16" s="15">
-        <v>3</v>
-      </c>
-      <c r="J16" s="15">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15">
-        <v>3</v>
-      </c>
-      <c r="L16" s="15">
-        <v>1</v>
-      </c>
-      <c r="M16" s="15">
-        <v>1</v>
-      </c>
-      <c r="N16" s="15">
-        <v>2</v>
-      </c>
-      <c r="O16" s="15">
-        <v>3</v>
-      </c>
-      <c r="P16" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>0</v>
-      </c>
-      <c r="R16" s="15">
-        <v>0</v>
-      </c>
-      <c r="S16" s="15">
-        <v>1</v>
-      </c>
-      <c r="T16" s="15">
-        <v>1</v>
-      </c>
-      <c r="U16" s="15">
-        <v>3</v>
-      </c>
-      <c r="V16" s="15">
-        <v>3</v>
-      </c>
-      <c r="W16" s="15">
-        <v>2</v>
-      </c>
-      <c r="X16" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="20">
-        <v>2</v>
+      <c r="B16" s="89">
+        <v>2</v>
+      </c>
+      <c r="C16" s="89">
+        <v>2</v>
+      </c>
+      <c r="D16" s="89">
+        <v>0</v>
+      </c>
+      <c r="E16" s="89">
+        <v>0</v>
+      </c>
+      <c r="F16" s="89">
+        <v>0</v>
+      </c>
+      <c r="G16" s="89">
+        <v>1</v>
+      </c>
+      <c r="H16" s="89">
+        <v>1</v>
+      </c>
+      <c r="I16" s="89">
+        <v>2</v>
+      </c>
+      <c r="J16" s="89">
+        <v>0</v>
+      </c>
+      <c r="K16" s="89">
+        <v>0</v>
+      </c>
+      <c r="L16" s="89">
+        <v>0</v>
+      </c>
+      <c r="M16" s="89">
+        <v>0</v>
+      </c>
+      <c r="N16" s="89">
+        <v>1</v>
+      </c>
+      <c r="O16" s="89">
+        <v>1</v>
+      </c>
+      <c r="P16" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="89">
+        <v>2</v>
+      </c>
+      <c r="R16" s="89">
+        <v>0</v>
+      </c>
+      <c r="S16" s="89">
+        <v>0</v>
+      </c>
+      <c r="T16" s="89">
+        <v>0</v>
+      </c>
+      <c r="U16" s="89">
+        <v>1</v>
+      </c>
+      <c r="V16" s="89">
+        <v>1</v>
+      </c>
+      <c r="W16" s="89">
+        <v>2</v>
+      </c>
+      <c r="X16" s="89">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="89">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="89">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="19">
-        <v>2</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15">
-        <v>1</v>
-      </c>
-      <c r="G17" s="15">
-        <v>2</v>
-      </c>
-      <c r="H17" s="15">
-        <v>3</v>
-      </c>
-      <c r="I17" s="15">
-        <v>3</v>
-      </c>
-      <c r="J17" s="15">
-        <v>1</v>
-      </c>
-      <c r="K17" s="15">
-        <v>3</v>
-      </c>
-      <c r="L17" s="15">
-        <v>1</v>
-      </c>
-      <c r="M17" s="15">
-        <v>1</v>
-      </c>
-      <c r="N17" s="15">
-        <v>2</v>
-      </c>
-      <c r="O17" s="15">
-        <v>3</v>
-      </c>
-      <c r="P17" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>0</v>
-      </c>
-      <c r="R17" s="15">
-        <v>0</v>
-      </c>
-      <c r="S17" s="15">
-        <v>1</v>
-      </c>
-      <c r="T17" s="15">
-        <v>1</v>
-      </c>
-      <c r="U17" s="15">
-        <v>3</v>
-      </c>
-      <c r="V17" s="15">
-        <v>3</v>
-      </c>
-      <c r="W17" s="15">
-        <v>2</v>
-      </c>
-      <c r="X17" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="20">
-        <v>2</v>
+      <c r="B17" s="89">
+        <v>0</v>
+      </c>
+      <c r="C17" s="89">
+        <v>0</v>
+      </c>
+      <c r="D17" s="89">
+        <v>1</v>
+      </c>
+      <c r="E17" s="89">
+        <v>1</v>
+      </c>
+      <c r="F17" s="89">
+        <v>3</v>
+      </c>
+      <c r="G17" s="89">
+        <v>3</v>
+      </c>
+      <c r="H17" s="89">
+        <v>0</v>
+      </c>
+      <c r="I17" s="89">
+        <v>0</v>
+      </c>
+      <c r="J17" s="89">
+        <v>0</v>
+      </c>
+      <c r="K17" s="89">
+        <v>1</v>
+      </c>
+      <c r="L17" s="89">
+        <v>1</v>
+      </c>
+      <c r="M17" s="89">
+        <v>3</v>
+      </c>
+      <c r="N17" s="89">
+        <v>0</v>
+      </c>
+      <c r="O17" s="89">
+        <v>0</v>
+      </c>
+      <c r="P17" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="89">
+        <v>0</v>
+      </c>
+      <c r="R17" s="89">
+        <v>1</v>
+      </c>
+      <c r="S17" s="89">
+        <v>1</v>
+      </c>
+      <c r="T17" s="89">
+        <v>3</v>
+      </c>
+      <c r="U17" s="89">
+        <v>3</v>
+      </c>
+      <c r="V17" s="89">
+        <v>0</v>
+      </c>
+      <c r="W17" s="89">
+        <v>0</v>
+      </c>
+      <c r="X17" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="89">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="89">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="89">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="89">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="19">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15">
-        <v>2</v>
-      </c>
-      <c r="H18" s="15">
-        <v>3</v>
-      </c>
-      <c r="I18" s="15">
-        <v>3</v>
-      </c>
-      <c r="J18" s="15">
-        <v>1</v>
-      </c>
-      <c r="K18" s="15">
-        <v>3</v>
-      </c>
-      <c r="L18" s="15">
-        <v>1</v>
-      </c>
-      <c r="M18" s="15">
-        <v>1</v>
-      </c>
-      <c r="N18" s="15">
-        <v>2</v>
-      </c>
-      <c r="O18" s="15">
-        <v>3</v>
-      </c>
-      <c r="P18" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>0</v>
-      </c>
-      <c r="R18" s="15">
-        <v>0</v>
-      </c>
-      <c r="S18" s="15">
-        <v>1</v>
-      </c>
-      <c r="T18" s="15">
-        <v>1</v>
-      </c>
-      <c r="U18" s="15">
-        <v>3</v>
-      </c>
-      <c r="V18" s="15">
-        <v>3</v>
-      </c>
-      <c r="W18" s="15">
-        <v>2</v>
-      </c>
-      <c r="X18" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="20">
-        <v>2</v>
+      <c r="B18" s="89">
+        <v>0</v>
+      </c>
+      <c r="C18" s="89">
+        <v>0</v>
+      </c>
+      <c r="D18" s="89">
+        <v>1</v>
+      </c>
+      <c r="E18" s="89">
+        <v>1</v>
+      </c>
+      <c r="F18" s="89">
+        <v>1</v>
+      </c>
+      <c r="G18" s="89">
+        <v>2</v>
+      </c>
+      <c r="H18" s="89">
+        <v>0</v>
+      </c>
+      <c r="I18" s="89">
+        <v>0</v>
+      </c>
+      <c r="J18" s="89">
+        <v>0</v>
+      </c>
+      <c r="K18" s="89">
+        <v>1</v>
+      </c>
+      <c r="L18" s="89">
+        <v>1</v>
+      </c>
+      <c r="M18" s="89">
+        <v>1</v>
+      </c>
+      <c r="N18" s="89">
+        <v>2</v>
+      </c>
+      <c r="O18" s="89">
+        <v>0</v>
+      </c>
+      <c r="P18" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="89">
+        <v>0</v>
+      </c>
+      <c r="R18" s="89">
+        <v>1</v>
+      </c>
+      <c r="S18" s="89">
+        <v>1</v>
+      </c>
+      <c r="T18" s="89">
+        <v>1</v>
+      </c>
+      <c r="U18" s="89">
+        <v>2</v>
+      </c>
+      <c r="V18" s="89">
+        <v>0</v>
+      </c>
+      <c r="W18" s="89">
+        <v>0</v>
+      </c>
+      <c r="X18" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="89">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="89">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15">
-        <v>1</v>
-      </c>
-      <c r="G19" s="15">
-        <v>2</v>
-      </c>
-      <c r="H19" s="15">
-        <v>3</v>
-      </c>
-      <c r="I19" s="15">
-        <v>3</v>
-      </c>
-      <c r="J19" s="15">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15">
-        <v>3</v>
-      </c>
-      <c r="L19" s="15">
-        <v>1</v>
-      </c>
-      <c r="M19" s="15">
-        <v>1</v>
-      </c>
-      <c r="N19" s="15">
-        <v>2</v>
-      </c>
-      <c r="O19" s="15">
-        <v>3</v>
-      </c>
-      <c r="P19" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>0</v>
-      </c>
-      <c r="R19" s="15">
-        <v>0</v>
-      </c>
-      <c r="S19" s="15">
-        <v>1</v>
-      </c>
-      <c r="T19" s="15">
-        <v>1</v>
-      </c>
-      <c r="U19" s="15">
-        <v>3</v>
-      </c>
-      <c r="V19" s="15">
-        <v>3</v>
-      </c>
-      <c r="W19" s="15">
-        <v>2</v>
-      </c>
-      <c r="X19" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="20">
+      <c r="B19" s="89">
+        <v>0</v>
+      </c>
+      <c r="C19" s="89">
+        <v>0</v>
+      </c>
+      <c r="D19" s="89">
+        <v>0</v>
+      </c>
+      <c r="E19" s="89">
+        <v>2</v>
+      </c>
+      <c r="F19" s="89">
+        <v>2</v>
+      </c>
+      <c r="G19" s="89">
+        <v>2</v>
+      </c>
+      <c r="H19" s="89">
+        <v>2</v>
+      </c>
+      <c r="I19" s="89">
+        <v>0</v>
+      </c>
+      <c r="J19" s="89">
+        <v>0</v>
+      </c>
+      <c r="K19" s="89">
+        <v>0</v>
+      </c>
+      <c r="L19" s="89">
+        <v>0</v>
+      </c>
+      <c r="M19" s="89">
+        <v>2</v>
+      </c>
+      <c r="N19" s="89">
+        <v>2</v>
+      </c>
+      <c r="O19" s="89">
+        <v>2</v>
+      </c>
+      <c r="P19" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="89">
+        <v>0</v>
+      </c>
+      <c r="R19" s="89">
+        <v>0</v>
+      </c>
+      <c r="S19" s="89">
+        <v>2</v>
+      </c>
+      <c r="T19" s="89">
+        <v>2</v>
+      </c>
+      <c r="U19" s="89">
+        <v>2</v>
+      </c>
+      <c r="V19" s="89">
+        <v>2</v>
+      </c>
+      <c r="W19" s="89">
+        <v>0</v>
+      </c>
+      <c r="X19" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="89">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="89">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="89">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="89">
         <v>2</v>
       </c>
       <c r="AD19" s="1"/>
@@ -18214,88 +18215,88 @@
       <c r="A20" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="19">
-        <v>2</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
-        <v>2</v>
-      </c>
-      <c r="H20" s="15">
-        <v>3</v>
-      </c>
-      <c r="I20" s="15">
-        <v>3</v>
-      </c>
-      <c r="J20" s="15">
-        <v>1</v>
-      </c>
-      <c r="K20" s="15">
-        <v>3</v>
-      </c>
-      <c r="L20" s="15">
-        <v>1</v>
-      </c>
-      <c r="M20" s="15">
-        <v>1</v>
-      </c>
-      <c r="N20" s="15">
-        <v>2</v>
-      </c>
-      <c r="O20" s="15">
-        <v>3</v>
-      </c>
-      <c r="P20" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>0</v>
-      </c>
-      <c r="R20" s="15">
-        <v>0</v>
-      </c>
-      <c r="S20" s="15">
-        <v>1</v>
-      </c>
-      <c r="T20" s="15">
-        <v>1</v>
-      </c>
-      <c r="U20" s="15">
-        <v>3</v>
-      </c>
-      <c r="V20" s="15">
-        <v>3</v>
-      </c>
-      <c r="W20" s="15">
-        <v>2</v>
-      </c>
-      <c r="X20" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="20">
+      <c r="B20" s="89">
+        <v>1</v>
+      </c>
+      <c r="C20" s="89">
+        <v>1</v>
+      </c>
+      <c r="D20" s="89">
+        <v>3</v>
+      </c>
+      <c r="E20" s="89">
+        <v>0</v>
+      </c>
+      <c r="F20" s="89">
+        <v>0</v>
+      </c>
+      <c r="G20" s="89">
+        <v>0</v>
+      </c>
+      <c r="H20" s="89">
+        <v>0</v>
+      </c>
+      <c r="I20" s="89">
+        <v>1</v>
+      </c>
+      <c r="J20" s="89">
+        <v>1</v>
+      </c>
+      <c r="K20" s="89">
+        <v>3</v>
+      </c>
+      <c r="L20" s="89">
+        <v>0</v>
+      </c>
+      <c r="M20" s="89">
+        <v>0</v>
+      </c>
+      <c r="N20" s="89">
+        <v>0</v>
+      </c>
+      <c r="O20" s="89">
+        <v>2</v>
+      </c>
+      <c r="P20" s="89">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="89">
+        <v>1</v>
+      </c>
+      <c r="R20" s="89">
+        <v>3</v>
+      </c>
+      <c r="S20" s="89">
+        <v>0</v>
+      </c>
+      <c r="T20" s="89">
+        <v>0</v>
+      </c>
+      <c r="U20" s="89">
+        <v>0</v>
+      </c>
+      <c r="V20" s="89">
+        <v>2</v>
+      </c>
+      <c r="W20" s="89">
+        <v>1</v>
+      </c>
+      <c r="X20" s="89">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="89">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="89">
         <v>2</v>
       </c>
     </row>
@@ -18303,533 +18304,533 @@
       <c r="A21" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="15">
-        <v>2</v>
-      </c>
-      <c r="H21" s="15">
-        <v>3</v>
-      </c>
-      <c r="I21" s="15">
-        <v>3</v>
-      </c>
-      <c r="J21" s="15">
-        <v>1</v>
-      </c>
-      <c r="K21" s="15">
-        <v>3</v>
-      </c>
-      <c r="L21" s="15">
-        <v>1</v>
-      </c>
-      <c r="M21" s="15">
-        <v>1</v>
-      </c>
-      <c r="N21" s="15">
-        <v>2</v>
-      </c>
-      <c r="O21" s="15">
-        <v>3</v>
-      </c>
-      <c r="P21" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>0</v>
-      </c>
-      <c r="R21" s="15">
-        <v>0</v>
-      </c>
-      <c r="S21" s="15">
-        <v>1</v>
-      </c>
-      <c r="T21" s="15">
-        <v>1</v>
-      </c>
-      <c r="U21" s="15">
-        <v>3</v>
-      </c>
-      <c r="V21" s="15">
-        <v>3</v>
-      </c>
-      <c r="W21" s="15">
-        <v>2</v>
-      </c>
-      <c r="X21" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="20">
-        <v>2</v>
+      <c r="B21" s="89">
+        <v>2</v>
+      </c>
+      <c r="C21" s="89">
+        <v>2</v>
+      </c>
+      <c r="D21" s="89">
+        <v>0</v>
+      </c>
+      <c r="E21" s="89">
+        <v>0</v>
+      </c>
+      <c r="F21" s="89">
+        <v>0</v>
+      </c>
+      <c r="G21" s="89">
+        <v>1</v>
+      </c>
+      <c r="H21" s="89">
+        <v>1</v>
+      </c>
+      <c r="I21" s="89">
+        <v>2</v>
+      </c>
+      <c r="J21" s="89">
+        <v>2</v>
+      </c>
+      <c r="K21" s="89">
+        <v>0</v>
+      </c>
+      <c r="L21" s="89">
+        <v>0</v>
+      </c>
+      <c r="M21" s="89">
+        <v>0</v>
+      </c>
+      <c r="N21" s="89">
+        <v>1</v>
+      </c>
+      <c r="O21" s="89">
+        <v>1</v>
+      </c>
+      <c r="P21" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="89">
+        <v>0</v>
+      </c>
+      <c r="R21" s="89">
+        <v>0</v>
+      </c>
+      <c r="S21" s="89">
+        <v>0</v>
+      </c>
+      <c r="T21" s="89">
+        <v>0</v>
+      </c>
+      <c r="U21" s="89">
+        <v>1</v>
+      </c>
+      <c r="V21" s="89">
+        <v>1</v>
+      </c>
+      <c r="W21" s="89">
+        <v>2</v>
+      </c>
+      <c r="X21" s="89">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="89">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="89">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="19">
-        <v>2</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15">
-        <v>1</v>
-      </c>
-      <c r="G22" s="15">
-        <v>2</v>
-      </c>
-      <c r="H22" s="15">
-        <v>3</v>
-      </c>
-      <c r="I22" s="15">
-        <v>3</v>
-      </c>
-      <c r="J22" s="15">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15">
-        <v>3</v>
-      </c>
-      <c r="L22" s="15">
-        <v>1</v>
-      </c>
-      <c r="M22" s="15">
-        <v>1</v>
-      </c>
-      <c r="N22" s="15">
-        <v>2</v>
-      </c>
-      <c r="O22" s="15">
-        <v>3</v>
-      </c>
-      <c r="P22" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>0</v>
-      </c>
-      <c r="R22" s="15">
-        <v>0</v>
-      </c>
-      <c r="S22" s="15">
-        <v>1</v>
-      </c>
-      <c r="T22" s="15">
-        <v>1</v>
-      </c>
-      <c r="U22" s="15">
-        <v>3</v>
-      </c>
-      <c r="V22" s="15">
-        <v>3</v>
-      </c>
-      <c r="W22" s="15">
-        <v>2</v>
-      </c>
-      <c r="X22" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="20">
-        <v>2</v>
+      <c r="B22" s="89">
+        <v>0</v>
+      </c>
+      <c r="C22" s="89">
+        <v>0</v>
+      </c>
+      <c r="D22" s="89">
+        <v>0</v>
+      </c>
+      <c r="E22" s="89">
+        <v>3</v>
+      </c>
+      <c r="F22" s="89">
+        <v>3</v>
+      </c>
+      <c r="G22" s="89">
+        <v>3</v>
+      </c>
+      <c r="H22" s="89">
+        <v>3</v>
+      </c>
+      <c r="I22" s="89">
+        <v>0</v>
+      </c>
+      <c r="J22" s="89">
+        <v>0</v>
+      </c>
+      <c r="K22" s="89">
+        <v>0</v>
+      </c>
+      <c r="L22" s="89">
+        <v>0</v>
+      </c>
+      <c r="M22" s="89">
+        <v>3</v>
+      </c>
+      <c r="N22" s="89">
+        <v>3</v>
+      </c>
+      <c r="O22" s="89">
+        <v>3</v>
+      </c>
+      <c r="P22" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="89">
+        <v>0</v>
+      </c>
+      <c r="R22" s="89">
+        <v>0</v>
+      </c>
+      <c r="S22" s="89">
+        <v>3</v>
+      </c>
+      <c r="T22" s="89">
+        <v>3</v>
+      </c>
+      <c r="U22" s="89">
+        <v>3</v>
+      </c>
+      <c r="V22" s="89">
+        <v>3</v>
+      </c>
+      <c r="W22" s="89">
+        <v>0</v>
+      </c>
+      <c r="X22" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="89">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="89">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="89">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="89">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="19">
-        <v>2</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15">
-        <v>2</v>
-      </c>
-      <c r="H23" s="15">
-        <v>3</v>
-      </c>
-      <c r="I23" s="15">
-        <v>3</v>
-      </c>
-      <c r="J23" s="15">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15">
-        <v>3</v>
-      </c>
-      <c r="L23" s="15">
-        <v>1</v>
-      </c>
-      <c r="M23" s="15">
-        <v>1</v>
-      </c>
-      <c r="N23" s="15">
-        <v>2</v>
-      </c>
-      <c r="O23" s="15">
-        <v>3</v>
-      </c>
-      <c r="P23" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>0</v>
-      </c>
-      <c r="R23" s="15">
-        <v>0</v>
-      </c>
-      <c r="S23" s="15">
-        <v>1</v>
-      </c>
-      <c r="T23" s="15">
-        <v>1</v>
-      </c>
-      <c r="U23" s="15">
-        <v>3</v>
-      </c>
-      <c r="V23" s="15">
-        <v>3</v>
-      </c>
-      <c r="W23" s="15">
-        <v>2</v>
-      </c>
-      <c r="X23" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="20">
-        <v>2</v>
+      <c r="B23" s="89">
+        <v>1</v>
+      </c>
+      <c r="C23" s="89">
+        <v>1</v>
+      </c>
+      <c r="D23" s="89">
+        <v>2</v>
+      </c>
+      <c r="E23" s="89">
+        <v>2</v>
+      </c>
+      <c r="F23" s="89">
+        <v>0</v>
+      </c>
+      <c r="G23" s="89">
+        <v>0</v>
+      </c>
+      <c r="H23" s="89">
+        <v>0</v>
+      </c>
+      <c r="I23" s="89">
+        <v>1</v>
+      </c>
+      <c r="J23" s="89">
+        <v>1</v>
+      </c>
+      <c r="K23" s="89">
+        <v>2</v>
+      </c>
+      <c r="L23" s="89">
+        <v>2</v>
+      </c>
+      <c r="M23" s="89">
+        <v>0</v>
+      </c>
+      <c r="N23" s="89">
+        <v>0</v>
+      </c>
+      <c r="O23" s="89">
+        <v>0</v>
+      </c>
+      <c r="P23" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="89">
+        <v>1</v>
+      </c>
+      <c r="R23" s="89">
+        <v>2</v>
+      </c>
+      <c r="S23" s="89">
+        <v>2</v>
+      </c>
+      <c r="T23" s="89">
+        <v>0</v>
+      </c>
+      <c r="U23" s="89">
+        <v>0</v>
+      </c>
+      <c r="V23" s="89">
+        <v>0</v>
+      </c>
+      <c r="W23" s="89">
+        <v>1</v>
+      </c>
+      <c r="X23" s="89">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="89">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="89">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="19">
-        <v>2</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15">
-        <v>2</v>
-      </c>
-      <c r="H24" s="15">
-        <v>3</v>
-      </c>
-      <c r="I24" s="15">
-        <v>3</v>
-      </c>
-      <c r="J24" s="15">
-        <v>1</v>
-      </c>
-      <c r="K24" s="15">
-        <v>3</v>
-      </c>
-      <c r="L24" s="15">
-        <v>1</v>
-      </c>
-      <c r="M24" s="15">
-        <v>1</v>
-      </c>
-      <c r="N24" s="15">
-        <v>2</v>
-      </c>
-      <c r="O24" s="15">
-        <v>3</v>
-      </c>
-      <c r="P24" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="15">
-        <v>0</v>
-      </c>
-      <c r="R24" s="15">
-        <v>0</v>
-      </c>
-      <c r="S24" s="15">
-        <v>1</v>
-      </c>
-      <c r="T24" s="15">
-        <v>1</v>
-      </c>
-      <c r="U24" s="15">
-        <v>3</v>
-      </c>
-      <c r="V24" s="15">
-        <v>3</v>
-      </c>
-      <c r="W24" s="15">
-        <v>2</v>
-      </c>
-      <c r="X24" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC24" s="20">
-        <v>2</v>
+      <c r="B24" s="89">
+        <v>0</v>
+      </c>
+      <c r="C24" s="89">
+        <v>0</v>
+      </c>
+      <c r="D24" s="89">
+        <v>1</v>
+      </c>
+      <c r="E24" s="89">
+        <v>1</v>
+      </c>
+      <c r="F24" s="89">
+        <v>3</v>
+      </c>
+      <c r="G24" s="89">
+        <v>3</v>
+      </c>
+      <c r="H24" s="89">
+        <v>3</v>
+      </c>
+      <c r="I24" s="89">
+        <v>0</v>
+      </c>
+      <c r="J24" s="89">
+        <v>0</v>
+      </c>
+      <c r="K24" s="89">
+        <v>1</v>
+      </c>
+      <c r="L24" s="89">
+        <v>1</v>
+      </c>
+      <c r="M24" s="89">
+        <v>3</v>
+      </c>
+      <c r="N24" s="89">
+        <v>3</v>
+      </c>
+      <c r="O24" s="89">
+        <v>3</v>
+      </c>
+      <c r="P24" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="89">
+        <v>0</v>
+      </c>
+      <c r="R24" s="89">
+        <v>1</v>
+      </c>
+      <c r="S24" s="89">
+        <v>1</v>
+      </c>
+      <c r="T24" s="89">
+        <v>3</v>
+      </c>
+      <c r="U24" s="89">
+        <v>3</v>
+      </c>
+      <c r="V24" s="89">
+        <v>3</v>
+      </c>
+      <c r="W24" s="89">
+        <v>0</v>
+      </c>
+      <c r="X24" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="89">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="89">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="89">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="89">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="89">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>1</v>
-      </c>
-      <c r="F25" s="15">
-        <v>1</v>
-      </c>
-      <c r="G25" s="15">
-        <v>2</v>
-      </c>
-      <c r="H25" s="15">
-        <v>3</v>
-      </c>
-      <c r="I25" s="15">
-        <v>3</v>
-      </c>
-      <c r="J25" s="15">
-        <v>1</v>
-      </c>
-      <c r="K25" s="15">
-        <v>3</v>
-      </c>
-      <c r="L25" s="15">
-        <v>1</v>
-      </c>
-      <c r="M25" s="15">
-        <v>1</v>
-      </c>
-      <c r="N25" s="15">
-        <v>2</v>
-      </c>
-      <c r="O25" s="15">
-        <v>3</v>
-      </c>
-      <c r="P25" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>0</v>
-      </c>
-      <c r="R25" s="15">
-        <v>0</v>
-      </c>
-      <c r="S25" s="15">
-        <v>1</v>
-      </c>
-      <c r="T25" s="15">
-        <v>1</v>
-      </c>
-      <c r="U25" s="15">
-        <v>3</v>
-      </c>
-      <c r="V25" s="15">
-        <v>3</v>
-      </c>
-      <c r="W25" s="15">
-        <v>2</v>
-      </c>
-      <c r="X25" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="20">
-        <v>2</v>
+      <c r="B25" s="89">
+        <v>3</v>
+      </c>
+      <c r="C25" s="89">
+        <v>3</v>
+      </c>
+      <c r="D25" s="89">
+        <v>0</v>
+      </c>
+      <c r="E25" s="89">
+        <v>0</v>
+      </c>
+      <c r="F25" s="89">
+        <v>1</v>
+      </c>
+      <c r="G25" s="89">
+        <v>1</v>
+      </c>
+      <c r="H25" s="89">
+        <v>1</v>
+      </c>
+      <c r="I25" s="89">
+        <v>3</v>
+      </c>
+      <c r="J25" s="89">
+        <v>3</v>
+      </c>
+      <c r="K25" s="89">
+        <v>0</v>
+      </c>
+      <c r="L25" s="89">
+        <v>0</v>
+      </c>
+      <c r="M25" s="89">
+        <v>1</v>
+      </c>
+      <c r="N25" s="89">
+        <v>1</v>
+      </c>
+      <c r="O25" s="89">
+        <v>1</v>
+      </c>
+      <c r="P25" s="89">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="89">
+        <v>3</v>
+      </c>
+      <c r="R25" s="89">
+        <v>0</v>
+      </c>
+      <c r="S25" s="89">
+        <v>0</v>
+      </c>
+      <c r="T25" s="89">
+        <v>1</v>
+      </c>
+      <c r="U25" s="89">
+        <v>1</v>
+      </c>
+      <c r="V25" s="89">
+        <v>1</v>
+      </c>
+      <c r="W25" s="89">
+        <v>3</v>
+      </c>
+      <c r="X25" s="89">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="89">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="89">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="19">
-        <v>2</v>
-      </c>
-      <c r="C26" s="15">
-        <v>0</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>1</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="15">
-        <v>2</v>
-      </c>
-      <c r="H26" s="15">
-        <v>3</v>
-      </c>
-      <c r="I26" s="15">
-        <v>3</v>
-      </c>
-      <c r="J26" s="15">
-        <v>1</v>
-      </c>
-      <c r="K26" s="15">
-        <v>3</v>
-      </c>
-      <c r="L26" s="15">
-        <v>1</v>
-      </c>
-      <c r="M26" s="15">
-        <v>1</v>
-      </c>
-      <c r="N26" s="15">
-        <v>2</v>
-      </c>
-      <c r="O26" s="15">
-        <v>3</v>
-      </c>
-      <c r="P26" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="15">
-        <v>0</v>
-      </c>
-      <c r="R26" s="15">
-        <v>0</v>
-      </c>
-      <c r="S26" s="15">
-        <v>1</v>
-      </c>
-      <c r="T26" s="15">
-        <v>1</v>
-      </c>
-      <c r="U26" s="15">
-        <v>3</v>
-      </c>
-      <c r="V26" s="15">
-        <v>3</v>
-      </c>
-      <c r="W26" s="15">
-        <v>2</v>
-      </c>
-      <c r="X26" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="20">
+      <c r="B26" s="89">
+        <v>0</v>
+      </c>
+      <c r="C26" s="89">
+        <v>0</v>
+      </c>
+      <c r="D26" s="89">
+        <v>0</v>
+      </c>
+      <c r="E26" s="89">
+        <v>2</v>
+      </c>
+      <c r="F26" s="89">
+        <v>2</v>
+      </c>
+      <c r="G26" s="89">
+        <v>2</v>
+      </c>
+      <c r="H26" s="89">
+        <v>2</v>
+      </c>
+      <c r="I26" s="89">
+        <v>0</v>
+      </c>
+      <c r="J26" s="89">
+        <v>0</v>
+      </c>
+      <c r="K26" s="89">
+        <v>0</v>
+      </c>
+      <c r="L26" s="89">
+        <v>2</v>
+      </c>
+      <c r="M26" s="89">
+        <v>2</v>
+      </c>
+      <c r="N26" s="89">
+        <v>2</v>
+      </c>
+      <c r="O26" s="89">
+        <v>2</v>
+      </c>
+      <c r="P26" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="89">
+        <v>0</v>
+      </c>
+      <c r="R26" s="89">
+        <v>0</v>
+      </c>
+      <c r="S26" s="89">
+        <v>2</v>
+      </c>
+      <c r="T26" s="89">
+        <v>2</v>
+      </c>
+      <c r="U26" s="89">
+        <v>2</v>
+      </c>
+      <c r="V26" s="89">
+        <v>2</v>
+      </c>
+      <c r="W26" s="89">
+        <v>0</v>
+      </c>
+      <c r="X26" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="89">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="89">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="89">
         <v>2</v>
       </c>
     </row>
@@ -18837,355 +18838,355 @@
       <c r="A27" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="19">
-        <v>2</v>
-      </c>
-      <c r="C27" s="15">
-        <v>0</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
-        <v>1</v>
-      </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="15">
-        <v>2</v>
-      </c>
-      <c r="H27" s="15">
-        <v>3</v>
-      </c>
-      <c r="I27" s="15">
-        <v>3</v>
-      </c>
-      <c r="J27" s="15">
-        <v>1</v>
-      </c>
-      <c r="K27" s="15">
-        <v>3</v>
-      </c>
-      <c r="L27" s="15">
-        <v>1</v>
-      </c>
-      <c r="M27" s="15">
-        <v>1</v>
-      </c>
-      <c r="N27" s="15">
-        <v>2</v>
-      </c>
-      <c r="O27" s="15">
-        <v>3</v>
-      </c>
-      <c r="P27" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="15">
-        <v>0</v>
-      </c>
-      <c r="R27" s="15">
-        <v>0</v>
-      </c>
-      <c r="S27" s="15">
-        <v>1</v>
-      </c>
-      <c r="T27" s="15">
-        <v>1</v>
-      </c>
-      <c r="U27" s="15">
-        <v>3</v>
-      </c>
-      <c r="V27" s="15">
-        <v>3</v>
-      </c>
-      <c r="W27" s="15">
-        <v>2</v>
-      </c>
-      <c r="X27" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="20">
-        <v>2</v>
+      <c r="B27" s="89">
+        <v>0</v>
+      </c>
+      <c r="C27" s="89">
+        <v>0</v>
+      </c>
+      <c r="D27" s="89">
+        <v>0</v>
+      </c>
+      <c r="E27" s="89">
+        <v>0</v>
+      </c>
+      <c r="F27" s="89">
+        <v>3</v>
+      </c>
+      <c r="G27" s="89">
+        <v>3</v>
+      </c>
+      <c r="H27" s="89">
+        <v>3</v>
+      </c>
+      <c r="I27" s="89">
+        <v>0</v>
+      </c>
+      <c r="J27" s="89">
+        <v>0</v>
+      </c>
+      <c r="K27" s="89">
+        <v>0</v>
+      </c>
+      <c r="L27" s="89">
+        <v>3</v>
+      </c>
+      <c r="M27" s="89">
+        <v>3</v>
+      </c>
+      <c r="N27" s="89">
+        <v>3</v>
+      </c>
+      <c r="O27" s="89">
+        <v>3</v>
+      </c>
+      <c r="P27" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="89">
+        <v>0</v>
+      </c>
+      <c r="R27" s="89">
+        <v>0</v>
+      </c>
+      <c r="S27" s="89">
+        <v>3</v>
+      </c>
+      <c r="T27" s="89">
+        <v>3</v>
+      </c>
+      <c r="U27" s="89">
+        <v>3</v>
+      </c>
+      <c r="V27" s="89">
+        <v>3</v>
+      </c>
+      <c r="W27" s="89">
+        <v>0</v>
+      </c>
+      <c r="X27" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="89">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="89">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="89">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="89">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="19">
-        <v>2</v>
-      </c>
-      <c r="C28" s="15">
-        <v>0</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
-        <v>1</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="15">
-        <v>2</v>
-      </c>
-      <c r="H28" s="15">
-        <v>3</v>
-      </c>
-      <c r="I28" s="15">
-        <v>3</v>
-      </c>
-      <c r="J28" s="15">
-        <v>1</v>
-      </c>
-      <c r="K28" s="15">
-        <v>3</v>
-      </c>
-      <c r="L28" s="15">
-        <v>1</v>
-      </c>
-      <c r="M28" s="15">
-        <v>1</v>
-      </c>
-      <c r="N28" s="15">
-        <v>2</v>
-      </c>
-      <c r="O28" s="15">
-        <v>3</v>
-      </c>
-      <c r="P28" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>0</v>
-      </c>
-      <c r="R28" s="15">
-        <v>0</v>
-      </c>
-      <c r="S28" s="15">
-        <v>1</v>
-      </c>
-      <c r="T28" s="15">
-        <v>1</v>
-      </c>
-      <c r="U28" s="15">
-        <v>3</v>
-      </c>
-      <c r="V28" s="15">
-        <v>3</v>
-      </c>
-      <c r="W28" s="15">
-        <v>2</v>
-      </c>
-      <c r="X28" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="20">
-        <v>2</v>
+      <c r="B28" s="89">
+        <v>2</v>
+      </c>
+      <c r="C28" s="89">
+        <v>0</v>
+      </c>
+      <c r="D28" s="89">
+        <v>0</v>
+      </c>
+      <c r="E28" s="89">
+        <v>0</v>
+      </c>
+      <c r="F28" s="89">
+        <v>1</v>
+      </c>
+      <c r="G28" s="89">
+        <v>1</v>
+      </c>
+      <c r="H28" s="89">
+        <v>1</v>
+      </c>
+      <c r="I28" s="89">
+        <v>2</v>
+      </c>
+      <c r="J28" s="89">
+        <v>0</v>
+      </c>
+      <c r="K28" s="89">
+        <v>0</v>
+      </c>
+      <c r="L28" s="89">
+        <v>0</v>
+      </c>
+      <c r="M28" s="89">
+        <v>1</v>
+      </c>
+      <c r="N28" s="89">
+        <v>1</v>
+      </c>
+      <c r="O28" s="89">
+        <v>1</v>
+      </c>
+      <c r="P28" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="89">
+        <v>0</v>
+      </c>
+      <c r="R28" s="89">
+        <v>0</v>
+      </c>
+      <c r="S28" s="89">
+        <v>0</v>
+      </c>
+      <c r="T28" s="89">
+        <v>1</v>
+      </c>
+      <c r="U28" s="89">
+        <v>1</v>
+      </c>
+      <c r="V28" s="89">
+        <v>1</v>
+      </c>
+      <c r="W28" s="89">
+        <v>0</v>
+      </c>
+      <c r="X28" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="89">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="89">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="89">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="19">
-        <v>2</v>
-      </c>
-      <c r="C29" s="15">
-        <v>0</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
-        <v>1</v>
-      </c>
-      <c r="F29" s="15">
-        <v>1</v>
-      </c>
-      <c r="G29" s="15">
-        <v>2</v>
-      </c>
-      <c r="H29" s="15">
-        <v>3</v>
-      </c>
-      <c r="I29" s="15">
-        <v>3</v>
-      </c>
-      <c r="J29" s="15">
-        <v>1</v>
-      </c>
-      <c r="K29" s="15">
-        <v>3</v>
-      </c>
-      <c r="L29" s="15">
-        <v>1</v>
-      </c>
-      <c r="M29" s="15">
-        <v>1</v>
-      </c>
-      <c r="N29" s="15">
-        <v>2</v>
-      </c>
-      <c r="O29" s="15">
-        <v>3</v>
-      </c>
-      <c r="P29" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>0</v>
-      </c>
-      <c r="R29" s="15">
-        <v>0</v>
-      </c>
-      <c r="S29" s="15">
-        <v>1</v>
-      </c>
-      <c r="T29" s="15">
-        <v>1</v>
-      </c>
-      <c r="U29" s="15">
-        <v>3</v>
-      </c>
-      <c r="V29" s="15">
-        <v>3</v>
-      </c>
-      <c r="W29" s="15">
-        <v>2</v>
-      </c>
-      <c r="X29" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="20">
-        <v>2</v>
+      <c r="B29" s="89">
+        <v>2</v>
+      </c>
+      <c r="C29" s="89">
+        <v>2</v>
+      </c>
+      <c r="D29" s="89">
+        <v>3</v>
+      </c>
+      <c r="E29" s="89">
+        <v>3</v>
+      </c>
+      <c r="F29" s="89">
+        <v>0</v>
+      </c>
+      <c r="G29" s="89">
+        <v>0</v>
+      </c>
+      <c r="H29" s="89">
+        <v>0</v>
+      </c>
+      <c r="I29" s="89">
+        <v>2</v>
+      </c>
+      <c r="J29" s="89">
+        <v>2</v>
+      </c>
+      <c r="K29" s="89">
+        <v>3</v>
+      </c>
+      <c r="L29" s="89">
+        <v>3</v>
+      </c>
+      <c r="M29" s="89">
+        <v>0</v>
+      </c>
+      <c r="N29" s="89">
+        <v>0</v>
+      </c>
+      <c r="O29" s="89">
+        <v>0</v>
+      </c>
+      <c r="P29" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="89">
+        <v>2</v>
+      </c>
+      <c r="R29" s="89">
+        <v>3</v>
+      </c>
+      <c r="S29" s="89">
+        <v>3</v>
+      </c>
+      <c r="T29" s="89">
+        <v>0</v>
+      </c>
+      <c r="U29" s="89">
+        <v>0</v>
+      </c>
+      <c r="V29" s="89">
+        <v>0</v>
+      </c>
+      <c r="W29" s="89">
+        <v>2</v>
+      </c>
+      <c r="X29" s="89">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="89">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="89">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="19">
-        <v>2</v>
-      </c>
-      <c r="C30" s="15">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
-        <v>1</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="15">
-        <v>2</v>
-      </c>
-      <c r="H30" s="15">
-        <v>3</v>
-      </c>
-      <c r="I30" s="15">
-        <v>3</v>
-      </c>
-      <c r="J30" s="15">
-        <v>1</v>
-      </c>
-      <c r="K30" s="15">
-        <v>3</v>
-      </c>
-      <c r="L30" s="15">
-        <v>1</v>
-      </c>
-      <c r="M30" s="15">
-        <v>1</v>
-      </c>
-      <c r="N30" s="15">
-        <v>2</v>
-      </c>
-      <c r="O30" s="15">
-        <v>3</v>
-      </c>
-      <c r="P30" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>0</v>
-      </c>
-      <c r="R30" s="15">
-        <v>0</v>
-      </c>
-      <c r="S30" s="15">
-        <v>1</v>
-      </c>
-      <c r="T30" s="15">
-        <v>1</v>
-      </c>
-      <c r="U30" s="15">
-        <v>3</v>
-      </c>
-      <c r="V30" s="15">
-        <v>3</v>
-      </c>
-      <c r="W30" s="15">
-        <v>2</v>
-      </c>
-      <c r="X30" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="20">
+      <c r="B30" s="89">
+        <v>3</v>
+      </c>
+      <c r="C30" s="89">
+        <v>3</v>
+      </c>
+      <c r="D30" s="89">
+        <v>0</v>
+      </c>
+      <c r="E30" s="89">
+        <v>0</v>
+      </c>
+      <c r="F30" s="89">
+        <v>2</v>
+      </c>
+      <c r="G30" s="89">
+        <v>2</v>
+      </c>
+      <c r="H30" s="89">
+        <v>2</v>
+      </c>
+      <c r="I30" s="89">
+        <v>3</v>
+      </c>
+      <c r="J30" s="89">
+        <v>3</v>
+      </c>
+      <c r="K30" s="89">
+        <v>0</v>
+      </c>
+      <c r="L30" s="89">
+        <v>0</v>
+      </c>
+      <c r="M30" s="89">
+        <v>2</v>
+      </c>
+      <c r="N30" s="89">
+        <v>2</v>
+      </c>
+      <c r="O30" s="89">
+        <v>2</v>
+      </c>
+      <c r="P30" s="89">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="89">
+        <v>3</v>
+      </c>
+      <c r="R30" s="89">
+        <v>0</v>
+      </c>
+      <c r="S30" s="89">
+        <v>0</v>
+      </c>
+      <c r="T30" s="89">
+        <v>2</v>
+      </c>
+      <c r="U30" s="89">
+        <v>2</v>
+      </c>
+      <c r="V30" s="89">
+        <v>2</v>
+      </c>
+      <c r="W30" s="89">
+        <v>3</v>
+      </c>
+      <c r="X30" s="89">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="89">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="89">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="89">
         <v>2</v>
       </c>
     </row>
@@ -19193,266 +19194,266 @@
       <c r="A31" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="19">
-        <v>2</v>
-      </c>
-      <c r="C31" s="15">
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0</v>
-      </c>
-      <c r="E31" s="15">
-        <v>1</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="15">
-        <v>2</v>
-      </c>
-      <c r="H31" s="15">
-        <v>3</v>
-      </c>
-      <c r="I31" s="15">
-        <v>3</v>
-      </c>
-      <c r="J31" s="15">
-        <v>1</v>
-      </c>
-      <c r="K31" s="15">
-        <v>3</v>
-      </c>
-      <c r="L31" s="15">
-        <v>1</v>
-      </c>
-      <c r="M31" s="15">
-        <v>1</v>
-      </c>
-      <c r="N31" s="15">
-        <v>2</v>
-      </c>
-      <c r="O31" s="15">
-        <v>3</v>
-      </c>
-      <c r="P31" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>0</v>
-      </c>
-      <c r="R31" s="15">
-        <v>0</v>
-      </c>
-      <c r="S31" s="15">
-        <v>1</v>
-      </c>
-      <c r="T31" s="15">
-        <v>1</v>
-      </c>
-      <c r="U31" s="15">
-        <v>3</v>
-      </c>
-      <c r="V31" s="15">
-        <v>3</v>
-      </c>
-      <c r="W31" s="15">
-        <v>2</v>
-      </c>
-      <c r="X31" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="20">
-        <v>2</v>
+      <c r="B31" s="89">
+        <v>0</v>
+      </c>
+      <c r="C31" s="89">
+        <v>0</v>
+      </c>
+      <c r="D31" s="89">
+        <v>2</v>
+      </c>
+      <c r="E31" s="89">
+        <v>2</v>
+      </c>
+      <c r="F31" s="89">
+        <v>3</v>
+      </c>
+      <c r="G31" s="89">
+        <v>2</v>
+      </c>
+      <c r="H31" s="89">
+        <v>0</v>
+      </c>
+      <c r="I31" s="89">
+        <v>0</v>
+      </c>
+      <c r="J31" s="89">
+        <v>0</v>
+      </c>
+      <c r="K31" s="89">
+        <v>0</v>
+      </c>
+      <c r="L31" s="89">
+        <v>2</v>
+      </c>
+      <c r="M31" s="89">
+        <v>3</v>
+      </c>
+      <c r="N31" s="89">
+        <v>2</v>
+      </c>
+      <c r="O31" s="89">
+        <v>0</v>
+      </c>
+      <c r="P31" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="89">
+        <v>0</v>
+      </c>
+      <c r="R31" s="89">
+        <v>2</v>
+      </c>
+      <c r="S31" s="89">
+        <v>2</v>
+      </c>
+      <c r="T31" s="89">
+        <v>3</v>
+      </c>
+      <c r="U31" s="89">
+        <v>2</v>
+      </c>
+      <c r="V31" s="89">
+        <v>0</v>
+      </c>
+      <c r="W31" s="89">
+        <v>0</v>
+      </c>
+      <c r="X31" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="89">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="89">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="89">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="89">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="19">
-        <v>2</v>
-      </c>
-      <c r="C32" s="15">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15">
-        <v>1</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32" s="15">
-        <v>2</v>
-      </c>
-      <c r="H32" s="15">
-        <v>3</v>
-      </c>
-      <c r="I32" s="15">
-        <v>3</v>
-      </c>
-      <c r="J32" s="15">
-        <v>1</v>
-      </c>
-      <c r="K32" s="15">
-        <v>3</v>
-      </c>
-      <c r="L32" s="15">
-        <v>1</v>
-      </c>
-      <c r="M32" s="15">
-        <v>1</v>
-      </c>
-      <c r="N32" s="15">
-        <v>2</v>
-      </c>
-      <c r="O32" s="15">
-        <v>3</v>
-      </c>
-      <c r="P32" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="15">
-        <v>0</v>
-      </c>
-      <c r="R32" s="15">
-        <v>0</v>
-      </c>
-      <c r="S32" s="15">
-        <v>1</v>
-      </c>
-      <c r="T32" s="15">
-        <v>1</v>
-      </c>
-      <c r="U32" s="15">
-        <v>3</v>
-      </c>
-      <c r="V32" s="15">
-        <v>3</v>
-      </c>
-      <c r="W32" s="15">
-        <v>2</v>
-      </c>
-      <c r="X32" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC32" s="20">
-        <v>2</v>
+      <c r="B32" s="89">
+        <v>0</v>
+      </c>
+      <c r="C32" s="89">
+        <v>0</v>
+      </c>
+      <c r="D32" s="89">
+        <v>0</v>
+      </c>
+      <c r="E32" s="89">
+        <v>3</v>
+      </c>
+      <c r="F32" s="89">
+        <v>3</v>
+      </c>
+      <c r="G32" s="89">
+        <v>3</v>
+      </c>
+      <c r="H32" s="89">
+        <v>3</v>
+      </c>
+      <c r="I32" s="89">
+        <v>0</v>
+      </c>
+      <c r="J32" s="89">
+        <v>0</v>
+      </c>
+      <c r="K32" s="89">
+        <v>0</v>
+      </c>
+      <c r="L32" s="89">
+        <v>0</v>
+      </c>
+      <c r="M32" s="89">
+        <v>3</v>
+      </c>
+      <c r="N32" s="89">
+        <v>3</v>
+      </c>
+      <c r="O32" s="89">
+        <v>3</v>
+      </c>
+      <c r="P32" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="89">
+        <v>0</v>
+      </c>
+      <c r="R32" s="89">
+        <v>0</v>
+      </c>
+      <c r="S32" s="89">
+        <v>3</v>
+      </c>
+      <c r="T32" s="89">
+        <v>3</v>
+      </c>
+      <c r="U32" s="89">
+        <v>3</v>
+      </c>
+      <c r="V32" s="89">
+        <v>3</v>
+      </c>
+      <c r="W32" s="89">
+        <v>0</v>
+      </c>
+      <c r="X32" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="89">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="89">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="89">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="89">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="19">
-        <v>2</v>
-      </c>
-      <c r="C33" s="15">
-        <v>0</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
-        <v>1</v>
-      </c>
-      <c r="F33" s="15">
-        <v>1</v>
-      </c>
-      <c r="G33" s="15">
-        <v>2</v>
-      </c>
-      <c r="H33" s="15">
-        <v>3</v>
-      </c>
-      <c r="I33" s="15">
-        <v>3</v>
-      </c>
-      <c r="J33" s="15">
-        <v>1</v>
-      </c>
-      <c r="K33" s="15">
-        <v>3</v>
-      </c>
-      <c r="L33" s="15">
-        <v>1</v>
-      </c>
-      <c r="M33" s="15">
-        <v>1</v>
-      </c>
-      <c r="N33" s="15">
-        <v>2</v>
-      </c>
-      <c r="O33" s="15">
-        <v>3</v>
-      </c>
-      <c r="P33" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>0</v>
-      </c>
-      <c r="R33" s="15">
-        <v>0</v>
-      </c>
-      <c r="S33" s="15">
-        <v>1</v>
-      </c>
-      <c r="T33" s="15">
-        <v>1</v>
-      </c>
-      <c r="U33" s="15">
-        <v>3</v>
-      </c>
-      <c r="V33" s="15">
-        <v>3</v>
-      </c>
-      <c r="W33" s="15">
-        <v>2</v>
-      </c>
-      <c r="X33" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="20">
+      <c r="B33" s="89">
+        <v>3</v>
+      </c>
+      <c r="C33" s="89">
+        <v>3</v>
+      </c>
+      <c r="D33" s="89">
+        <v>0</v>
+      </c>
+      <c r="E33" s="89">
+        <v>0</v>
+      </c>
+      <c r="F33" s="89">
+        <v>2</v>
+      </c>
+      <c r="G33" s="89">
+        <v>2</v>
+      </c>
+      <c r="H33" s="89">
+        <v>2</v>
+      </c>
+      <c r="I33" s="89">
+        <v>3</v>
+      </c>
+      <c r="J33" s="89">
+        <v>3</v>
+      </c>
+      <c r="K33" s="89">
+        <v>0</v>
+      </c>
+      <c r="L33" s="89">
+        <v>0</v>
+      </c>
+      <c r="M33" s="89">
+        <v>2</v>
+      </c>
+      <c r="N33" s="89">
+        <v>2</v>
+      </c>
+      <c r="O33" s="89">
+        <v>2</v>
+      </c>
+      <c r="P33" s="89">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="89">
+        <v>3</v>
+      </c>
+      <c r="R33" s="89">
+        <v>0</v>
+      </c>
+      <c r="S33" s="89">
+        <v>0</v>
+      </c>
+      <c r="T33" s="89">
+        <v>2</v>
+      </c>
+      <c r="U33" s="89">
+        <v>2</v>
+      </c>
+      <c r="V33" s="89">
+        <v>2</v>
+      </c>
+      <c r="W33" s="89">
+        <v>3</v>
+      </c>
+      <c r="X33" s="89">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="89">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="89">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="89">
         <v>2</v>
       </c>
     </row>

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42500E2-DAB5-4362-8C40-86A53BB3CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789E64D-B211-40F4-B4B8-4E4C20DE2616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="45" r:id="rId1"/>
@@ -1376,10 +1376,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,31 +1883,31 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
+      <c r="B9" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
@@ -16275,8 +16275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="61" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16351,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -16359,7 +16359,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -16367,12 +16367,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="15">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
@@ -16416,8 +16420,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="15">
+        <v>0</v>
+      </c>
+      <c r="B23" s="15">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
@@ -16430,7 +16438,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -16505,7 +16513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -16609,88 +16617,88 @@
       <c r="A2" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="89">
-        <v>3</v>
-      </c>
-      <c r="C2" s="89">
-        <v>3</v>
-      </c>
-      <c r="D2" s="89">
-        <v>3</v>
-      </c>
-      <c r="E2" s="89">
-        <v>3</v>
-      </c>
-      <c r="F2" s="89">
-        <v>3</v>
-      </c>
-      <c r="G2" s="89">
-        <v>0</v>
-      </c>
-      <c r="H2" s="89">
-        <v>0</v>
-      </c>
-      <c r="I2" s="89">
-        <v>3</v>
-      </c>
-      <c r="J2" s="89">
-        <v>3</v>
-      </c>
-      <c r="K2" s="89">
-        <v>3</v>
-      </c>
-      <c r="L2" s="89">
-        <v>3</v>
-      </c>
-      <c r="M2" s="89">
-        <v>3</v>
-      </c>
-      <c r="N2" s="89">
-        <v>0</v>
-      </c>
-      <c r="O2" s="89">
-        <v>0</v>
-      </c>
-      <c r="P2" s="89">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="89">
-        <v>3</v>
-      </c>
-      <c r="R2" s="89">
-        <v>3</v>
-      </c>
-      <c r="S2" s="89">
-        <v>3</v>
-      </c>
-      <c r="T2" s="89">
-        <v>3</v>
-      </c>
-      <c r="U2" s="89">
-        <v>0</v>
-      </c>
-      <c r="V2" s="89">
-        <v>0</v>
-      </c>
-      <c r="W2" s="89">
-        <v>3</v>
-      </c>
-      <c r="X2" s="89">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="89">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="89">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="89">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="89">
+      <c r="B2" s="88">
+        <v>3</v>
+      </c>
+      <c r="C2" s="88">
+        <v>3</v>
+      </c>
+      <c r="D2" s="88">
+        <v>3</v>
+      </c>
+      <c r="E2" s="88">
+        <v>3</v>
+      </c>
+      <c r="F2" s="88">
+        <v>3</v>
+      </c>
+      <c r="G2" s="88">
+        <v>0</v>
+      </c>
+      <c r="H2" s="88">
+        <v>0</v>
+      </c>
+      <c r="I2" s="88">
+        <v>3</v>
+      </c>
+      <c r="J2" s="88">
+        <v>3</v>
+      </c>
+      <c r="K2" s="88">
+        <v>3</v>
+      </c>
+      <c r="L2" s="88">
+        <v>3</v>
+      </c>
+      <c r="M2" s="88">
+        <v>3</v>
+      </c>
+      <c r="N2" s="88">
+        <v>0</v>
+      </c>
+      <c r="O2" s="88">
+        <v>0</v>
+      </c>
+      <c r="P2" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="88">
+        <v>3</v>
+      </c>
+      <c r="R2" s="88">
+        <v>3</v>
+      </c>
+      <c r="S2" s="88">
+        <v>3</v>
+      </c>
+      <c r="T2" s="88">
+        <v>3</v>
+      </c>
+      <c r="U2" s="88">
+        <v>0</v>
+      </c>
+      <c r="V2" s="88">
+        <v>0</v>
+      </c>
+      <c r="W2" s="88">
+        <v>3</v>
+      </c>
+      <c r="X2" s="88">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="88">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="88">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="88">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="88">
         <v>0</v>
       </c>
     </row>
@@ -16698,88 +16706,88 @@
       <c r="A3" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="89">
-        <v>0</v>
-      </c>
-      <c r="C3" s="89">
-        <v>0</v>
-      </c>
-      <c r="D3" s="89">
-        <v>0</v>
-      </c>
-      <c r="E3" s="89">
-        <v>1</v>
-      </c>
-      <c r="F3" s="89">
-        <v>1</v>
-      </c>
-      <c r="G3" s="89">
-        <v>1</v>
-      </c>
-      <c r="H3" s="89">
-        <v>2</v>
-      </c>
-      <c r="I3" s="89">
-        <v>0</v>
-      </c>
-      <c r="J3" s="89">
-        <v>0</v>
-      </c>
-      <c r="K3" s="89">
-        <v>0</v>
-      </c>
-      <c r="L3" s="89">
-        <v>1</v>
-      </c>
-      <c r="M3" s="89">
-        <v>1</v>
-      </c>
-      <c r="N3" s="89">
-        <v>1</v>
-      </c>
-      <c r="O3" s="89">
-        <v>0</v>
-      </c>
-      <c r="P3" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="89">
-        <v>0</v>
-      </c>
-      <c r="R3" s="89">
-        <v>0</v>
-      </c>
-      <c r="S3" s="89">
-        <v>1</v>
-      </c>
-      <c r="T3" s="89">
-        <v>1</v>
-      </c>
-      <c r="U3" s="89">
-        <v>1</v>
-      </c>
-      <c r="V3" s="89">
-        <v>2</v>
-      </c>
-      <c r="W3" s="89">
-        <v>0</v>
-      </c>
-      <c r="X3" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="89">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="89">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="89">
+      <c r="B3" s="88">
+        <v>0</v>
+      </c>
+      <c r="C3" s="88">
+        <v>0</v>
+      </c>
+      <c r="D3" s="88">
+        <v>0</v>
+      </c>
+      <c r="E3" s="88">
+        <v>1</v>
+      </c>
+      <c r="F3" s="88">
+        <v>1</v>
+      </c>
+      <c r="G3" s="88">
+        <v>1</v>
+      </c>
+      <c r="H3" s="88">
+        <v>2</v>
+      </c>
+      <c r="I3" s="88">
+        <v>0</v>
+      </c>
+      <c r="J3" s="88">
+        <v>0</v>
+      </c>
+      <c r="K3" s="88">
+        <v>0</v>
+      </c>
+      <c r="L3" s="88">
+        <v>1</v>
+      </c>
+      <c r="M3" s="88">
+        <v>1</v>
+      </c>
+      <c r="N3" s="88">
+        <v>1</v>
+      </c>
+      <c r="O3" s="88">
+        <v>0</v>
+      </c>
+      <c r="P3" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="88">
+        <v>0</v>
+      </c>
+      <c r="R3" s="88">
+        <v>0</v>
+      </c>
+      <c r="S3" s="88">
+        <v>1</v>
+      </c>
+      <c r="T3" s="88">
+        <v>1</v>
+      </c>
+      <c r="U3" s="88">
+        <v>1</v>
+      </c>
+      <c r="V3" s="88">
+        <v>2</v>
+      </c>
+      <c r="W3" s="88">
+        <v>0</v>
+      </c>
+      <c r="X3" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="88">
         <v>2</v>
       </c>
     </row>
@@ -16787,88 +16795,88 @@
       <c r="A4" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="89">
-        <v>2</v>
-      </c>
-      <c r="C4" s="89">
-        <v>2</v>
-      </c>
-      <c r="D4" s="89">
-        <v>2</v>
-      </c>
-      <c r="E4" s="89">
-        <v>2</v>
-      </c>
-      <c r="F4" s="89">
-        <v>2</v>
-      </c>
-      <c r="G4" s="89">
-        <v>0</v>
-      </c>
-      <c r="H4" s="89">
-        <v>0</v>
-      </c>
-      <c r="I4" s="89">
-        <v>2</v>
-      </c>
-      <c r="J4" s="89">
-        <v>2</v>
-      </c>
-      <c r="K4" s="89">
-        <v>2</v>
-      </c>
-      <c r="L4" s="89">
-        <v>2</v>
-      </c>
-      <c r="M4" s="89">
-        <v>2</v>
-      </c>
-      <c r="N4" s="89">
-        <v>0</v>
-      </c>
-      <c r="O4" s="89">
-        <v>0</v>
-      </c>
-      <c r="P4" s="89">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="89">
-        <v>2</v>
-      </c>
-      <c r="R4" s="89">
-        <v>2</v>
-      </c>
-      <c r="S4" s="89">
-        <v>2</v>
-      </c>
-      <c r="T4" s="89">
-        <v>2</v>
-      </c>
-      <c r="U4" s="89">
-        <v>0</v>
-      </c>
-      <c r="V4" s="89">
-        <v>0</v>
-      </c>
-      <c r="W4" s="89">
-        <v>2</v>
-      </c>
-      <c r="X4" s="89">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="89">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="89">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="89">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="89">
+      <c r="B4" s="88">
+        <v>2</v>
+      </c>
+      <c r="C4" s="88">
+        <v>2</v>
+      </c>
+      <c r="D4" s="88">
+        <v>2</v>
+      </c>
+      <c r="E4" s="88">
+        <v>2</v>
+      </c>
+      <c r="F4" s="88">
+        <v>2</v>
+      </c>
+      <c r="G4" s="88">
+        <v>0</v>
+      </c>
+      <c r="H4" s="88">
+        <v>0</v>
+      </c>
+      <c r="I4" s="88">
+        <v>2</v>
+      </c>
+      <c r="J4" s="88">
+        <v>2</v>
+      </c>
+      <c r="K4" s="88">
+        <v>2</v>
+      </c>
+      <c r="L4" s="88">
+        <v>2</v>
+      </c>
+      <c r="M4" s="88">
+        <v>2</v>
+      </c>
+      <c r="N4" s="88">
+        <v>0</v>
+      </c>
+      <c r="O4" s="88">
+        <v>0</v>
+      </c>
+      <c r="P4" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="88">
+        <v>2</v>
+      </c>
+      <c r="R4" s="88">
+        <v>2</v>
+      </c>
+      <c r="S4" s="88">
+        <v>2</v>
+      </c>
+      <c r="T4" s="88">
+        <v>2</v>
+      </c>
+      <c r="U4" s="88">
+        <v>0</v>
+      </c>
+      <c r="V4" s="88">
+        <v>0</v>
+      </c>
+      <c r="W4" s="88">
+        <v>2</v>
+      </c>
+      <c r="X4" s="88">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="88">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="88">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="88">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="88">
         <v>0</v>
       </c>
     </row>
@@ -16876,88 +16884,88 @@
       <c r="A5" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="89">
-        <v>0</v>
-      </c>
-      <c r="C5" s="89">
-        <v>0</v>
-      </c>
-      <c r="D5" s="89">
-        <v>1</v>
-      </c>
-      <c r="E5" s="89">
-        <v>1</v>
-      </c>
-      <c r="F5" s="89">
-        <v>1</v>
-      </c>
-      <c r="G5" s="89">
-        <v>1</v>
-      </c>
-      <c r="H5" s="89">
-        <v>2</v>
-      </c>
-      <c r="I5" s="89">
-        <v>0</v>
-      </c>
-      <c r="J5" s="89">
-        <v>0</v>
-      </c>
-      <c r="K5" s="89">
-        <v>1</v>
-      </c>
-      <c r="L5" s="89">
-        <v>1</v>
-      </c>
-      <c r="M5" s="89">
-        <v>1</v>
-      </c>
-      <c r="N5" s="89">
-        <v>1</v>
-      </c>
-      <c r="O5" s="89">
-        <v>2</v>
-      </c>
-      <c r="P5" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="89">
-        <v>0</v>
-      </c>
-      <c r="R5" s="89">
-        <v>1</v>
-      </c>
-      <c r="S5" s="89">
-        <v>1</v>
-      </c>
-      <c r="T5" s="89">
-        <v>1</v>
-      </c>
-      <c r="U5" s="89">
-        <v>1</v>
-      </c>
-      <c r="V5" s="89">
-        <v>2</v>
-      </c>
-      <c r="W5" s="89">
-        <v>0</v>
-      </c>
-      <c r="X5" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="89">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="89">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="89">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="89">
+      <c r="B5" s="88">
+        <v>0</v>
+      </c>
+      <c r="C5" s="88">
+        <v>0</v>
+      </c>
+      <c r="D5" s="88">
+        <v>1</v>
+      </c>
+      <c r="E5" s="88">
+        <v>1</v>
+      </c>
+      <c r="F5" s="88">
+        <v>1</v>
+      </c>
+      <c r="G5" s="88">
+        <v>1</v>
+      </c>
+      <c r="H5" s="88">
+        <v>2</v>
+      </c>
+      <c r="I5" s="88">
+        <v>0</v>
+      </c>
+      <c r="J5" s="88">
+        <v>0</v>
+      </c>
+      <c r="K5" s="88">
+        <v>1</v>
+      </c>
+      <c r="L5" s="88">
+        <v>1</v>
+      </c>
+      <c r="M5" s="88">
+        <v>1</v>
+      </c>
+      <c r="N5" s="88">
+        <v>1</v>
+      </c>
+      <c r="O5" s="88">
+        <v>2</v>
+      </c>
+      <c r="P5" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="88">
+        <v>0</v>
+      </c>
+      <c r="R5" s="88">
+        <v>1</v>
+      </c>
+      <c r="S5" s="88">
+        <v>1</v>
+      </c>
+      <c r="T5" s="88">
+        <v>1</v>
+      </c>
+      <c r="U5" s="88">
+        <v>1</v>
+      </c>
+      <c r="V5" s="88">
+        <v>2</v>
+      </c>
+      <c r="W5" s="88">
+        <v>0</v>
+      </c>
+      <c r="X5" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="88">
         <v>2</v>
       </c>
     </row>
@@ -16965,88 +16973,88 @@
       <c r="A6" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="89">
-        <v>2</v>
-      </c>
-      <c r="C6" s="89">
-        <v>2</v>
-      </c>
-      <c r="D6" s="89">
-        <v>2</v>
-      </c>
-      <c r="E6" s="89">
-        <v>2</v>
-      </c>
-      <c r="F6" s="89">
-        <v>2</v>
-      </c>
-      <c r="G6" s="89">
-        <v>0</v>
-      </c>
-      <c r="H6" s="89">
-        <v>0</v>
-      </c>
-      <c r="I6" s="89">
-        <v>2</v>
-      </c>
-      <c r="J6" s="89">
-        <v>2</v>
-      </c>
-      <c r="K6" s="89">
-        <v>2</v>
-      </c>
-      <c r="L6" s="89">
-        <v>2</v>
-      </c>
-      <c r="M6" s="89">
-        <v>2</v>
-      </c>
-      <c r="N6" s="89">
-        <v>0</v>
-      </c>
-      <c r="O6" s="89">
-        <v>0</v>
-      </c>
-      <c r="P6" s="89">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="89">
-        <v>2</v>
-      </c>
-      <c r="R6" s="89">
-        <v>2</v>
-      </c>
-      <c r="S6" s="89">
-        <v>2</v>
-      </c>
-      <c r="T6" s="89">
-        <v>2</v>
-      </c>
-      <c r="U6" s="89">
-        <v>0</v>
-      </c>
-      <c r="V6" s="89">
-        <v>0</v>
-      </c>
-      <c r="W6" s="89">
-        <v>2</v>
-      </c>
-      <c r="X6" s="89">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="89">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="89">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="89">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="89">
+      <c r="B6" s="88">
+        <v>2</v>
+      </c>
+      <c r="C6" s="88">
+        <v>2</v>
+      </c>
+      <c r="D6" s="88">
+        <v>2</v>
+      </c>
+      <c r="E6" s="88">
+        <v>2</v>
+      </c>
+      <c r="F6" s="88">
+        <v>2</v>
+      </c>
+      <c r="G6" s="88">
+        <v>0</v>
+      </c>
+      <c r="H6" s="88">
+        <v>0</v>
+      </c>
+      <c r="I6" s="88">
+        <v>2</v>
+      </c>
+      <c r="J6" s="88">
+        <v>2</v>
+      </c>
+      <c r="K6" s="88">
+        <v>2</v>
+      </c>
+      <c r="L6" s="88">
+        <v>2</v>
+      </c>
+      <c r="M6" s="88">
+        <v>2</v>
+      </c>
+      <c r="N6" s="88">
+        <v>0</v>
+      </c>
+      <c r="O6" s="88">
+        <v>0</v>
+      </c>
+      <c r="P6" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="88">
+        <v>2</v>
+      </c>
+      <c r="R6" s="88">
+        <v>2</v>
+      </c>
+      <c r="S6" s="88">
+        <v>2</v>
+      </c>
+      <c r="T6" s="88">
+        <v>2</v>
+      </c>
+      <c r="U6" s="88">
+        <v>0</v>
+      </c>
+      <c r="V6" s="88">
+        <v>0</v>
+      </c>
+      <c r="W6" s="88">
+        <v>2</v>
+      </c>
+      <c r="X6" s="88">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="88">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="88">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="88">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="88">
         <v>0</v>
       </c>
     </row>
@@ -17054,88 +17062,88 @@
       <c r="A7" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="89">
-        <v>1</v>
-      </c>
-      <c r="C7" s="89">
-        <v>1</v>
-      </c>
-      <c r="D7" s="89">
-        <v>1</v>
-      </c>
-      <c r="E7" s="89">
-        <v>1</v>
-      </c>
-      <c r="F7" s="89">
-        <v>1</v>
-      </c>
-      <c r="G7" s="89">
-        <v>0</v>
-      </c>
-      <c r="H7" s="89">
-        <v>0</v>
-      </c>
-      <c r="I7" s="89">
-        <v>1</v>
-      </c>
-      <c r="J7" s="89">
-        <v>1</v>
-      </c>
-      <c r="K7" s="89">
-        <v>1</v>
-      </c>
-      <c r="L7" s="89">
-        <v>1</v>
-      </c>
-      <c r="M7" s="89">
-        <v>1</v>
-      </c>
-      <c r="N7" s="89">
-        <v>0</v>
-      </c>
-      <c r="O7" s="89">
-        <v>0</v>
-      </c>
-      <c r="P7" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="89">
-        <v>1</v>
-      </c>
-      <c r="R7" s="89">
-        <v>1</v>
-      </c>
-      <c r="S7" s="89">
-        <v>1</v>
-      </c>
-      <c r="T7" s="89">
-        <v>1</v>
-      </c>
-      <c r="U7" s="89">
-        <v>0</v>
-      </c>
-      <c r="V7" s="89">
-        <v>0</v>
-      </c>
-      <c r="W7" s="89">
-        <v>1</v>
-      </c>
-      <c r="X7" s="89">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="89">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="89">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="89">
+      <c r="B7" s="88">
+        <v>1</v>
+      </c>
+      <c r="C7" s="88">
+        <v>1</v>
+      </c>
+      <c r="D7" s="88">
+        <v>1</v>
+      </c>
+      <c r="E7" s="88">
+        <v>1</v>
+      </c>
+      <c r="F7" s="88">
+        <v>1</v>
+      </c>
+      <c r="G7" s="88">
+        <v>0</v>
+      </c>
+      <c r="H7" s="88">
+        <v>0</v>
+      </c>
+      <c r="I7" s="88">
+        <v>1</v>
+      </c>
+      <c r="J7" s="88">
+        <v>1</v>
+      </c>
+      <c r="K7" s="88">
+        <v>1</v>
+      </c>
+      <c r="L7" s="88">
+        <v>1</v>
+      </c>
+      <c r="M7" s="88">
+        <v>1</v>
+      </c>
+      <c r="N7" s="88">
+        <v>0</v>
+      </c>
+      <c r="O7" s="88">
+        <v>0</v>
+      </c>
+      <c r="P7" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="88">
+        <v>1</v>
+      </c>
+      <c r="R7" s="88">
+        <v>1</v>
+      </c>
+      <c r="S7" s="88">
+        <v>1</v>
+      </c>
+      <c r="T7" s="88">
+        <v>1</v>
+      </c>
+      <c r="U7" s="88">
+        <v>0</v>
+      </c>
+      <c r="V7" s="88">
+        <v>0</v>
+      </c>
+      <c r="W7" s="88">
+        <v>1</v>
+      </c>
+      <c r="X7" s="88">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="88">
         <v>0</v>
       </c>
     </row>
@@ -17143,88 +17151,88 @@
       <c r="A8" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="89">
-        <v>3</v>
-      </c>
-      <c r="C8" s="89">
-        <v>3</v>
-      </c>
-      <c r="D8" s="89">
-        <v>0</v>
-      </c>
-      <c r="E8" s="89">
-        <v>0</v>
-      </c>
-      <c r="F8" s="89">
-        <v>3</v>
-      </c>
-      <c r="G8" s="89">
-        <v>3</v>
-      </c>
-      <c r="H8" s="89">
-        <v>3</v>
-      </c>
-      <c r="I8" s="89">
-        <v>3</v>
-      </c>
-      <c r="J8" s="89">
-        <v>3</v>
-      </c>
-      <c r="K8" s="89">
-        <v>0</v>
-      </c>
-      <c r="L8" s="89">
-        <v>0</v>
-      </c>
-      <c r="M8" s="89">
-        <v>3</v>
-      </c>
-      <c r="N8" s="89">
-        <v>3</v>
-      </c>
-      <c r="O8" s="89">
-        <v>3</v>
-      </c>
-      <c r="P8" s="89">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="89">
-        <v>3</v>
-      </c>
-      <c r="R8" s="89">
-        <v>0</v>
-      </c>
-      <c r="S8" s="89">
-        <v>0</v>
-      </c>
-      <c r="T8" s="89">
-        <v>3</v>
-      </c>
-      <c r="U8" s="89">
-        <v>3</v>
-      </c>
-      <c r="V8" s="89">
-        <v>3</v>
-      </c>
-      <c r="W8" s="89">
-        <v>3</v>
-      </c>
-      <c r="X8" s="89">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="89">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="89">
-        <v>3</v>
-      </c>
-      <c r="AC8" s="89">
+      <c r="B8" s="88">
+        <v>3</v>
+      </c>
+      <c r="C8" s="88">
+        <v>3</v>
+      </c>
+      <c r="D8" s="88">
+        <v>0</v>
+      </c>
+      <c r="E8" s="88">
+        <v>0</v>
+      </c>
+      <c r="F8" s="88">
+        <v>3</v>
+      </c>
+      <c r="G8" s="88">
+        <v>3</v>
+      </c>
+      <c r="H8" s="88">
+        <v>3</v>
+      </c>
+      <c r="I8" s="88">
+        <v>3</v>
+      </c>
+      <c r="J8" s="88">
+        <v>3</v>
+      </c>
+      <c r="K8" s="88">
+        <v>0</v>
+      </c>
+      <c r="L8" s="88">
+        <v>0</v>
+      </c>
+      <c r="M8" s="88">
+        <v>3</v>
+      </c>
+      <c r="N8" s="88">
+        <v>3</v>
+      </c>
+      <c r="O8" s="88">
+        <v>3</v>
+      </c>
+      <c r="P8" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="88">
+        <v>3</v>
+      </c>
+      <c r="R8" s="88">
+        <v>0</v>
+      </c>
+      <c r="S8" s="88">
+        <v>0</v>
+      </c>
+      <c r="T8" s="88">
+        <v>3</v>
+      </c>
+      <c r="U8" s="88">
+        <v>3</v>
+      </c>
+      <c r="V8" s="88">
+        <v>3</v>
+      </c>
+      <c r="W8" s="88">
+        <v>3</v>
+      </c>
+      <c r="X8" s="88">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="88">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="88">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="88">
         <v>3</v>
       </c>
     </row>
@@ -17232,88 +17240,88 @@
       <c r="A9" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="89">
-        <v>1</v>
-      </c>
-      <c r="C9" s="89">
-        <v>1</v>
-      </c>
-      <c r="D9" s="89">
-        <v>2</v>
-      </c>
-      <c r="E9" s="89">
-        <v>2</v>
-      </c>
-      <c r="F9" s="89">
-        <v>2</v>
-      </c>
-      <c r="G9" s="89">
-        <v>0</v>
-      </c>
-      <c r="H9" s="89">
-        <v>0</v>
-      </c>
-      <c r="I9" s="89">
-        <v>1</v>
-      </c>
-      <c r="J9" s="89">
-        <v>1</v>
-      </c>
-      <c r="K9" s="89">
-        <v>2</v>
-      </c>
-      <c r="L9" s="89">
-        <v>2</v>
-      </c>
-      <c r="M9" s="89">
-        <v>2</v>
-      </c>
-      <c r="N9" s="89">
-        <v>0</v>
-      </c>
-      <c r="O9" s="89">
-        <v>0</v>
-      </c>
-      <c r="P9" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="89">
-        <v>1</v>
-      </c>
-      <c r="R9" s="89">
-        <v>2</v>
-      </c>
-      <c r="S9" s="89">
-        <v>2</v>
-      </c>
-      <c r="T9" s="89">
-        <v>2</v>
-      </c>
-      <c r="U9" s="89">
-        <v>0</v>
-      </c>
-      <c r="V9" s="89">
-        <v>0</v>
-      </c>
-      <c r="W9" s="89">
-        <v>1</v>
-      </c>
-      <c r="X9" s="89">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="89">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="89">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="89">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="89">
+      <c r="B9" s="88">
+        <v>1</v>
+      </c>
+      <c r="C9" s="88">
+        <v>1</v>
+      </c>
+      <c r="D9" s="88">
+        <v>2</v>
+      </c>
+      <c r="E9" s="88">
+        <v>2</v>
+      </c>
+      <c r="F9" s="88">
+        <v>2</v>
+      </c>
+      <c r="G9" s="88">
+        <v>0</v>
+      </c>
+      <c r="H9" s="88">
+        <v>0</v>
+      </c>
+      <c r="I9" s="88">
+        <v>1</v>
+      </c>
+      <c r="J9" s="88">
+        <v>1</v>
+      </c>
+      <c r="K9" s="88">
+        <v>2</v>
+      </c>
+      <c r="L9" s="88">
+        <v>2</v>
+      </c>
+      <c r="M9" s="88">
+        <v>2</v>
+      </c>
+      <c r="N9" s="88">
+        <v>0</v>
+      </c>
+      <c r="O9" s="88">
+        <v>0</v>
+      </c>
+      <c r="P9" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="88">
+        <v>1</v>
+      </c>
+      <c r="R9" s="88">
+        <v>2</v>
+      </c>
+      <c r="S9" s="88">
+        <v>2</v>
+      </c>
+      <c r="T9" s="88">
+        <v>2</v>
+      </c>
+      <c r="U9" s="88">
+        <v>0</v>
+      </c>
+      <c r="V9" s="88">
+        <v>0</v>
+      </c>
+      <c r="W9" s="88">
+        <v>1</v>
+      </c>
+      <c r="X9" s="88">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="88">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="88">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="88">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="88">
         <v>0</v>
       </c>
     </row>
@@ -17321,88 +17329,88 @@
       <c r="A10" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="89">
-        <v>1</v>
-      </c>
-      <c r="C10" s="89">
-        <v>1</v>
-      </c>
-      <c r="D10" s="89">
-        <v>1</v>
-      </c>
-      <c r="E10" s="89">
-        <v>1</v>
-      </c>
-      <c r="F10" s="89">
-        <v>1</v>
-      </c>
-      <c r="G10" s="89">
-        <v>0</v>
-      </c>
-      <c r="H10" s="89">
-        <v>0</v>
-      </c>
-      <c r="I10" s="89">
-        <v>1</v>
-      </c>
-      <c r="J10" s="89">
-        <v>1</v>
-      </c>
-      <c r="K10" s="89">
-        <v>1</v>
-      </c>
-      <c r="L10" s="89">
-        <v>1</v>
-      </c>
-      <c r="M10" s="89">
-        <v>1</v>
-      </c>
-      <c r="N10" s="89">
-        <v>0</v>
-      </c>
-      <c r="O10" s="89">
-        <v>0</v>
-      </c>
-      <c r="P10" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="89">
-        <v>1</v>
-      </c>
-      <c r="R10" s="89">
-        <v>1</v>
-      </c>
-      <c r="S10" s="89">
-        <v>1</v>
-      </c>
-      <c r="T10" s="89">
-        <v>1</v>
-      </c>
-      <c r="U10" s="89">
-        <v>0</v>
-      </c>
-      <c r="V10" s="89">
-        <v>0</v>
-      </c>
-      <c r="W10" s="89">
-        <v>1</v>
-      </c>
-      <c r="X10" s="89">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="89">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="89">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="89">
+      <c r="B10" s="88">
+        <v>1</v>
+      </c>
+      <c r="C10" s="88">
+        <v>1</v>
+      </c>
+      <c r="D10" s="88">
+        <v>1</v>
+      </c>
+      <c r="E10" s="88">
+        <v>1</v>
+      </c>
+      <c r="F10" s="88">
+        <v>1</v>
+      </c>
+      <c r="G10" s="88">
+        <v>0</v>
+      </c>
+      <c r="H10" s="88">
+        <v>0</v>
+      </c>
+      <c r="I10" s="88">
+        <v>1</v>
+      </c>
+      <c r="J10" s="88">
+        <v>1</v>
+      </c>
+      <c r="K10" s="88">
+        <v>1</v>
+      </c>
+      <c r="L10" s="88">
+        <v>1</v>
+      </c>
+      <c r="M10" s="88">
+        <v>1</v>
+      </c>
+      <c r="N10" s="88">
+        <v>0</v>
+      </c>
+      <c r="O10" s="88">
+        <v>0</v>
+      </c>
+      <c r="P10" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="88">
+        <v>1</v>
+      </c>
+      <c r="R10" s="88">
+        <v>1</v>
+      </c>
+      <c r="S10" s="88">
+        <v>1</v>
+      </c>
+      <c r="T10" s="88">
+        <v>1</v>
+      </c>
+      <c r="U10" s="88">
+        <v>0</v>
+      </c>
+      <c r="V10" s="88">
+        <v>0</v>
+      </c>
+      <c r="W10" s="88">
+        <v>1</v>
+      </c>
+      <c r="X10" s="88">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="88">
         <v>0</v>
       </c>
     </row>
@@ -17410,88 +17418,88 @@
       <c r="A11" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="89">
-        <v>1</v>
-      </c>
-      <c r="C11" s="89">
-        <v>1</v>
-      </c>
-      <c r="D11" s="89">
-        <v>1</v>
-      </c>
-      <c r="E11" s="89">
-        <v>1</v>
-      </c>
-      <c r="F11" s="89">
-        <v>1</v>
-      </c>
-      <c r="G11" s="89">
-        <v>0</v>
-      </c>
-      <c r="H11" s="89">
-        <v>0</v>
-      </c>
-      <c r="I11" s="89">
-        <v>1</v>
-      </c>
-      <c r="J11" s="89">
-        <v>1</v>
-      </c>
-      <c r="K11" s="89">
-        <v>1</v>
-      </c>
-      <c r="L11" s="89">
-        <v>1</v>
-      </c>
-      <c r="M11" s="89">
-        <v>1</v>
-      </c>
-      <c r="N11" s="89">
-        <v>0</v>
-      </c>
-      <c r="O11" s="89">
-        <v>0</v>
-      </c>
-      <c r="P11" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="89">
-        <v>1</v>
-      </c>
-      <c r="R11" s="89">
-        <v>1</v>
-      </c>
-      <c r="S11" s="89">
-        <v>1</v>
-      </c>
-      <c r="T11" s="89">
-        <v>1</v>
-      </c>
-      <c r="U11" s="89">
-        <v>0</v>
-      </c>
-      <c r="V11" s="89">
-        <v>0</v>
-      </c>
-      <c r="W11" s="89">
-        <v>1</v>
-      </c>
-      <c r="X11" s="89">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="89">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="89">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="89">
+      <c r="B11" s="88">
+        <v>1</v>
+      </c>
+      <c r="C11" s="88">
+        <v>1</v>
+      </c>
+      <c r="D11" s="88">
+        <v>1</v>
+      </c>
+      <c r="E11" s="88">
+        <v>1</v>
+      </c>
+      <c r="F11" s="88">
+        <v>1</v>
+      </c>
+      <c r="G11" s="88">
+        <v>0</v>
+      </c>
+      <c r="H11" s="88">
+        <v>0</v>
+      </c>
+      <c r="I11" s="88">
+        <v>1</v>
+      </c>
+      <c r="J11" s="88">
+        <v>1</v>
+      </c>
+      <c r="K11" s="88">
+        <v>1</v>
+      </c>
+      <c r="L11" s="88">
+        <v>1</v>
+      </c>
+      <c r="M11" s="88">
+        <v>1</v>
+      </c>
+      <c r="N11" s="88">
+        <v>0</v>
+      </c>
+      <c r="O11" s="88">
+        <v>0</v>
+      </c>
+      <c r="P11" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="88">
+        <v>1</v>
+      </c>
+      <c r="R11" s="88">
+        <v>1</v>
+      </c>
+      <c r="S11" s="88">
+        <v>1</v>
+      </c>
+      <c r="T11" s="88">
+        <v>1</v>
+      </c>
+      <c r="U11" s="88">
+        <v>0</v>
+      </c>
+      <c r="V11" s="88">
+        <v>0</v>
+      </c>
+      <c r="W11" s="88">
+        <v>1</v>
+      </c>
+      <c r="X11" s="88">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="88">
         <v>0</v>
       </c>
     </row>
@@ -17499,88 +17507,88 @@
       <c r="A12" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="89">
-        <v>1</v>
-      </c>
-      <c r="C12" s="89">
-        <v>1</v>
-      </c>
-      <c r="D12" s="89">
-        <v>0</v>
-      </c>
-      <c r="E12" s="89">
-        <v>0</v>
-      </c>
-      <c r="F12" s="89">
-        <v>0</v>
-      </c>
-      <c r="G12" s="89">
-        <v>1</v>
-      </c>
-      <c r="H12" s="89">
-        <v>1</v>
-      </c>
-      <c r="I12" s="89">
-        <v>1</v>
-      </c>
-      <c r="J12" s="89">
-        <v>1</v>
-      </c>
-      <c r="K12" s="89">
-        <v>0</v>
-      </c>
-      <c r="L12" s="89">
-        <v>0</v>
-      </c>
-      <c r="M12" s="89">
-        <v>0</v>
-      </c>
-      <c r="N12" s="89">
-        <v>1</v>
-      </c>
-      <c r="O12" s="89">
-        <v>1</v>
-      </c>
-      <c r="P12" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="89">
-        <v>1</v>
-      </c>
-      <c r="R12" s="89">
-        <v>0</v>
-      </c>
-      <c r="S12" s="89">
-        <v>0</v>
-      </c>
-      <c r="T12" s="89">
-        <v>0</v>
-      </c>
-      <c r="U12" s="89">
-        <v>1</v>
-      </c>
-      <c r="V12" s="89">
-        <v>1</v>
-      </c>
-      <c r="W12" s="89">
-        <v>1</v>
-      </c>
-      <c r="X12" s="89">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="89">
+      <c r="B12" s="88">
+        <v>1</v>
+      </c>
+      <c r="C12" s="88">
+        <v>1</v>
+      </c>
+      <c r="D12" s="88">
+        <v>0</v>
+      </c>
+      <c r="E12" s="88">
+        <v>0</v>
+      </c>
+      <c r="F12" s="88">
+        <v>0</v>
+      </c>
+      <c r="G12" s="88">
+        <v>1</v>
+      </c>
+      <c r="H12" s="88">
+        <v>1</v>
+      </c>
+      <c r="I12" s="88">
+        <v>1</v>
+      </c>
+      <c r="J12" s="88">
+        <v>1</v>
+      </c>
+      <c r="K12" s="88">
+        <v>0</v>
+      </c>
+      <c r="L12" s="88">
+        <v>0</v>
+      </c>
+      <c r="M12" s="88">
+        <v>0</v>
+      </c>
+      <c r="N12" s="88">
+        <v>1</v>
+      </c>
+      <c r="O12" s="88">
+        <v>1</v>
+      </c>
+      <c r="P12" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="88">
+        <v>1</v>
+      </c>
+      <c r="R12" s="88">
+        <v>0</v>
+      </c>
+      <c r="S12" s="88">
+        <v>0</v>
+      </c>
+      <c r="T12" s="88">
+        <v>0</v>
+      </c>
+      <c r="U12" s="88">
+        <v>1</v>
+      </c>
+      <c r="V12" s="88">
+        <v>1</v>
+      </c>
+      <c r="W12" s="88">
+        <v>1</v>
+      </c>
+      <c r="X12" s="88">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="88">
         <v>1</v>
       </c>
     </row>
@@ -17588,88 +17596,88 @@
       <c r="A13" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="89">
-        <v>2</v>
-      </c>
-      <c r="C13" s="89">
-        <v>0</v>
-      </c>
-      <c r="D13" s="89">
-        <v>0</v>
-      </c>
-      <c r="E13" s="89">
-        <v>0</v>
-      </c>
-      <c r="F13" s="89">
-        <v>1</v>
-      </c>
-      <c r="G13" s="89">
-        <v>1</v>
-      </c>
-      <c r="H13" s="89">
-        <v>1</v>
-      </c>
-      <c r="I13" s="89">
-        <v>0</v>
-      </c>
-      <c r="J13" s="89">
-        <v>0</v>
-      </c>
-      <c r="K13" s="89">
-        <v>0</v>
-      </c>
-      <c r="L13" s="89">
-        <v>0</v>
-      </c>
-      <c r="M13" s="89">
-        <v>1</v>
-      </c>
-      <c r="N13" s="89">
-        <v>1</v>
-      </c>
-      <c r="O13" s="89">
-        <v>1</v>
-      </c>
-      <c r="P13" s="89">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="89">
-        <v>0</v>
-      </c>
-      <c r="R13" s="89">
-        <v>0</v>
-      </c>
-      <c r="S13" s="89">
-        <v>0</v>
-      </c>
-      <c r="T13" s="89">
-        <v>1</v>
-      </c>
-      <c r="U13" s="89">
-        <v>1</v>
-      </c>
-      <c r="V13" s="89">
-        <v>1</v>
-      </c>
-      <c r="W13" s="89">
-        <v>2</v>
-      </c>
-      <c r="X13" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="89">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="89">
+      <c r="B13" s="88">
+        <v>2</v>
+      </c>
+      <c r="C13" s="88">
+        <v>0</v>
+      </c>
+      <c r="D13" s="88">
+        <v>0</v>
+      </c>
+      <c r="E13" s="88">
+        <v>0</v>
+      </c>
+      <c r="F13" s="88">
+        <v>1</v>
+      </c>
+      <c r="G13" s="88">
+        <v>1</v>
+      </c>
+      <c r="H13" s="88">
+        <v>1</v>
+      </c>
+      <c r="I13" s="88">
+        <v>0</v>
+      </c>
+      <c r="J13" s="88">
+        <v>0</v>
+      </c>
+      <c r="K13" s="88">
+        <v>0</v>
+      </c>
+      <c r="L13" s="88">
+        <v>0</v>
+      </c>
+      <c r="M13" s="88">
+        <v>1</v>
+      </c>
+      <c r="N13" s="88">
+        <v>1</v>
+      </c>
+      <c r="O13" s="88">
+        <v>1</v>
+      </c>
+      <c r="P13" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="88">
+        <v>0</v>
+      </c>
+      <c r="R13" s="88">
+        <v>0</v>
+      </c>
+      <c r="S13" s="88">
+        <v>0</v>
+      </c>
+      <c r="T13" s="88">
+        <v>1</v>
+      </c>
+      <c r="U13" s="88">
+        <v>1</v>
+      </c>
+      <c r="V13" s="88">
+        <v>1</v>
+      </c>
+      <c r="W13" s="88">
+        <v>2</v>
+      </c>
+      <c r="X13" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="88">
         <v>1</v>
       </c>
       <c r="AD13" s="1" t="s">
@@ -17680,88 +17688,88 @@
       <c r="A14" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="89">
-        <v>2</v>
-      </c>
-      <c r="C14" s="89">
-        <v>2</v>
-      </c>
-      <c r="D14" s="89">
-        <v>2</v>
-      </c>
-      <c r="E14" s="89">
-        <v>0</v>
-      </c>
-      <c r="F14" s="89">
-        <v>0</v>
-      </c>
-      <c r="G14" s="89">
-        <v>1</v>
-      </c>
-      <c r="H14" s="89">
-        <v>1</v>
-      </c>
-      <c r="I14" s="89">
-        <v>2</v>
-      </c>
-      <c r="J14" s="89">
-        <v>2</v>
-      </c>
-      <c r="K14" s="89">
-        <v>2</v>
-      </c>
-      <c r="L14" s="89">
-        <v>0</v>
-      </c>
-      <c r="M14" s="89">
-        <v>0</v>
-      </c>
-      <c r="N14" s="89">
-        <v>1</v>
-      </c>
-      <c r="O14" s="89">
-        <v>1</v>
-      </c>
-      <c r="P14" s="89">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="89">
-        <v>2</v>
-      </c>
-      <c r="R14" s="89">
-        <v>2</v>
-      </c>
-      <c r="S14" s="89">
-        <v>0</v>
-      </c>
-      <c r="T14" s="89">
-        <v>0</v>
-      </c>
-      <c r="U14" s="89">
-        <v>1</v>
-      </c>
-      <c r="V14" s="89">
-        <v>1</v>
-      </c>
-      <c r="W14" s="89">
-        <v>2</v>
-      </c>
-      <c r="X14" s="89">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="89">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="89">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="89">
+      <c r="B14" s="88">
+        <v>2</v>
+      </c>
+      <c r="C14" s="88">
+        <v>2</v>
+      </c>
+      <c r="D14" s="88">
+        <v>2</v>
+      </c>
+      <c r="E14" s="88">
+        <v>0</v>
+      </c>
+      <c r="F14" s="88">
+        <v>0</v>
+      </c>
+      <c r="G14" s="88">
+        <v>1</v>
+      </c>
+      <c r="H14" s="88">
+        <v>1</v>
+      </c>
+      <c r="I14" s="88">
+        <v>2</v>
+      </c>
+      <c r="J14" s="88">
+        <v>2</v>
+      </c>
+      <c r="K14" s="88">
+        <v>2</v>
+      </c>
+      <c r="L14" s="88">
+        <v>0</v>
+      </c>
+      <c r="M14" s="88">
+        <v>0</v>
+      </c>
+      <c r="N14" s="88">
+        <v>1</v>
+      </c>
+      <c r="O14" s="88">
+        <v>1</v>
+      </c>
+      <c r="P14" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="88">
+        <v>2</v>
+      </c>
+      <c r="R14" s="88">
+        <v>2</v>
+      </c>
+      <c r="S14" s="88">
+        <v>0</v>
+      </c>
+      <c r="T14" s="88">
+        <v>0</v>
+      </c>
+      <c r="U14" s="88">
+        <v>1</v>
+      </c>
+      <c r="V14" s="88">
+        <v>1</v>
+      </c>
+      <c r="W14" s="88">
+        <v>2</v>
+      </c>
+      <c r="X14" s="88">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="88">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="88">
         <v>1</v>
       </c>
     </row>
@@ -17769,88 +17777,88 @@
       <c r="A15" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="89">
-        <v>1</v>
-      </c>
-      <c r="C15" s="89">
-        <v>1</v>
-      </c>
-      <c r="D15" s="89">
-        <v>2</v>
-      </c>
-      <c r="E15" s="89">
-        <v>2</v>
-      </c>
-      <c r="F15" s="89">
-        <v>0</v>
-      </c>
-      <c r="G15" s="89">
-        <v>0</v>
-      </c>
-      <c r="H15" s="89">
-        <v>0</v>
-      </c>
-      <c r="I15" s="89">
-        <v>1</v>
-      </c>
-      <c r="J15" s="89">
-        <v>1</v>
-      </c>
-      <c r="K15" s="89">
-        <v>2</v>
-      </c>
-      <c r="L15" s="89">
-        <v>2</v>
-      </c>
-      <c r="M15" s="89">
-        <v>0</v>
-      </c>
-      <c r="N15" s="89">
-        <v>0</v>
-      </c>
-      <c r="O15" s="89">
-        <v>0</v>
-      </c>
-      <c r="P15" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="89">
-        <v>1</v>
-      </c>
-      <c r="R15" s="89">
-        <v>2</v>
-      </c>
-      <c r="S15" s="89">
-        <v>0</v>
-      </c>
-      <c r="T15" s="89">
-        <v>0</v>
-      </c>
-      <c r="U15" s="89">
-        <v>0</v>
-      </c>
-      <c r="V15" s="89">
-        <v>0</v>
-      </c>
-      <c r="W15" s="89">
-        <v>1</v>
-      </c>
-      <c r="X15" s="89">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="89">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="89">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="89">
+      <c r="B15" s="88">
+        <v>1</v>
+      </c>
+      <c r="C15" s="88">
+        <v>1</v>
+      </c>
+      <c r="D15" s="88">
+        <v>2</v>
+      </c>
+      <c r="E15" s="88">
+        <v>2</v>
+      </c>
+      <c r="F15" s="88">
+        <v>0</v>
+      </c>
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+      <c r="H15" s="88">
+        <v>0</v>
+      </c>
+      <c r="I15" s="88">
+        <v>1</v>
+      </c>
+      <c r="J15" s="88">
+        <v>1</v>
+      </c>
+      <c r="K15" s="88">
+        <v>2</v>
+      </c>
+      <c r="L15" s="88">
+        <v>2</v>
+      </c>
+      <c r="M15" s="88">
+        <v>0</v>
+      </c>
+      <c r="N15" s="88">
+        <v>0</v>
+      </c>
+      <c r="O15" s="88">
+        <v>0</v>
+      </c>
+      <c r="P15" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="88">
+        <v>1</v>
+      </c>
+      <c r="R15" s="88">
+        <v>2</v>
+      </c>
+      <c r="S15" s="88">
+        <v>0</v>
+      </c>
+      <c r="T15" s="88">
+        <v>0</v>
+      </c>
+      <c r="U15" s="88">
+        <v>0</v>
+      </c>
+      <c r="V15" s="88">
+        <v>0</v>
+      </c>
+      <c r="W15" s="88">
+        <v>1</v>
+      </c>
+      <c r="X15" s="88">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="88">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="88">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="88">
         <v>0</v>
       </c>
     </row>
@@ -17858,88 +17866,88 @@
       <c r="A16" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="89">
-        <v>2</v>
-      </c>
-      <c r="C16" s="89">
-        <v>2</v>
-      </c>
-      <c r="D16" s="89">
-        <v>0</v>
-      </c>
-      <c r="E16" s="89">
-        <v>0</v>
-      </c>
-      <c r="F16" s="89">
-        <v>0</v>
-      </c>
-      <c r="G16" s="89">
-        <v>1</v>
-      </c>
-      <c r="H16" s="89">
-        <v>1</v>
-      </c>
-      <c r="I16" s="89">
-        <v>2</v>
-      </c>
-      <c r="J16" s="89">
-        <v>0</v>
-      </c>
-      <c r="K16" s="89">
-        <v>0</v>
-      </c>
-      <c r="L16" s="89">
-        <v>0</v>
-      </c>
-      <c r="M16" s="89">
-        <v>0</v>
-      </c>
-      <c r="N16" s="89">
-        <v>1</v>
-      </c>
-      <c r="O16" s="89">
-        <v>1</v>
-      </c>
-      <c r="P16" s="89">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="89">
-        <v>2</v>
-      </c>
-      <c r="R16" s="89">
-        <v>0</v>
-      </c>
-      <c r="S16" s="89">
-        <v>0</v>
-      </c>
-      <c r="T16" s="89">
-        <v>0</v>
-      </c>
-      <c r="U16" s="89">
-        <v>1</v>
-      </c>
-      <c r="V16" s="89">
-        <v>1</v>
-      </c>
-      <c r="W16" s="89">
-        <v>2</v>
-      </c>
-      <c r="X16" s="89">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="89">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="89">
+      <c r="B16" s="88">
+        <v>2</v>
+      </c>
+      <c r="C16" s="88">
+        <v>2</v>
+      </c>
+      <c r="D16" s="88">
+        <v>0</v>
+      </c>
+      <c r="E16" s="88">
+        <v>0</v>
+      </c>
+      <c r="F16" s="88">
+        <v>0</v>
+      </c>
+      <c r="G16" s="88">
+        <v>1</v>
+      </c>
+      <c r="H16" s="88">
+        <v>1</v>
+      </c>
+      <c r="I16" s="88">
+        <v>2</v>
+      </c>
+      <c r="J16" s="88">
+        <v>0</v>
+      </c>
+      <c r="K16" s="88">
+        <v>0</v>
+      </c>
+      <c r="L16" s="88">
+        <v>0</v>
+      </c>
+      <c r="M16" s="88">
+        <v>0</v>
+      </c>
+      <c r="N16" s="88">
+        <v>1</v>
+      </c>
+      <c r="O16" s="88">
+        <v>1</v>
+      </c>
+      <c r="P16" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="88">
+        <v>2</v>
+      </c>
+      <c r="R16" s="88">
+        <v>0</v>
+      </c>
+      <c r="S16" s="88">
+        <v>0</v>
+      </c>
+      <c r="T16" s="88">
+        <v>0</v>
+      </c>
+      <c r="U16" s="88">
+        <v>1</v>
+      </c>
+      <c r="V16" s="88">
+        <v>1</v>
+      </c>
+      <c r="W16" s="88">
+        <v>2</v>
+      </c>
+      <c r="X16" s="88">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="88">
         <v>1</v>
       </c>
     </row>
@@ -17947,88 +17955,88 @@
       <c r="A17" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="89">
-        <v>0</v>
-      </c>
-      <c r="C17" s="89">
-        <v>0</v>
-      </c>
-      <c r="D17" s="89">
-        <v>1</v>
-      </c>
-      <c r="E17" s="89">
-        <v>1</v>
-      </c>
-      <c r="F17" s="89">
-        <v>3</v>
-      </c>
-      <c r="G17" s="89">
-        <v>3</v>
-      </c>
-      <c r="H17" s="89">
-        <v>0</v>
-      </c>
-      <c r="I17" s="89">
-        <v>0</v>
-      </c>
-      <c r="J17" s="89">
-        <v>0</v>
-      </c>
-      <c r="K17" s="89">
-        <v>1</v>
-      </c>
-      <c r="L17" s="89">
-        <v>1</v>
-      </c>
-      <c r="M17" s="89">
-        <v>3</v>
-      </c>
-      <c r="N17" s="89">
-        <v>0</v>
-      </c>
-      <c r="O17" s="89">
-        <v>0</v>
-      </c>
-      <c r="P17" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="89">
-        <v>0</v>
-      </c>
-      <c r="R17" s="89">
-        <v>1</v>
-      </c>
-      <c r="S17" s="89">
-        <v>1</v>
-      </c>
-      <c r="T17" s="89">
-        <v>3</v>
-      </c>
-      <c r="U17" s="89">
-        <v>3</v>
-      </c>
-      <c r="V17" s="89">
-        <v>0</v>
-      </c>
-      <c r="W17" s="89">
-        <v>0</v>
-      </c>
-      <c r="X17" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="89">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="89">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="89">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="89">
-        <v>3</v>
-      </c>
-      <c r="AC17" s="89">
+      <c r="B17" s="88">
+        <v>0</v>
+      </c>
+      <c r="C17" s="88">
+        <v>0</v>
+      </c>
+      <c r="D17" s="88">
+        <v>1</v>
+      </c>
+      <c r="E17" s="88">
+        <v>1</v>
+      </c>
+      <c r="F17" s="88">
+        <v>3</v>
+      </c>
+      <c r="G17" s="88">
+        <v>3</v>
+      </c>
+      <c r="H17" s="88">
+        <v>0</v>
+      </c>
+      <c r="I17" s="88">
+        <v>0</v>
+      </c>
+      <c r="J17" s="88">
+        <v>0</v>
+      </c>
+      <c r="K17" s="88">
+        <v>1</v>
+      </c>
+      <c r="L17" s="88">
+        <v>1</v>
+      </c>
+      <c r="M17" s="88">
+        <v>3</v>
+      </c>
+      <c r="N17" s="88">
+        <v>0</v>
+      </c>
+      <c r="O17" s="88">
+        <v>0</v>
+      </c>
+      <c r="P17" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="88">
+        <v>0</v>
+      </c>
+      <c r="R17" s="88">
+        <v>1</v>
+      </c>
+      <c r="S17" s="88">
+        <v>1</v>
+      </c>
+      <c r="T17" s="88">
+        <v>3</v>
+      </c>
+      <c r="U17" s="88">
+        <v>3</v>
+      </c>
+      <c r="V17" s="88">
+        <v>0</v>
+      </c>
+      <c r="W17" s="88">
+        <v>0</v>
+      </c>
+      <c r="X17" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="88">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="88">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="88">
         <v>0</v>
       </c>
     </row>
@@ -18036,88 +18044,88 @@
       <c r="A18" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="89">
-        <v>0</v>
-      </c>
-      <c r="C18" s="89">
-        <v>0</v>
-      </c>
-      <c r="D18" s="89">
-        <v>1</v>
-      </c>
-      <c r="E18" s="89">
-        <v>1</v>
-      </c>
-      <c r="F18" s="89">
-        <v>1</v>
-      </c>
-      <c r="G18" s="89">
-        <v>2</v>
-      </c>
-      <c r="H18" s="89">
-        <v>0</v>
-      </c>
-      <c r="I18" s="89">
-        <v>0</v>
-      </c>
-      <c r="J18" s="89">
-        <v>0</v>
-      </c>
-      <c r="K18" s="89">
-        <v>1</v>
-      </c>
-      <c r="L18" s="89">
-        <v>1</v>
-      </c>
-      <c r="M18" s="89">
-        <v>1</v>
-      </c>
-      <c r="N18" s="89">
-        <v>2</v>
-      </c>
-      <c r="O18" s="89">
-        <v>0</v>
-      </c>
-      <c r="P18" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="89">
-        <v>0</v>
-      </c>
-      <c r="R18" s="89">
-        <v>1</v>
-      </c>
-      <c r="S18" s="89">
-        <v>1</v>
-      </c>
-      <c r="T18" s="89">
-        <v>1</v>
-      </c>
-      <c r="U18" s="89">
-        <v>2</v>
-      </c>
-      <c r="V18" s="89">
-        <v>0</v>
-      </c>
-      <c r="W18" s="89">
-        <v>0</v>
-      </c>
-      <c r="X18" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="89">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="89">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="89">
+      <c r="B18" s="88">
+        <v>0</v>
+      </c>
+      <c r="C18" s="88">
+        <v>0</v>
+      </c>
+      <c r="D18" s="88">
+        <v>1</v>
+      </c>
+      <c r="E18" s="88">
+        <v>1</v>
+      </c>
+      <c r="F18" s="88">
+        <v>1</v>
+      </c>
+      <c r="G18" s="88">
+        <v>2</v>
+      </c>
+      <c r="H18" s="88">
+        <v>0</v>
+      </c>
+      <c r="I18" s="88">
+        <v>0</v>
+      </c>
+      <c r="J18" s="88">
+        <v>0</v>
+      </c>
+      <c r="K18" s="88">
+        <v>1</v>
+      </c>
+      <c r="L18" s="88">
+        <v>1</v>
+      </c>
+      <c r="M18" s="88">
+        <v>1</v>
+      </c>
+      <c r="N18" s="88">
+        <v>2</v>
+      </c>
+      <c r="O18" s="88">
+        <v>0</v>
+      </c>
+      <c r="P18" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="88">
+        <v>0</v>
+      </c>
+      <c r="R18" s="88">
+        <v>1</v>
+      </c>
+      <c r="S18" s="88">
+        <v>1</v>
+      </c>
+      <c r="T18" s="88">
+        <v>1</v>
+      </c>
+      <c r="U18" s="88">
+        <v>2</v>
+      </c>
+      <c r="V18" s="88">
+        <v>0</v>
+      </c>
+      <c r="W18" s="88">
+        <v>0</v>
+      </c>
+      <c r="X18" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="88">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="88">
         <v>0</v>
       </c>
     </row>
@@ -18125,88 +18133,88 @@
       <c r="A19" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="89">
-        <v>0</v>
-      </c>
-      <c r="C19" s="89">
-        <v>0</v>
-      </c>
-      <c r="D19" s="89">
-        <v>0</v>
-      </c>
-      <c r="E19" s="89">
-        <v>2</v>
-      </c>
-      <c r="F19" s="89">
-        <v>2</v>
-      </c>
-      <c r="G19" s="89">
-        <v>2</v>
-      </c>
-      <c r="H19" s="89">
-        <v>2</v>
-      </c>
-      <c r="I19" s="89">
-        <v>0</v>
-      </c>
-      <c r="J19" s="89">
-        <v>0</v>
-      </c>
-      <c r="K19" s="89">
-        <v>0</v>
-      </c>
-      <c r="L19" s="89">
-        <v>0</v>
-      </c>
-      <c r="M19" s="89">
-        <v>2</v>
-      </c>
-      <c r="N19" s="89">
-        <v>2</v>
-      </c>
-      <c r="O19" s="89">
-        <v>2</v>
-      </c>
-      <c r="P19" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="89">
-        <v>0</v>
-      </c>
-      <c r="R19" s="89">
-        <v>0</v>
-      </c>
-      <c r="S19" s="89">
-        <v>2</v>
-      </c>
-      <c r="T19" s="89">
-        <v>2</v>
-      </c>
-      <c r="U19" s="89">
-        <v>2</v>
-      </c>
-      <c r="V19" s="89">
-        <v>2</v>
-      </c>
-      <c r="W19" s="89">
-        <v>0</v>
-      </c>
-      <c r="X19" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="89">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="89">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="89">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="89">
+      <c r="B19" s="88">
+        <v>0</v>
+      </c>
+      <c r="C19" s="88">
+        <v>0</v>
+      </c>
+      <c r="D19" s="88">
+        <v>0</v>
+      </c>
+      <c r="E19" s="88">
+        <v>2</v>
+      </c>
+      <c r="F19" s="88">
+        <v>2</v>
+      </c>
+      <c r="G19" s="88">
+        <v>2</v>
+      </c>
+      <c r="H19" s="88">
+        <v>2</v>
+      </c>
+      <c r="I19" s="88">
+        <v>0</v>
+      </c>
+      <c r="J19" s="88">
+        <v>0</v>
+      </c>
+      <c r="K19" s="88">
+        <v>0</v>
+      </c>
+      <c r="L19" s="88">
+        <v>0</v>
+      </c>
+      <c r="M19" s="88">
+        <v>2</v>
+      </c>
+      <c r="N19" s="88">
+        <v>2</v>
+      </c>
+      <c r="O19" s="88">
+        <v>2</v>
+      </c>
+      <c r="P19" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="88">
+        <v>0</v>
+      </c>
+      <c r="R19" s="88">
+        <v>0</v>
+      </c>
+      <c r="S19" s="88">
+        <v>2</v>
+      </c>
+      <c r="T19" s="88">
+        <v>2</v>
+      </c>
+      <c r="U19" s="88">
+        <v>2</v>
+      </c>
+      <c r="V19" s="88">
+        <v>2</v>
+      </c>
+      <c r="W19" s="88">
+        <v>0</v>
+      </c>
+      <c r="X19" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="88">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="88">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="88">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="88">
         <v>2</v>
       </c>
       <c r="AD19" s="1"/>
@@ -18215,88 +18223,88 @@
       <c r="A20" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="89">
-        <v>1</v>
-      </c>
-      <c r="C20" s="89">
-        <v>1</v>
-      </c>
-      <c r="D20" s="89">
-        <v>3</v>
-      </c>
-      <c r="E20" s="89">
-        <v>0</v>
-      </c>
-      <c r="F20" s="89">
-        <v>0</v>
-      </c>
-      <c r="G20" s="89">
-        <v>0</v>
-      </c>
-      <c r="H20" s="89">
-        <v>0</v>
-      </c>
-      <c r="I20" s="89">
-        <v>1</v>
-      </c>
-      <c r="J20" s="89">
-        <v>1</v>
-      </c>
-      <c r="K20" s="89">
-        <v>3</v>
-      </c>
-      <c r="L20" s="89">
-        <v>0</v>
-      </c>
-      <c r="M20" s="89">
-        <v>0</v>
-      </c>
-      <c r="N20" s="89">
-        <v>0</v>
-      </c>
-      <c r="O20" s="89">
-        <v>2</v>
-      </c>
-      <c r="P20" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="89">
-        <v>1</v>
-      </c>
-      <c r="R20" s="89">
-        <v>3</v>
-      </c>
-      <c r="S20" s="89">
-        <v>0</v>
-      </c>
-      <c r="T20" s="89">
-        <v>0</v>
-      </c>
-      <c r="U20" s="89">
-        <v>0</v>
-      </c>
-      <c r="V20" s="89">
-        <v>2</v>
-      </c>
-      <c r="W20" s="89">
-        <v>1</v>
-      </c>
-      <c r="X20" s="89">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="89">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="89">
+      <c r="B20" s="88">
+        <v>1</v>
+      </c>
+      <c r="C20" s="88">
+        <v>1</v>
+      </c>
+      <c r="D20" s="88">
+        <v>3</v>
+      </c>
+      <c r="E20" s="88">
+        <v>0</v>
+      </c>
+      <c r="F20" s="88">
+        <v>0</v>
+      </c>
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+      <c r="H20" s="88">
+        <v>0</v>
+      </c>
+      <c r="I20" s="88">
+        <v>1</v>
+      </c>
+      <c r="J20" s="88">
+        <v>1</v>
+      </c>
+      <c r="K20" s="88">
+        <v>3</v>
+      </c>
+      <c r="L20" s="88">
+        <v>0</v>
+      </c>
+      <c r="M20" s="88">
+        <v>0</v>
+      </c>
+      <c r="N20" s="88">
+        <v>0</v>
+      </c>
+      <c r="O20" s="88">
+        <v>2</v>
+      </c>
+      <c r="P20" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="88">
+        <v>1</v>
+      </c>
+      <c r="R20" s="88">
+        <v>3</v>
+      </c>
+      <c r="S20" s="88">
+        <v>0</v>
+      </c>
+      <c r="T20" s="88">
+        <v>0</v>
+      </c>
+      <c r="U20" s="88">
+        <v>0</v>
+      </c>
+      <c r="V20" s="88">
+        <v>2</v>
+      </c>
+      <c r="W20" s="88">
+        <v>1</v>
+      </c>
+      <c r="X20" s="88">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="88">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="88">
         <v>2</v>
       </c>
     </row>
@@ -18304,88 +18312,88 @@
       <c r="A21" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="89">
-        <v>2</v>
-      </c>
-      <c r="C21" s="89">
-        <v>2</v>
-      </c>
-      <c r="D21" s="89">
-        <v>0</v>
-      </c>
-      <c r="E21" s="89">
-        <v>0</v>
-      </c>
-      <c r="F21" s="89">
-        <v>0</v>
-      </c>
-      <c r="G21" s="89">
-        <v>1</v>
-      </c>
-      <c r="H21" s="89">
-        <v>1</v>
-      </c>
-      <c r="I21" s="89">
-        <v>2</v>
-      </c>
-      <c r="J21" s="89">
-        <v>2</v>
-      </c>
-      <c r="K21" s="89">
-        <v>0</v>
-      </c>
-      <c r="L21" s="89">
-        <v>0</v>
-      </c>
-      <c r="M21" s="89">
-        <v>0</v>
-      </c>
-      <c r="N21" s="89">
-        <v>1</v>
-      </c>
-      <c r="O21" s="89">
-        <v>1</v>
-      </c>
-      <c r="P21" s="89">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="89">
-        <v>0</v>
-      </c>
-      <c r="R21" s="89">
-        <v>0</v>
-      </c>
-      <c r="S21" s="89">
-        <v>0</v>
-      </c>
-      <c r="T21" s="89">
-        <v>0</v>
-      </c>
-      <c r="U21" s="89">
-        <v>1</v>
-      </c>
-      <c r="V21" s="89">
-        <v>1</v>
-      </c>
-      <c r="W21" s="89">
-        <v>2</v>
-      </c>
-      <c r="X21" s="89">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="89">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="89">
+      <c r="B21" s="88">
+        <v>2</v>
+      </c>
+      <c r="C21" s="88">
+        <v>2</v>
+      </c>
+      <c r="D21" s="88">
+        <v>0</v>
+      </c>
+      <c r="E21" s="88">
+        <v>0</v>
+      </c>
+      <c r="F21" s="88">
+        <v>0</v>
+      </c>
+      <c r="G21" s="88">
+        <v>1</v>
+      </c>
+      <c r="H21" s="88">
+        <v>1</v>
+      </c>
+      <c r="I21" s="88">
+        <v>2</v>
+      </c>
+      <c r="J21" s="88">
+        <v>2</v>
+      </c>
+      <c r="K21" s="88">
+        <v>0</v>
+      </c>
+      <c r="L21" s="88">
+        <v>0</v>
+      </c>
+      <c r="M21" s="88">
+        <v>0</v>
+      </c>
+      <c r="N21" s="88">
+        <v>1</v>
+      </c>
+      <c r="O21" s="88">
+        <v>1</v>
+      </c>
+      <c r="P21" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="88">
+        <v>0</v>
+      </c>
+      <c r="R21" s="88">
+        <v>0</v>
+      </c>
+      <c r="S21" s="88">
+        <v>0</v>
+      </c>
+      <c r="T21" s="88">
+        <v>0</v>
+      </c>
+      <c r="U21" s="88">
+        <v>1</v>
+      </c>
+      <c r="V21" s="88">
+        <v>1</v>
+      </c>
+      <c r="W21" s="88">
+        <v>2</v>
+      </c>
+      <c r="X21" s="88">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="88">
         <v>1</v>
       </c>
     </row>
@@ -18393,88 +18401,88 @@
       <c r="A22" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="89">
-        <v>0</v>
-      </c>
-      <c r="C22" s="89">
-        <v>0</v>
-      </c>
-      <c r="D22" s="89">
-        <v>0</v>
-      </c>
-      <c r="E22" s="89">
-        <v>3</v>
-      </c>
-      <c r="F22" s="89">
-        <v>3</v>
-      </c>
-      <c r="G22" s="89">
-        <v>3</v>
-      </c>
-      <c r="H22" s="89">
-        <v>3</v>
-      </c>
-      <c r="I22" s="89">
-        <v>0</v>
-      </c>
-      <c r="J22" s="89">
-        <v>0</v>
-      </c>
-      <c r="K22" s="89">
-        <v>0</v>
-      </c>
-      <c r="L22" s="89">
-        <v>0</v>
-      </c>
-      <c r="M22" s="89">
-        <v>3</v>
-      </c>
-      <c r="N22" s="89">
-        <v>3</v>
-      </c>
-      <c r="O22" s="89">
-        <v>3</v>
-      </c>
-      <c r="P22" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="89">
-        <v>0</v>
-      </c>
-      <c r="R22" s="89">
-        <v>0</v>
-      </c>
-      <c r="S22" s="89">
-        <v>3</v>
-      </c>
-      <c r="T22" s="89">
-        <v>3</v>
-      </c>
-      <c r="U22" s="89">
-        <v>3</v>
-      </c>
-      <c r="V22" s="89">
-        <v>3</v>
-      </c>
-      <c r="W22" s="89">
-        <v>0</v>
-      </c>
-      <c r="X22" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="89">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="89">
-        <v>3</v>
-      </c>
-      <c r="AB22" s="89">
-        <v>3</v>
-      </c>
-      <c r="AC22" s="89">
+      <c r="B22" s="88">
+        <v>0</v>
+      </c>
+      <c r="C22" s="88">
+        <v>0</v>
+      </c>
+      <c r="D22" s="88">
+        <v>0</v>
+      </c>
+      <c r="E22" s="88">
+        <v>3</v>
+      </c>
+      <c r="F22" s="88">
+        <v>3</v>
+      </c>
+      <c r="G22" s="88">
+        <v>3</v>
+      </c>
+      <c r="H22" s="88">
+        <v>3</v>
+      </c>
+      <c r="I22" s="88">
+        <v>0</v>
+      </c>
+      <c r="J22" s="88">
+        <v>0</v>
+      </c>
+      <c r="K22" s="88">
+        <v>0</v>
+      </c>
+      <c r="L22" s="88">
+        <v>0</v>
+      </c>
+      <c r="M22" s="88">
+        <v>3</v>
+      </c>
+      <c r="N22" s="88">
+        <v>3</v>
+      </c>
+      <c r="O22" s="88">
+        <v>3</v>
+      </c>
+      <c r="P22" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="88">
+        <v>0</v>
+      </c>
+      <c r="R22" s="88">
+        <v>0</v>
+      </c>
+      <c r="S22" s="88">
+        <v>3</v>
+      </c>
+      <c r="T22" s="88">
+        <v>3</v>
+      </c>
+      <c r="U22" s="88">
+        <v>3</v>
+      </c>
+      <c r="V22" s="88">
+        <v>3</v>
+      </c>
+      <c r="W22" s="88">
+        <v>0</v>
+      </c>
+      <c r="X22" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="88">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="88">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="88">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="88">
         <v>3</v>
       </c>
     </row>
@@ -18482,88 +18490,88 @@
       <c r="A23" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="89">
-        <v>1</v>
-      </c>
-      <c r="C23" s="89">
-        <v>1</v>
-      </c>
-      <c r="D23" s="89">
-        <v>2</v>
-      </c>
-      <c r="E23" s="89">
-        <v>2</v>
-      </c>
-      <c r="F23" s="89">
-        <v>0</v>
-      </c>
-      <c r="G23" s="89">
-        <v>0</v>
-      </c>
-      <c r="H23" s="89">
-        <v>0</v>
-      </c>
-      <c r="I23" s="89">
-        <v>1</v>
-      </c>
-      <c r="J23" s="89">
-        <v>1</v>
-      </c>
-      <c r="K23" s="89">
-        <v>2</v>
-      </c>
-      <c r="L23" s="89">
-        <v>2</v>
-      </c>
-      <c r="M23" s="89">
-        <v>0</v>
-      </c>
-      <c r="N23" s="89">
-        <v>0</v>
-      </c>
-      <c r="O23" s="89">
-        <v>0</v>
-      </c>
-      <c r="P23" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="89">
-        <v>1</v>
-      </c>
-      <c r="R23" s="89">
-        <v>2</v>
-      </c>
-      <c r="S23" s="89">
-        <v>2</v>
-      </c>
-      <c r="T23" s="89">
-        <v>0</v>
-      </c>
-      <c r="U23" s="89">
-        <v>0</v>
-      </c>
-      <c r="V23" s="89">
-        <v>0</v>
-      </c>
-      <c r="W23" s="89">
-        <v>1</v>
-      </c>
-      <c r="X23" s="89">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="89">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="89">
-        <v>2</v>
-      </c>
-      <c r="AA23" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="89">
+      <c r="B23" s="88">
+        <v>1</v>
+      </c>
+      <c r="C23" s="88">
+        <v>1</v>
+      </c>
+      <c r="D23" s="88">
+        <v>2</v>
+      </c>
+      <c r="E23" s="88">
+        <v>2</v>
+      </c>
+      <c r="F23" s="88">
+        <v>0</v>
+      </c>
+      <c r="G23" s="88">
+        <v>0</v>
+      </c>
+      <c r="H23" s="88">
+        <v>0</v>
+      </c>
+      <c r="I23" s="88">
+        <v>1</v>
+      </c>
+      <c r="J23" s="88">
+        <v>1</v>
+      </c>
+      <c r="K23" s="88">
+        <v>2</v>
+      </c>
+      <c r="L23" s="88">
+        <v>2</v>
+      </c>
+      <c r="M23" s="88">
+        <v>0</v>
+      </c>
+      <c r="N23" s="88">
+        <v>0</v>
+      </c>
+      <c r="O23" s="88">
+        <v>0</v>
+      </c>
+      <c r="P23" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="88">
+        <v>1</v>
+      </c>
+      <c r="R23" s="88">
+        <v>2</v>
+      </c>
+      <c r="S23" s="88">
+        <v>2</v>
+      </c>
+      <c r="T23" s="88">
+        <v>0</v>
+      </c>
+      <c r="U23" s="88">
+        <v>0</v>
+      </c>
+      <c r="V23" s="88">
+        <v>0</v>
+      </c>
+      <c r="W23" s="88">
+        <v>1</v>
+      </c>
+      <c r="X23" s="88">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="88">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="88">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="88">
         <v>0</v>
       </c>
     </row>
@@ -18571,88 +18579,88 @@
       <c r="A24" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="89">
-        <v>0</v>
-      </c>
-      <c r="C24" s="89">
-        <v>0</v>
-      </c>
-      <c r="D24" s="89">
-        <v>1</v>
-      </c>
-      <c r="E24" s="89">
-        <v>1</v>
-      </c>
-      <c r="F24" s="89">
-        <v>3</v>
-      </c>
-      <c r="G24" s="89">
-        <v>3</v>
-      </c>
-      <c r="H24" s="89">
-        <v>3</v>
-      </c>
-      <c r="I24" s="89">
-        <v>0</v>
-      </c>
-      <c r="J24" s="89">
-        <v>0</v>
-      </c>
-      <c r="K24" s="89">
-        <v>1</v>
-      </c>
-      <c r="L24" s="89">
-        <v>1</v>
-      </c>
-      <c r="M24" s="89">
-        <v>3</v>
-      </c>
-      <c r="N24" s="89">
-        <v>3</v>
-      </c>
-      <c r="O24" s="89">
-        <v>3</v>
-      </c>
-      <c r="P24" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="89">
-        <v>0</v>
-      </c>
-      <c r="R24" s="89">
-        <v>1</v>
-      </c>
-      <c r="S24" s="89">
-        <v>1</v>
-      </c>
-      <c r="T24" s="89">
-        <v>3</v>
-      </c>
-      <c r="U24" s="89">
-        <v>3</v>
-      </c>
-      <c r="V24" s="89">
-        <v>3</v>
-      </c>
-      <c r="W24" s="89">
-        <v>0</v>
-      </c>
-      <c r="X24" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="89">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="89">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="89">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="89">
-        <v>3</v>
-      </c>
-      <c r="AC24" s="89">
+      <c r="B24" s="88">
+        <v>0</v>
+      </c>
+      <c r="C24" s="88">
+        <v>0</v>
+      </c>
+      <c r="D24" s="88">
+        <v>1</v>
+      </c>
+      <c r="E24" s="88">
+        <v>1</v>
+      </c>
+      <c r="F24" s="88">
+        <v>3</v>
+      </c>
+      <c r="G24" s="88">
+        <v>3</v>
+      </c>
+      <c r="H24" s="88">
+        <v>3</v>
+      </c>
+      <c r="I24" s="88">
+        <v>0</v>
+      </c>
+      <c r="J24" s="88">
+        <v>0</v>
+      </c>
+      <c r="K24" s="88">
+        <v>1</v>
+      </c>
+      <c r="L24" s="88">
+        <v>1</v>
+      </c>
+      <c r="M24" s="88">
+        <v>3</v>
+      </c>
+      <c r="N24" s="88">
+        <v>3</v>
+      </c>
+      <c r="O24" s="88">
+        <v>3</v>
+      </c>
+      <c r="P24" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="88">
+        <v>0</v>
+      </c>
+      <c r="R24" s="88">
+        <v>1</v>
+      </c>
+      <c r="S24" s="88">
+        <v>1</v>
+      </c>
+      <c r="T24" s="88">
+        <v>3</v>
+      </c>
+      <c r="U24" s="88">
+        <v>3</v>
+      </c>
+      <c r="V24" s="88">
+        <v>3</v>
+      </c>
+      <c r="W24" s="88">
+        <v>0</v>
+      </c>
+      <c r="X24" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="88">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="88">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="88">
         <v>3</v>
       </c>
     </row>
@@ -18660,88 +18668,88 @@
       <c r="A25" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="89">
-        <v>3</v>
-      </c>
-      <c r="C25" s="89">
-        <v>3</v>
-      </c>
-      <c r="D25" s="89">
-        <v>0</v>
-      </c>
-      <c r="E25" s="89">
-        <v>0</v>
-      </c>
-      <c r="F25" s="89">
-        <v>1</v>
-      </c>
-      <c r="G25" s="89">
-        <v>1</v>
-      </c>
-      <c r="H25" s="89">
-        <v>1</v>
-      </c>
-      <c r="I25" s="89">
-        <v>3</v>
-      </c>
-      <c r="J25" s="89">
-        <v>3</v>
-      </c>
-      <c r="K25" s="89">
-        <v>0</v>
-      </c>
-      <c r="L25" s="89">
-        <v>0</v>
-      </c>
-      <c r="M25" s="89">
-        <v>1</v>
-      </c>
-      <c r="N25" s="89">
-        <v>1</v>
-      </c>
-      <c r="O25" s="89">
-        <v>1</v>
-      </c>
-      <c r="P25" s="89">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="89">
-        <v>3</v>
-      </c>
-      <c r="R25" s="89">
-        <v>0</v>
-      </c>
-      <c r="S25" s="89">
-        <v>0</v>
-      </c>
-      <c r="T25" s="89">
-        <v>1</v>
-      </c>
-      <c r="U25" s="89">
-        <v>1</v>
-      </c>
-      <c r="V25" s="89">
-        <v>1</v>
-      </c>
-      <c r="W25" s="89">
-        <v>3</v>
-      </c>
-      <c r="X25" s="89">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="89">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="89">
+      <c r="B25" s="88">
+        <v>3</v>
+      </c>
+      <c r="C25" s="88">
+        <v>3</v>
+      </c>
+      <c r="D25" s="88">
+        <v>0</v>
+      </c>
+      <c r="E25" s="88">
+        <v>0</v>
+      </c>
+      <c r="F25" s="88">
+        <v>1</v>
+      </c>
+      <c r="G25" s="88">
+        <v>1</v>
+      </c>
+      <c r="H25" s="88">
+        <v>1</v>
+      </c>
+      <c r="I25" s="88">
+        <v>3</v>
+      </c>
+      <c r="J25" s="88">
+        <v>3</v>
+      </c>
+      <c r="K25" s="88">
+        <v>0</v>
+      </c>
+      <c r="L25" s="88">
+        <v>0</v>
+      </c>
+      <c r="M25" s="88">
+        <v>1</v>
+      </c>
+      <c r="N25" s="88">
+        <v>1</v>
+      </c>
+      <c r="O25" s="88">
+        <v>1</v>
+      </c>
+      <c r="P25" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="88">
+        <v>3</v>
+      </c>
+      <c r="R25" s="88">
+        <v>0</v>
+      </c>
+      <c r="S25" s="88">
+        <v>0</v>
+      </c>
+      <c r="T25" s="88">
+        <v>1</v>
+      </c>
+      <c r="U25" s="88">
+        <v>1</v>
+      </c>
+      <c r="V25" s="88">
+        <v>1</v>
+      </c>
+      <c r="W25" s="88">
+        <v>3</v>
+      </c>
+      <c r="X25" s="88">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="88">
         <v>1</v>
       </c>
     </row>
@@ -18749,88 +18757,88 @@
       <c r="A26" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="89">
-        <v>0</v>
-      </c>
-      <c r="C26" s="89">
-        <v>0</v>
-      </c>
-      <c r="D26" s="89">
-        <v>0</v>
-      </c>
-      <c r="E26" s="89">
-        <v>2</v>
-      </c>
-      <c r="F26" s="89">
-        <v>2</v>
-      </c>
-      <c r="G26" s="89">
-        <v>2</v>
-      </c>
-      <c r="H26" s="89">
-        <v>2</v>
-      </c>
-      <c r="I26" s="89">
-        <v>0</v>
-      </c>
-      <c r="J26" s="89">
-        <v>0</v>
-      </c>
-      <c r="K26" s="89">
-        <v>0</v>
-      </c>
-      <c r="L26" s="89">
-        <v>2</v>
-      </c>
-      <c r="M26" s="89">
-        <v>2</v>
-      </c>
-      <c r="N26" s="89">
-        <v>2</v>
-      </c>
-      <c r="O26" s="89">
-        <v>2</v>
-      </c>
-      <c r="P26" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="89">
-        <v>0</v>
-      </c>
-      <c r="R26" s="89">
-        <v>0</v>
-      </c>
-      <c r="S26" s="89">
-        <v>2</v>
-      </c>
-      <c r="T26" s="89">
-        <v>2</v>
-      </c>
-      <c r="U26" s="89">
-        <v>2</v>
-      </c>
-      <c r="V26" s="89">
-        <v>2</v>
-      </c>
-      <c r="W26" s="89">
-        <v>0</v>
-      </c>
-      <c r="X26" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="89">
-        <v>2</v>
-      </c>
-      <c r="AB26" s="89">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="89">
+      <c r="B26" s="88">
+        <v>0</v>
+      </c>
+      <c r="C26" s="88">
+        <v>0</v>
+      </c>
+      <c r="D26" s="88">
+        <v>0</v>
+      </c>
+      <c r="E26" s="88">
+        <v>2</v>
+      </c>
+      <c r="F26" s="88">
+        <v>2</v>
+      </c>
+      <c r="G26" s="88">
+        <v>2</v>
+      </c>
+      <c r="H26" s="88">
+        <v>2</v>
+      </c>
+      <c r="I26" s="88">
+        <v>0</v>
+      </c>
+      <c r="J26" s="88">
+        <v>0</v>
+      </c>
+      <c r="K26" s="88">
+        <v>0</v>
+      </c>
+      <c r="L26" s="88">
+        <v>2</v>
+      </c>
+      <c r="M26" s="88">
+        <v>2</v>
+      </c>
+      <c r="N26" s="88">
+        <v>2</v>
+      </c>
+      <c r="O26" s="88">
+        <v>2</v>
+      </c>
+      <c r="P26" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="88">
+        <v>0</v>
+      </c>
+      <c r="R26" s="88">
+        <v>0</v>
+      </c>
+      <c r="S26" s="88">
+        <v>2</v>
+      </c>
+      <c r="T26" s="88">
+        <v>2</v>
+      </c>
+      <c r="U26" s="88">
+        <v>2</v>
+      </c>
+      <c r="V26" s="88">
+        <v>2</v>
+      </c>
+      <c r="W26" s="88">
+        <v>0</v>
+      </c>
+      <c r="X26" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="88">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="88">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="88">
         <v>2</v>
       </c>
     </row>
@@ -18838,88 +18846,88 @@
       <c r="A27" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="89">
-        <v>0</v>
-      </c>
-      <c r="C27" s="89">
-        <v>0</v>
-      </c>
-      <c r="D27" s="89">
-        <v>0</v>
-      </c>
-      <c r="E27" s="89">
-        <v>0</v>
-      </c>
-      <c r="F27" s="89">
-        <v>3</v>
-      </c>
-      <c r="G27" s="89">
-        <v>3</v>
-      </c>
-      <c r="H27" s="89">
-        <v>3</v>
-      </c>
-      <c r="I27" s="89">
-        <v>0</v>
-      </c>
-      <c r="J27" s="89">
-        <v>0</v>
-      </c>
-      <c r="K27" s="89">
-        <v>0</v>
-      </c>
-      <c r="L27" s="89">
-        <v>3</v>
-      </c>
-      <c r="M27" s="89">
-        <v>3</v>
-      </c>
-      <c r="N27" s="89">
-        <v>3</v>
-      </c>
-      <c r="O27" s="89">
-        <v>3</v>
-      </c>
-      <c r="P27" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="89">
-        <v>0</v>
-      </c>
-      <c r="R27" s="89">
-        <v>0</v>
-      </c>
-      <c r="S27" s="89">
-        <v>3</v>
-      </c>
-      <c r="T27" s="89">
-        <v>3</v>
-      </c>
-      <c r="U27" s="89">
-        <v>3</v>
-      </c>
-      <c r="V27" s="89">
-        <v>3</v>
-      </c>
-      <c r="W27" s="89">
-        <v>0</v>
-      </c>
-      <c r="X27" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="89">
-        <v>3</v>
-      </c>
-      <c r="AA27" s="89">
-        <v>3</v>
-      </c>
-      <c r="AB27" s="89">
-        <v>3</v>
-      </c>
-      <c r="AC27" s="89">
+      <c r="B27" s="88">
+        <v>0</v>
+      </c>
+      <c r="C27" s="88">
+        <v>0</v>
+      </c>
+      <c r="D27" s="88">
+        <v>0</v>
+      </c>
+      <c r="E27" s="88">
+        <v>0</v>
+      </c>
+      <c r="F27" s="88">
+        <v>3</v>
+      </c>
+      <c r="G27" s="88">
+        <v>3</v>
+      </c>
+      <c r="H27" s="88">
+        <v>3</v>
+      </c>
+      <c r="I27" s="88">
+        <v>0</v>
+      </c>
+      <c r="J27" s="88">
+        <v>0</v>
+      </c>
+      <c r="K27" s="88">
+        <v>0</v>
+      </c>
+      <c r="L27" s="88">
+        <v>3</v>
+      </c>
+      <c r="M27" s="88">
+        <v>3</v>
+      </c>
+      <c r="N27" s="88">
+        <v>3</v>
+      </c>
+      <c r="O27" s="88">
+        <v>3</v>
+      </c>
+      <c r="P27" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="88">
+        <v>0</v>
+      </c>
+      <c r="R27" s="88">
+        <v>0</v>
+      </c>
+      <c r="S27" s="88">
+        <v>3</v>
+      </c>
+      <c r="T27" s="88">
+        <v>3</v>
+      </c>
+      <c r="U27" s="88">
+        <v>3</v>
+      </c>
+      <c r="V27" s="88">
+        <v>3</v>
+      </c>
+      <c r="W27" s="88">
+        <v>0</v>
+      </c>
+      <c r="X27" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="88">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="88">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="88">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="88">
         <v>3</v>
       </c>
     </row>
@@ -18927,88 +18935,88 @@
       <c r="A28" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="89">
-        <v>2</v>
-      </c>
-      <c r="C28" s="89">
-        <v>0</v>
-      </c>
-      <c r="D28" s="89">
-        <v>0</v>
-      </c>
-      <c r="E28" s="89">
-        <v>0</v>
-      </c>
-      <c r="F28" s="89">
-        <v>1</v>
-      </c>
-      <c r="G28" s="89">
-        <v>1</v>
-      </c>
-      <c r="H28" s="89">
-        <v>1</v>
-      </c>
-      <c r="I28" s="89">
-        <v>2</v>
-      </c>
-      <c r="J28" s="89">
-        <v>0</v>
-      </c>
-      <c r="K28" s="89">
-        <v>0</v>
-      </c>
-      <c r="L28" s="89">
-        <v>0</v>
-      </c>
-      <c r="M28" s="89">
-        <v>1</v>
-      </c>
-      <c r="N28" s="89">
-        <v>1</v>
-      </c>
-      <c r="O28" s="89">
-        <v>1</v>
-      </c>
-      <c r="P28" s="89">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="89">
-        <v>0</v>
-      </c>
-      <c r="R28" s="89">
-        <v>0</v>
-      </c>
-      <c r="S28" s="89">
-        <v>0</v>
-      </c>
-      <c r="T28" s="89">
-        <v>1</v>
-      </c>
-      <c r="U28" s="89">
-        <v>1</v>
-      </c>
-      <c r="V28" s="89">
-        <v>1</v>
-      </c>
-      <c r="W28" s="89">
-        <v>0</v>
-      </c>
-      <c r="X28" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="89">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="89">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="89">
+      <c r="B28" s="88">
+        <v>2</v>
+      </c>
+      <c r="C28" s="88">
+        <v>0</v>
+      </c>
+      <c r="D28" s="88">
+        <v>0</v>
+      </c>
+      <c r="E28" s="88">
+        <v>0</v>
+      </c>
+      <c r="F28" s="88">
+        <v>1</v>
+      </c>
+      <c r="G28" s="88">
+        <v>1</v>
+      </c>
+      <c r="H28" s="88">
+        <v>1</v>
+      </c>
+      <c r="I28" s="88">
+        <v>2</v>
+      </c>
+      <c r="J28" s="88">
+        <v>0</v>
+      </c>
+      <c r="K28" s="88">
+        <v>0</v>
+      </c>
+      <c r="L28" s="88">
+        <v>0</v>
+      </c>
+      <c r="M28" s="88">
+        <v>1</v>
+      </c>
+      <c r="N28" s="88">
+        <v>1</v>
+      </c>
+      <c r="O28" s="88">
+        <v>1</v>
+      </c>
+      <c r="P28" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="88">
+        <v>0</v>
+      </c>
+      <c r="R28" s="88">
+        <v>0</v>
+      </c>
+      <c r="S28" s="88">
+        <v>0</v>
+      </c>
+      <c r="T28" s="88">
+        <v>1</v>
+      </c>
+      <c r="U28" s="88">
+        <v>1</v>
+      </c>
+      <c r="V28" s="88">
+        <v>1</v>
+      </c>
+      <c r="W28" s="88">
+        <v>0</v>
+      </c>
+      <c r="X28" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="88">
         <v>1</v>
       </c>
     </row>
@@ -19016,88 +19024,88 @@
       <c r="A29" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="89">
-        <v>2</v>
-      </c>
-      <c r="C29" s="89">
-        <v>2</v>
-      </c>
-      <c r="D29" s="89">
-        <v>3</v>
-      </c>
-      <c r="E29" s="89">
-        <v>3</v>
-      </c>
-      <c r="F29" s="89">
-        <v>0</v>
-      </c>
-      <c r="G29" s="89">
-        <v>0</v>
-      </c>
-      <c r="H29" s="89">
-        <v>0</v>
-      </c>
-      <c r="I29" s="89">
-        <v>2</v>
-      </c>
-      <c r="J29" s="89">
-        <v>2</v>
-      </c>
-      <c r="K29" s="89">
-        <v>3</v>
-      </c>
-      <c r="L29" s="89">
-        <v>3</v>
-      </c>
-      <c r="M29" s="89">
-        <v>0</v>
-      </c>
-      <c r="N29" s="89">
-        <v>0</v>
-      </c>
-      <c r="O29" s="89">
-        <v>0</v>
-      </c>
-      <c r="P29" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="89">
-        <v>2</v>
-      </c>
-      <c r="R29" s="89">
-        <v>3</v>
-      </c>
-      <c r="S29" s="89">
-        <v>3</v>
-      </c>
-      <c r="T29" s="89">
-        <v>0</v>
-      </c>
-      <c r="U29" s="89">
-        <v>0</v>
-      </c>
-      <c r="V29" s="89">
-        <v>0</v>
-      </c>
-      <c r="W29" s="89">
-        <v>2</v>
-      </c>
-      <c r="X29" s="89">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="89">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="89">
-        <v>3</v>
-      </c>
-      <c r="AA29" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="89">
+      <c r="B29" s="88">
+        <v>2</v>
+      </c>
+      <c r="C29" s="88">
+        <v>2</v>
+      </c>
+      <c r="D29" s="88">
+        <v>3</v>
+      </c>
+      <c r="E29" s="88">
+        <v>3</v>
+      </c>
+      <c r="F29" s="88">
+        <v>0</v>
+      </c>
+      <c r="G29" s="88">
+        <v>0</v>
+      </c>
+      <c r="H29" s="88">
+        <v>0</v>
+      </c>
+      <c r="I29" s="88">
+        <v>2</v>
+      </c>
+      <c r="J29" s="88">
+        <v>2</v>
+      </c>
+      <c r="K29" s="88">
+        <v>3</v>
+      </c>
+      <c r="L29" s="88">
+        <v>3</v>
+      </c>
+      <c r="M29" s="88">
+        <v>0</v>
+      </c>
+      <c r="N29" s="88">
+        <v>0</v>
+      </c>
+      <c r="O29" s="88">
+        <v>0</v>
+      </c>
+      <c r="P29" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="88">
+        <v>2</v>
+      </c>
+      <c r="R29" s="88">
+        <v>3</v>
+      </c>
+      <c r="S29" s="88">
+        <v>3</v>
+      </c>
+      <c r="T29" s="88">
+        <v>0</v>
+      </c>
+      <c r="U29" s="88">
+        <v>0</v>
+      </c>
+      <c r="V29" s="88">
+        <v>0</v>
+      </c>
+      <c r="W29" s="88">
+        <v>2</v>
+      </c>
+      <c r="X29" s="88">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="88">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="88">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="88">
         <v>0</v>
       </c>
     </row>
@@ -19105,88 +19113,88 @@
       <c r="A30" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="89">
-        <v>3</v>
-      </c>
-      <c r="C30" s="89">
-        <v>3</v>
-      </c>
-      <c r="D30" s="89">
-        <v>0</v>
-      </c>
-      <c r="E30" s="89">
-        <v>0</v>
-      </c>
-      <c r="F30" s="89">
-        <v>2</v>
-      </c>
-      <c r="G30" s="89">
-        <v>2</v>
-      </c>
-      <c r="H30" s="89">
-        <v>2</v>
-      </c>
-      <c r="I30" s="89">
-        <v>3</v>
-      </c>
-      <c r="J30" s="89">
-        <v>3</v>
-      </c>
-      <c r="K30" s="89">
-        <v>0</v>
-      </c>
-      <c r="L30" s="89">
-        <v>0</v>
-      </c>
-      <c r="M30" s="89">
-        <v>2</v>
-      </c>
-      <c r="N30" s="89">
-        <v>2</v>
-      </c>
-      <c r="O30" s="89">
-        <v>2</v>
-      </c>
-      <c r="P30" s="89">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="89">
-        <v>3</v>
-      </c>
-      <c r="R30" s="89">
-        <v>0</v>
-      </c>
-      <c r="S30" s="89">
-        <v>0</v>
-      </c>
-      <c r="T30" s="89">
-        <v>2</v>
-      </c>
-      <c r="U30" s="89">
-        <v>2</v>
-      </c>
-      <c r="V30" s="89">
-        <v>2</v>
-      </c>
-      <c r="W30" s="89">
-        <v>3</v>
-      </c>
-      <c r="X30" s="89">
-        <v>3</v>
-      </c>
-      <c r="Y30" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="89">
-        <v>2</v>
-      </c>
-      <c r="AB30" s="89">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="89">
+      <c r="B30" s="88">
+        <v>3</v>
+      </c>
+      <c r="C30" s="88">
+        <v>3</v>
+      </c>
+      <c r="D30" s="88">
+        <v>0</v>
+      </c>
+      <c r="E30" s="88">
+        <v>0</v>
+      </c>
+      <c r="F30" s="88">
+        <v>2</v>
+      </c>
+      <c r="G30" s="88">
+        <v>2</v>
+      </c>
+      <c r="H30" s="88">
+        <v>2</v>
+      </c>
+      <c r="I30" s="88">
+        <v>3</v>
+      </c>
+      <c r="J30" s="88">
+        <v>3</v>
+      </c>
+      <c r="K30" s="88">
+        <v>0</v>
+      </c>
+      <c r="L30" s="88">
+        <v>0</v>
+      </c>
+      <c r="M30" s="88">
+        <v>2</v>
+      </c>
+      <c r="N30" s="88">
+        <v>2</v>
+      </c>
+      <c r="O30" s="88">
+        <v>2</v>
+      </c>
+      <c r="P30" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="88">
+        <v>3</v>
+      </c>
+      <c r="R30" s="88">
+        <v>0</v>
+      </c>
+      <c r="S30" s="88">
+        <v>0</v>
+      </c>
+      <c r="T30" s="88">
+        <v>2</v>
+      </c>
+      <c r="U30" s="88">
+        <v>2</v>
+      </c>
+      <c r="V30" s="88">
+        <v>2</v>
+      </c>
+      <c r="W30" s="88">
+        <v>3</v>
+      </c>
+      <c r="X30" s="88">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="88">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="88">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="88">
         <v>2</v>
       </c>
     </row>
@@ -19194,88 +19202,88 @@
       <c r="A31" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="89">
-        <v>0</v>
-      </c>
-      <c r="C31" s="89">
-        <v>0</v>
-      </c>
-      <c r="D31" s="89">
-        <v>2</v>
-      </c>
-      <c r="E31" s="89">
-        <v>2</v>
-      </c>
-      <c r="F31" s="89">
-        <v>3</v>
-      </c>
-      <c r="G31" s="89">
-        <v>2</v>
-      </c>
-      <c r="H31" s="89">
-        <v>0</v>
-      </c>
-      <c r="I31" s="89">
-        <v>0</v>
-      </c>
-      <c r="J31" s="89">
-        <v>0</v>
-      </c>
-      <c r="K31" s="89">
-        <v>0</v>
-      </c>
-      <c r="L31" s="89">
-        <v>2</v>
-      </c>
-      <c r="M31" s="89">
-        <v>3</v>
-      </c>
-      <c r="N31" s="89">
-        <v>2</v>
-      </c>
-      <c r="O31" s="89">
-        <v>0</v>
-      </c>
-      <c r="P31" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="89">
-        <v>0</v>
-      </c>
-      <c r="R31" s="89">
-        <v>2</v>
-      </c>
-      <c r="S31" s="89">
-        <v>2</v>
-      </c>
-      <c r="T31" s="89">
-        <v>3</v>
-      </c>
-      <c r="U31" s="89">
-        <v>2</v>
-      </c>
-      <c r="V31" s="89">
-        <v>0</v>
-      </c>
-      <c r="W31" s="89">
-        <v>0</v>
-      </c>
-      <c r="X31" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="89">
-        <v>2</v>
-      </c>
-      <c r="Z31" s="89">
-        <v>2</v>
-      </c>
-      <c r="AA31" s="89">
-        <v>3</v>
-      </c>
-      <c r="AB31" s="89">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="89">
+      <c r="B31" s="88">
+        <v>0</v>
+      </c>
+      <c r="C31" s="88">
+        <v>0</v>
+      </c>
+      <c r="D31" s="88">
+        <v>2</v>
+      </c>
+      <c r="E31" s="88">
+        <v>2</v>
+      </c>
+      <c r="F31" s="88">
+        <v>3</v>
+      </c>
+      <c r="G31" s="88">
+        <v>2</v>
+      </c>
+      <c r="H31" s="88">
+        <v>0</v>
+      </c>
+      <c r="I31" s="88">
+        <v>0</v>
+      </c>
+      <c r="J31" s="88">
+        <v>0</v>
+      </c>
+      <c r="K31" s="88">
+        <v>0</v>
+      </c>
+      <c r="L31" s="88">
+        <v>2</v>
+      </c>
+      <c r="M31" s="88">
+        <v>3</v>
+      </c>
+      <c r="N31" s="88">
+        <v>2</v>
+      </c>
+      <c r="O31" s="88">
+        <v>0</v>
+      </c>
+      <c r="P31" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="88">
+        <v>0</v>
+      </c>
+      <c r="R31" s="88">
+        <v>2</v>
+      </c>
+      <c r="S31" s="88">
+        <v>2</v>
+      </c>
+      <c r="T31" s="88">
+        <v>3</v>
+      </c>
+      <c r="U31" s="88">
+        <v>2</v>
+      </c>
+      <c r="V31" s="88">
+        <v>0</v>
+      </c>
+      <c r="W31" s="88">
+        <v>0</v>
+      </c>
+      <c r="X31" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="88">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="88">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="88">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="88">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="88">
         <v>0</v>
       </c>
     </row>
@@ -19283,88 +19291,88 @@
       <c r="A32" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="89">
-        <v>0</v>
-      </c>
-      <c r="C32" s="89">
-        <v>0</v>
-      </c>
-      <c r="D32" s="89">
-        <v>0</v>
-      </c>
-      <c r="E32" s="89">
-        <v>3</v>
-      </c>
-      <c r="F32" s="89">
-        <v>3</v>
-      </c>
-      <c r="G32" s="89">
-        <v>3</v>
-      </c>
-      <c r="H32" s="89">
-        <v>3</v>
-      </c>
-      <c r="I32" s="89">
-        <v>0</v>
-      </c>
-      <c r="J32" s="89">
-        <v>0</v>
-      </c>
-      <c r="K32" s="89">
-        <v>0</v>
-      </c>
-      <c r="L32" s="89">
-        <v>0</v>
-      </c>
-      <c r="M32" s="89">
-        <v>3</v>
-      </c>
-      <c r="N32" s="89">
-        <v>3</v>
-      </c>
-      <c r="O32" s="89">
-        <v>3</v>
-      </c>
-      <c r="P32" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="89">
-        <v>0</v>
-      </c>
-      <c r="R32" s="89">
-        <v>0</v>
-      </c>
-      <c r="S32" s="89">
-        <v>3</v>
-      </c>
-      <c r="T32" s="89">
-        <v>3</v>
-      </c>
-      <c r="U32" s="89">
-        <v>3</v>
-      </c>
-      <c r="V32" s="89">
-        <v>3</v>
-      </c>
-      <c r="W32" s="89">
-        <v>0</v>
-      </c>
-      <c r="X32" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="89">
-        <v>3</v>
-      </c>
-      <c r="AA32" s="89">
-        <v>3</v>
-      </c>
-      <c r="AB32" s="89">
-        <v>3</v>
-      </c>
-      <c r="AC32" s="89">
+      <c r="B32" s="88">
+        <v>0</v>
+      </c>
+      <c r="C32" s="88">
+        <v>0</v>
+      </c>
+      <c r="D32" s="88">
+        <v>0</v>
+      </c>
+      <c r="E32" s="88">
+        <v>3</v>
+      </c>
+      <c r="F32" s="88">
+        <v>3</v>
+      </c>
+      <c r="G32" s="88">
+        <v>3</v>
+      </c>
+      <c r="H32" s="88">
+        <v>3</v>
+      </c>
+      <c r="I32" s="88">
+        <v>0</v>
+      </c>
+      <c r="J32" s="88">
+        <v>0</v>
+      </c>
+      <c r="K32" s="88">
+        <v>0</v>
+      </c>
+      <c r="L32" s="88">
+        <v>0</v>
+      </c>
+      <c r="M32" s="88">
+        <v>3</v>
+      </c>
+      <c r="N32" s="88">
+        <v>3</v>
+      </c>
+      <c r="O32" s="88">
+        <v>3</v>
+      </c>
+      <c r="P32" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="88">
+        <v>0</v>
+      </c>
+      <c r="R32" s="88">
+        <v>0</v>
+      </c>
+      <c r="S32" s="88">
+        <v>3</v>
+      </c>
+      <c r="T32" s="88">
+        <v>3</v>
+      </c>
+      <c r="U32" s="88">
+        <v>3</v>
+      </c>
+      <c r="V32" s="88">
+        <v>3</v>
+      </c>
+      <c r="W32" s="88">
+        <v>0</v>
+      </c>
+      <c r="X32" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="88">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="88">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="88">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="88">
         <v>3</v>
       </c>
     </row>
@@ -19372,88 +19380,88 @@
       <c r="A33" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="89">
-        <v>3</v>
-      </c>
-      <c r="C33" s="89">
-        <v>3</v>
-      </c>
-      <c r="D33" s="89">
-        <v>0</v>
-      </c>
-      <c r="E33" s="89">
-        <v>0</v>
-      </c>
-      <c r="F33" s="89">
-        <v>2</v>
-      </c>
-      <c r="G33" s="89">
-        <v>2</v>
-      </c>
-      <c r="H33" s="89">
-        <v>2</v>
-      </c>
-      <c r="I33" s="89">
-        <v>3</v>
-      </c>
-      <c r="J33" s="89">
-        <v>3</v>
-      </c>
-      <c r="K33" s="89">
-        <v>0</v>
-      </c>
-      <c r="L33" s="89">
-        <v>0</v>
-      </c>
-      <c r="M33" s="89">
-        <v>2</v>
-      </c>
-      <c r="N33" s="89">
-        <v>2</v>
-      </c>
-      <c r="O33" s="89">
-        <v>2</v>
-      </c>
-      <c r="P33" s="89">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="89">
-        <v>3</v>
-      </c>
-      <c r="R33" s="89">
-        <v>0</v>
-      </c>
-      <c r="S33" s="89">
-        <v>0</v>
-      </c>
-      <c r="T33" s="89">
-        <v>2</v>
-      </c>
-      <c r="U33" s="89">
-        <v>2</v>
-      </c>
-      <c r="V33" s="89">
-        <v>2</v>
-      </c>
-      <c r="W33" s="89">
-        <v>3</v>
-      </c>
-      <c r="X33" s="89">
-        <v>3</v>
-      </c>
-      <c r="Y33" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="89">
-        <v>2</v>
-      </c>
-      <c r="AB33" s="89">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="89">
+      <c r="B33" s="88">
+        <v>3</v>
+      </c>
+      <c r="C33" s="88">
+        <v>3</v>
+      </c>
+      <c r="D33" s="88">
+        <v>0</v>
+      </c>
+      <c r="E33" s="88">
+        <v>0</v>
+      </c>
+      <c r="F33" s="88">
+        <v>2</v>
+      </c>
+      <c r="G33" s="88">
+        <v>2</v>
+      </c>
+      <c r="H33" s="88">
+        <v>2</v>
+      </c>
+      <c r="I33" s="88">
+        <v>3</v>
+      </c>
+      <c r="J33" s="88">
+        <v>3</v>
+      </c>
+      <c r="K33" s="88">
+        <v>0</v>
+      </c>
+      <c r="L33" s="88">
+        <v>0</v>
+      </c>
+      <c r="M33" s="88">
+        <v>2</v>
+      </c>
+      <c r="N33" s="88">
+        <v>2</v>
+      </c>
+      <c r="O33" s="88">
+        <v>2</v>
+      </c>
+      <c r="P33" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="88">
+        <v>3</v>
+      </c>
+      <c r="R33" s="88">
+        <v>0</v>
+      </c>
+      <c r="S33" s="88">
+        <v>0</v>
+      </c>
+      <c r="T33" s="88">
+        <v>2</v>
+      </c>
+      <c r="U33" s="88">
+        <v>2</v>
+      </c>
+      <c r="V33" s="88">
+        <v>2</v>
+      </c>
+      <c r="W33" s="88">
+        <v>3</v>
+      </c>
+      <c r="X33" s="88">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="88">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="88">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="88">
         <v>2</v>
       </c>
     </row>

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789E64D-B211-40F4-B4B8-4E4C20DE2616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360CE5CA-3F17-4D01-8921-A9C7F4739EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="0" windowWidth="12610" windowHeight="10170" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="45" r:id="rId1"/>
@@ -2468,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B96D7-1082-46EC-950D-18F4EAFC725D}">
   <dimension ref="A1:EM32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A32"/>
     </sheetView>
   </sheetViews>
@@ -16275,8 +16275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16513,8 +16513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21585,8 +21585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22833,8 +22833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23348,7 +23348,7 @@
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AEBBE-6D88-4360-8402-4DFC034C5B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8D08D4-EE48-4C74-989A-92852618BD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="45" r:id="rId1"/>
@@ -3006,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E76B91-8317-41E8-8E1D-428B8605D1B3}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -6752,7 +6752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B96D7-1082-46EC-950D-18F4EAFC725D}">
   <dimension ref="A1:EM32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -72118,7 +72118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362CF164-9646-4195-8F11-C1D302274F75}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E32D073-400D-4FBF-8E14-B3EA1FEA25EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4B638-7CA5-467E-8E13-02DCBF635E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="45" r:id="rId1"/>
@@ -1170,6 +1170,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49375,7 +49376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3942FDD-F020-4D16-AABA-8B9C09A38A1A}">
   <dimension ref="A1:EM46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -69455,7 +69456,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView zoomScale="61" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69485,10 +69486,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B4" s="15">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -70152,8 +70153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC3AD49-0CF6-484C-9641-8D5EBDCE7408}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="61" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A10" zoomScale="61" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -70183,10 +70184,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B4" s="15">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -70389,7 +70390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4B638-7CA5-467E-8E13-02DCBF635E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC6F534-9B13-4384-8AED-A12EFCD810B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="45" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="324">
   <si>
     <t>University Hospital Case Study</t>
   </si>
@@ -1024,9 +1024,6 @@
   </si>
   <si>
     <t>day 28</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>day 30</t>
@@ -3060,8 +3057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E76B91-8317-41E8-8E1D-428B8605D1B3}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AC34"/>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3181,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3202,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -3219,7 +3216,7 @@
       <c r="U2" s="113">
         <v>0</v>
       </c>
-      <c r="V2" s="114">
+      <c r="V2" s="113">
         <v>0</v>
       </c>
       <c r="W2" s="113">
@@ -3240,7 +3237,7 @@
       <c r="AB2" s="113">
         <v>0</v>
       </c>
-      <c r="AC2" s="114">
+      <c r="AC2" s="113">
         <v>0</v>
       </c>
     </row>
@@ -3397,7 +3394,7 @@
       <c r="U4" s="113">
         <v>3</v>
       </c>
-      <c r="V4" s="114">
+      <c r="V4" s="113">
         <v>3</v>
       </c>
       <c r="W4" s="113">
@@ -3418,7 +3415,7 @@
       <c r="AB4" s="113">
         <v>3</v>
       </c>
-      <c r="AC4" s="114">
+      <c r="AC4" s="113">
         <v>3</v>
       </c>
     </row>
@@ -3486,7 +3483,7 @@
       <c r="U5" s="113">
         <v>4</v>
       </c>
-      <c r="V5" s="114">
+      <c r="V5" s="113">
         <v>4</v>
       </c>
       <c r="W5" s="113">
@@ -3507,7 +3504,7 @@
       <c r="AB5" s="113">
         <v>4</v>
       </c>
-      <c r="AC5" s="114">
+      <c r="AC5" s="113">
         <v>4</v>
       </c>
     </row>
@@ -3567,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="S6" s="113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" s="114">
         <v>3</v>
@@ -3575,28 +3572,28 @@
       <c r="U6" s="113">
         <v>0</v>
       </c>
-      <c r="V6" s="114">
+      <c r="V6" s="113">
         <v>0</v>
       </c>
       <c r="W6" s="113">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z6" s="113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="113">
         <v>0</v>
       </c>
-      <c r="AC6" s="114">
+      <c r="AC6" s="113">
         <v>0</v>
       </c>
     </row>
@@ -3629,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" s="114">
         <v>4</v>
@@ -3650,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7">
         <v>3</v>
       </c>
       <c r="S7" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7" s="114">
         <v>4</v>
@@ -3664,20 +3661,20 @@
       <c r="U7" s="113">
         <v>0</v>
       </c>
-      <c r="V7" s="114">
+      <c r="V7" s="113">
         <v>0</v>
       </c>
       <c r="W7" s="113">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>3</v>
       </c>
       <c r="Z7" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="114">
         <v>4</v>
@@ -3685,7 +3682,7 @@
       <c r="AB7" s="113">
         <v>0</v>
       </c>
-      <c r="AC7" s="114">
+      <c r="AC7" s="113">
         <v>0</v>
       </c>
     </row>
@@ -3694,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3724,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" s="114">
         <v>1</v>
@@ -3745,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T8" s="114">
         <v>1</v>
@@ -3753,20 +3750,20 @@
       <c r="U8" s="113">
         <v>0</v>
       </c>
-      <c r="V8" s="114">
+      <c r="V8" s="113">
         <v>0</v>
       </c>
       <c r="W8" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA8" s="114">
         <v>1</v>
@@ -3774,7 +3771,7 @@
       <c r="AB8" s="113">
         <v>0</v>
       </c>
-      <c r="AC8" s="114">
+      <c r="AC8" s="113">
         <v>0</v>
       </c>
     </row>
@@ -3807,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3842,7 +3839,7 @@
       <c r="U9" s="113">
         <v>0</v>
       </c>
-      <c r="V9" s="114">
+      <c r="V9" s="113">
         <v>0</v>
       </c>
       <c r="W9" s="113">
@@ -3863,7 +3860,7 @@
       <c r="AB9" s="113">
         <v>0</v>
       </c>
-      <c r="AC9" s="114">
+      <c r="AC9" s="113">
         <v>0</v>
       </c>
     </row>
@@ -3899,7 +3896,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="120">
         <v>4</v>
@@ -3917,10 +3914,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R10" s="121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" s="120">
         <v>4</v>
@@ -3931,7 +3928,7 @@
       <c r="U10" s="120">
         <v>0</v>
       </c>
-      <c r="V10" s="122">
+      <c r="V10" s="120">
         <v>0</v>
       </c>
       <c r="W10" s="120">
@@ -3952,7 +3949,7 @@
       <c r="AB10" s="120">
         <v>0</v>
       </c>
-      <c r="AC10" s="122">
+      <c r="AC10" s="120">
         <v>0</v>
       </c>
     </row>
@@ -3976,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="113">
         <v>3</v>
@@ -4086,10 +4083,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12" s="113">
         <v>3</v>
@@ -4107,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" s="113">
         <v>3</v>
@@ -4128,10 +4125,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC12" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
@@ -4148,7 +4145,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="114">
         <v>0</v>
@@ -4160,16 +4157,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="114">
         <v>0</v>
@@ -4181,16 +4178,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="114">
         <v>0</v>
@@ -4202,16 +4199,16 @@
         <v>0</v>
       </c>
       <c r="W13" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="114">
         <v>0</v>
@@ -4237,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="114">
         <v>0</v>
@@ -4249,16 +4246,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="114">
         <v>0</v>
@@ -4270,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4279,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14" s="114">
         <v>0</v>
@@ -4291,16 +4288,16 @@
         <v>0</v>
       </c>
       <c r="W14" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y14">
         <v>3</v>
       </c>
       <c r="Z14" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA14" s="114">
         <v>0</v>
@@ -4326,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="114">
         <v>0</v>
@@ -4338,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -4347,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="114">
         <v>0</v>
@@ -4359,16 +4356,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="114">
         <v>0</v>
@@ -4380,16 +4377,16 @@
         <v>0</v>
       </c>
       <c r="W15" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="114">
         <v>0</v>
@@ -4694,10 +4691,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4709,16 +4706,16 @@
         <v>0</v>
       </c>
       <c r="N19" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -4736,10 +4733,10 @@
         <v>3</v>
       </c>
       <c r="W19" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -4783,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4804,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4819,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X20">
         <v>1</v>
@@ -4872,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -4893,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -4914,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -4929,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="AB21" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
@@ -4961,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -4988,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S22" s="113">
         <v>0</v>
@@ -5003,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="113">
         <v>0</v>
@@ -5127,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="114">
         <v>0</v>
@@ -5148,16 +5145,16 @@
         <v>3</v>
       </c>
       <c r="L24" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="114">
         <v>0</v>
       </c>
       <c r="N24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P24" s="113">
         <v>1</v>
@@ -5169,16 +5166,16 @@
         <v>3</v>
       </c>
       <c r="S24" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="114">
         <v>0</v>
       </c>
       <c r="U24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W24" s="113">
         <v>1</v>
@@ -5190,16 +5187,16 @@
         <v>3</v>
       </c>
       <c r="Z24" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="114">
         <v>0</v>
       </c>
       <c r="AB24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
@@ -5507,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28" s="113">
         <v>4</v>
@@ -5593,10 +5590,10 @@
         <v>3</v>
       </c>
       <c r="L29" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" s="113">
         <v>0</v>
@@ -5614,10 +5611,10 @@
         <v>3</v>
       </c>
       <c r="S29" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T29" s="114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U29" s="113">
         <v>0</v>
@@ -5632,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z29" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="113">
         <v>0</v>
@@ -5804,13 +5801,13 @@
         <v>0</v>
       </c>
       <c r="W31" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z31" s="113">
         <v>4</v>
@@ -5819,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="AB31" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
@@ -5872,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" s="113">
         <v>4</v>
@@ -5899,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z32" s="113">
         <v>4</v>
@@ -6056,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" s="120">
         <v>3</v>
@@ -6101,8 +6098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E1324D-8A3F-42CD-9130-BAF1DF84B0A0}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I13"/>
+    <sheetView topLeftCell="L30" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AC47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49377,7 +49374,7 @@
   <dimension ref="A1:EM46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A46" sqref="A1:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69218,7 +69215,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView zoomScale="61" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69380,7 +69377,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>316</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -69456,7 +69453,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView zoomScale="61" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69618,7 +69615,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>316</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -69917,7 +69914,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView zoomScale="61" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -70079,7 +70076,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>316</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -70153,8 +70150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC3AD49-0CF6-484C-9641-8D5EBDCE7408}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="61" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -70316,7 +70313,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>316</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -70390,7 +70387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
@@ -75476,8 +75473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362CF164-9646-4195-8F11-C1D302274F75}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="41" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -75594,7 +75591,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -75615,7 +75612,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -75632,7 +75629,7 @@
       <c r="U2" s="113">
         <v>0</v>
       </c>
-      <c r="V2" s="114">
+      <c r="V2" s="113">
         <v>0</v>
       </c>
       <c r="W2" s="113">
@@ -75653,7 +75650,7 @@
       <c r="AB2" s="113">
         <v>0</v>
       </c>
-      <c r="AC2" s="114">
+      <c r="AC2" s="113">
         <v>0</v>
       </c>
     </row>
@@ -75810,7 +75807,7 @@
       <c r="U4" s="113">
         <v>3</v>
       </c>
-      <c r="V4" s="114">
+      <c r="V4" s="113">
         <v>3</v>
       </c>
       <c r="W4" s="113">
@@ -75831,7 +75828,7 @@
       <c r="AB4" s="113">
         <v>3</v>
       </c>
-      <c r="AC4" s="114">
+      <c r="AC4" s="113">
         <v>3</v>
       </c>
     </row>
@@ -75899,7 +75896,7 @@
       <c r="U5" s="113">
         <v>4</v>
       </c>
-      <c r="V5" s="114">
+      <c r="V5" s="113">
         <v>4</v>
       </c>
       <c r="W5" s="113">
@@ -75920,7 +75917,7 @@
       <c r="AB5" s="113">
         <v>4</v>
       </c>
-      <c r="AC5" s="114">
+      <c r="AC5" s="113">
         <v>4</v>
       </c>
     </row>
@@ -75980,7 +75977,7 @@
         <v>4</v>
       </c>
       <c r="S6" s="113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" s="114">
         <v>3</v>
@@ -75988,28 +75985,28 @@
       <c r="U6" s="113">
         <v>0</v>
       </c>
-      <c r="V6" s="114">
+      <c r="V6" s="113">
         <v>0</v>
       </c>
       <c r="W6" s="113">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z6" s="113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="113">
         <v>0</v>
       </c>
-      <c r="AC6" s="114">
+      <c r="AC6" s="113">
         <v>0</v>
       </c>
     </row>
@@ -76042,13 +76039,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" s="114">
         <v>4</v>
@@ -76063,13 +76060,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7">
         <v>3</v>
       </c>
       <c r="S7" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7" s="114">
         <v>4</v>
@@ -76077,20 +76074,20 @@
       <c r="U7" s="113">
         <v>0</v>
       </c>
-      <c r="V7" s="114">
+      <c r="V7" s="113">
         <v>0</v>
       </c>
       <c r="W7" s="113">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>3</v>
       </c>
       <c r="Z7" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="114">
         <v>4</v>
@@ -76098,7 +76095,7 @@
       <c r="AB7" s="113">
         <v>0</v>
       </c>
-      <c r="AC7" s="114">
+      <c r="AC7" s="113">
         <v>0</v>
       </c>
     </row>
@@ -76107,7 +76104,7 @@
         <v>215</v>
       </c>
       <c r="B8" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -76137,7 +76134,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" s="114">
         <v>1</v>
@@ -76158,7 +76155,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T8" s="114">
         <v>1</v>
@@ -76166,20 +76163,20 @@
       <c r="U8" s="113">
         <v>0</v>
       </c>
-      <c r="V8" s="114">
+      <c r="V8" s="113">
         <v>0</v>
       </c>
       <c r="W8" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA8" s="114">
         <v>1</v>
@@ -76187,7 +76184,7 @@
       <c r="AB8" s="113">
         <v>0</v>
       </c>
-      <c r="AC8" s="114">
+      <c r="AC8" s="113">
         <v>0</v>
       </c>
     </row>
@@ -76220,7 +76217,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -76255,7 +76252,7 @@
       <c r="U9" s="113">
         <v>0</v>
       </c>
-      <c r="V9" s="114">
+      <c r="V9" s="113">
         <v>0</v>
       </c>
       <c r="W9" s="113">
@@ -76276,7 +76273,7 @@
       <c r="AB9" s="113">
         <v>0</v>
       </c>
-      <c r="AC9" s="114">
+      <c r="AC9" s="113">
         <v>0</v>
       </c>
     </row>
@@ -76312,7 +76309,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="120">
         <v>4</v>
@@ -76330,10 +76327,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R10" s="121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" s="120">
         <v>4</v>
@@ -76344,7 +76341,7 @@
       <c r="U10" s="120">
         <v>0</v>
       </c>
-      <c r="V10" s="122">
+      <c r="V10" s="120">
         <v>0</v>
       </c>
       <c r="W10" s="120">
@@ -76365,7 +76362,7 @@
       <c r="AB10" s="120">
         <v>0</v>
       </c>
-      <c r="AC10" s="122">
+      <c r="AC10" s="120">
         <v>0</v>
       </c>
     </row>
@@ -76389,10 +76386,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="113">
         <v>3</v>
@@ -76499,10 +76496,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12" s="113">
         <v>3</v>
@@ -76520,10 +76517,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" s="113">
         <v>3</v>
@@ -76541,10 +76538,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC12" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
@@ -76561,7 +76558,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="114">
         <v>0</v>
@@ -76573,16 +76570,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="114">
         <v>0</v>
@@ -76594,16 +76591,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="114">
         <v>0</v>
@@ -76615,16 +76612,16 @@
         <v>0</v>
       </c>
       <c r="W13" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="114">
         <v>0</v>
@@ -76650,7 +76647,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="114">
         <v>0</v>
@@ -76662,16 +76659,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="114">
         <v>0</v>
@@ -76683,7 +76680,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -76692,7 +76689,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14" s="114">
         <v>0</v>
@@ -76704,16 +76701,16 @@
         <v>0</v>
       </c>
       <c r="W14" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y14">
         <v>3</v>
       </c>
       <c r="Z14" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA14" s="114">
         <v>0</v>
@@ -76739,7 +76736,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="114">
         <v>0</v>
@@ -76751,7 +76748,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -76760,7 +76757,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="114">
         <v>0</v>
@@ -76772,16 +76769,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="114">
         <v>0</v>
@@ -76793,16 +76790,16 @@
         <v>0</v>
       </c>
       <c r="W15" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="114">
         <v>0</v>
@@ -77107,10 +77104,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -77122,16 +77119,16 @@
         <v>0</v>
       </c>
       <c r="N19" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -77149,10 +77146,10 @@
         <v>3</v>
       </c>
       <c r="W19" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -77196,7 +77193,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -77217,7 +77214,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -77232,13 +77229,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X20">
         <v>1</v>
@@ -77285,7 +77282,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -77306,7 +77303,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -77327,7 +77324,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -77342,10 +77339,10 @@
         <v>0</v>
       </c>
       <c r="AB21" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
@@ -77374,7 +77371,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -77401,7 +77398,7 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S22" s="113">
         <v>0</v>
@@ -77416,13 +77413,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="113">
         <v>0</v>
@@ -77540,7 +77537,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="114">
         <v>0</v>
@@ -77561,16 +77558,16 @@
         <v>3</v>
       </c>
       <c r="L24" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="114">
         <v>0</v>
       </c>
       <c r="N24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P24" s="113">
         <v>1</v>
@@ -77582,16 +77579,16 @@
         <v>3</v>
       </c>
       <c r="S24" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="114">
         <v>0</v>
       </c>
       <c r="U24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W24" s="113">
         <v>1</v>
@@ -77603,16 +77600,16 @@
         <v>3</v>
       </c>
       <c r="Z24" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="114">
         <v>0</v>
       </c>
       <c r="AB24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
@@ -77920,7 +77917,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28" s="113">
         <v>4</v>
@@ -78006,10 +78003,10 @@
         <v>3</v>
       </c>
       <c r="L29" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" s="113">
         <v>0</v>
@@ -78027,10 +78024,10 @@
         <v>3</v>
       </c>
       <c r="S29" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T29" s="114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U29" s="113">
         <v>0</v>
@@ -78045,13 +78042,13 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z29" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="113">
         <v>0</v>
@@ -78217,13 +78214,13 @@
         <v>0</v>
       </c>
       <c r="W31" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z31" s="113">
         <v>4</v>
@@ -78232,10 +78229,10 @@
         <v>0</v>
       </c>
       <c r="AB31" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
@@ -78285,13 +78282,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" s="113">
         <v>4</v>
@@ -78312,7 +78309,7 @@
         <v>1</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z32" s="113">
         <v>4</v>
@@ -78469,7 +78466,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" s="120">
         <v>3</v>
@@ -78515,7 +78512,7 @@
   <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -78579,31 +78576,31 @@
         <v>306</v>
       </c>
       <c r="U1" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="V1" s="88" t="s">
         <v>317</v>
       </c>
-      <c r="V1" s="88" t="s">
+      <c r="W1" s="88" t="s">
         <v>318</v>
       </c>
-      <c r="W1" s="88" t="s">
+      <c r="X1" s="88" t="s">
         <v>319</v>
       </c>
-      <c r="X1" s="88" t="s">
+      <c r="Y1" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z1" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="Y1" s="88" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z1" s="88" t="s">
+      <c r="AA1" s="88" t="s">
         <v>321</v>
       </c>
-      <c r="AA1" s="88" t="s">
+      <c r="AB1" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="AB1" s="88" t="s">
+      <c r="AC1" s="88" t="s">
         <v>323</v>
-      </c>
-      <c r="AC1" s="88" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -78700,88 +78697,88 @@
         <v>243</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U3" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
@@ -78792,85 +78789,85 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" s="114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" s="114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>4</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="114">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
@@ -78878,88 +78875,88 @@
         <v>245</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V5" s="114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="114">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
@@ -78967,19 +78964,19 @@
         <v>246</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="113">
         <v>0</v>
@@ -78988,19 +78985,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" s="113">
         <v>0</v>
@@ -79009,19 +79006,19 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U6" s="113">
         <v>0</v>
@@ -79030,19 +79027,19 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="113">
         <v>0</v>
@@ -79059,85 +79056,85 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" s="113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O7" s="114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U7" s="113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V7" s="114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="114">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
@@ -79151,43 +79148,43 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -79196,19 +79193,19 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U8" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V8" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -79217,16 +79214,16 @@
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB8" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC8" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
@@ -79234,19 +79231,19 @@
         <v>249</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="113">
         <v>0</v>
@@ -79255,19 +79252,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="113">
         <v>0</v>
@@ -79276,19 +79273,19 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="113">
         <v>0</v>
@@ -79297,19 +79294,19 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="113">
         <v>0</v>
@@ -79323,7 +79320,7 @@
         <v>250</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -79344,7 +79341,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -79353,7 +79350,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -79365,10 +79362,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>3</v>
@@ -79386,7 +79383,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -79395,7 +79392,7 @@
         <v>3</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -79412,88 +79409,88 @@
         <v>251</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
@@ -79501,10 +79498,10 @@
         <v>252</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -79513,76 +79510,76 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" s="114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12" s="114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="114">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
@@ -79590,7 +79587,7 @@
         <v>253</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -79617,7 +79614,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -79632,13 +79629,13 @@
         <v>3</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -79653,13 +79650,13 @@
         <v>3</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -79685,13 +79682,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="113">
         <v>3</v>
@@ -79700,19 +79697,19 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="113">
         <v>3</v>
@@ -79733,7 +79730,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U14" s="113">
         <v>3</v>
@@ -79748,13 +79745,13 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB14" s="113">
         <v>3</v>
@@ -79768,88 +79765,88 @@
         <v>255</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC15" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
@@ -79860,43 +79857,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -79905,40 +79902,40 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
@@ -79946,88 +79943,88 @@
         <v>257</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V17" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
@@ -80035,70 +80032,70 @@
         <v>258</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U18" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V18" s="114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -80107,16 +80104,16 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="114">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
@@ -80124,7 +80121,7 @@
         <v>259</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -80133,10 +80130,10 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="113">
         <v>0</v>
@@ -80145,7 +80142,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -80154,10 +80151,10 @@
         <v>3</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" s="113">
         <v>0</v>
@@ -80166,7 +80163,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -80175,10 +80172,10 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U19" s="113">
         <v>0</v>
@@ -80187,19 +80184,19 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB19" s="113">
         <v>0</v>
@@ -80219,19 +80216,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -80240,19 +80237,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -80261,19 +80258,19 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U20" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>1</v>
@@ -80282,19 +80279,19 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
@@ -80302,16 +80299,16 @@
         <v>261</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -80320,19 +80317,19 @@
         <v>1</v>
       </c>
       <c r="H21" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -80341,19 +80338,19 @@
         <v>1</v>
       </c>
       <c r="O21" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -80362,19 +80359,19 @@
         <v>1</v>
       </c>
       <c r="V21" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>1</v>
@@ -80383,7 +80380,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
@@ -80391,85 +80388,85 @@
         <v>262</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="114">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="114">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="114">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="114">
         <v>0</v>
@@ -80480,85 +80477,85 @@
         <v>263</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="114">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="114">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="114">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="114">
         <v>0</v>
@@ -80569,25 +80566,25 @@
         <v>264</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -80596,61 +80593,61 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U24" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
@@ -80670,16 +80667,16 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -80691,16 +80688,16 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O25" s="114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -80712,13 +80709,13 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U25" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V25" s="114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W25">
         <v>4</v>
@@ -80733,13 +80730,13 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB25" s="113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC25" s="114">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
@@ -80789,7 +80786,7 @@
         <v>4</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -80822,7 +80819,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB26" s="113">
         <v>4</v>
@@ -80899,7 +80896,7 @@
         <v>4</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -80911,7 +80908,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="113">
         <v>4</v>
@@ -80967,7 +80964,7 @@
         <v>4</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -80988,7 +80985,7 @@
         <v>4</v>
       </c>
       <c r="W28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -81014,88 +81011,88 @@
         <v>269</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" s="113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U29" s="113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V29" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB29" s="113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC29" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
@@ -81103,88 +81100,88 @@
         <v>270</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U30" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V30" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB30" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC30" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
@@ -81195,85 +81192,85 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>3</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>3</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>3</v>
       </c>
       <c r="X31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
@@ -81281,7 +81278,7 @@
         <v>272</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -81290,7 +81287,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -81299,10 +81296,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -81320,10 +81317,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -81341,10 +81338,10 @@
         <v>0</v>
       </c>
       <c r="V32" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X32">
         <v>3</v>
@@ -81362,7 +81359,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
@@ -81370,7 +81367,7 @@
         <v>273</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -81388,10 +81385,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -81409,10 +81406,10 @@
         <v>0</v>
       </c>
       <c r="O33" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -81430,10 +81427,10 @@
         <v>0</v>
       </c>
       <c r="V33" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X33">
         <v>3</v>
@@ -81451,7 +81448,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
@@ -81480,7 +81477,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -81489,7 +81486,7 @@
         <v>4</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -81548,88 +81545,88 @@
         <v>275</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
@@ -81637,31 +81634,31 @@
         <v>276</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" s="114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -81670,55 +81667,55 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O36" s="114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U36" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V36" s="114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="114">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
@@ -81753,7 +81750,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -81774,7 +81771,7 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -81827,7 +81824,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38" s="113">
         <v>4</v>
@@ -81848,7 +81845,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" s="113">
         <v>4</v>
@@ -81863,13 +81860,13 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U38" s="113">
         <v>4</v>
@@ -81884,13 +81881,13 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB38" s="113">
         <v>4</v>
@@ -81904,88 +81901,88 @@
         <v>279</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N39" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O39" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U39" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V39" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB39" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC39" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
@@ -81993,16 +81990,16 @@
         <v>280</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -82014,13 +82011,13 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>3</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40">
         <v>3</v>
@@ -82035,13 +82032,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q40">
         <v>3</v>
       </c>
       <c r="R40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S40">
         <v>3</v>
@@ -82056,13 +82053,13 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z40">
         <v>3</v>
@@ -82082,88 +82079,88 @@
         <v>281</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O41" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U41" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V41" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.35">
@@ -82183,13 +82180,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>4</v>
@@ -82204,13 +82201,13 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <v>4</v>
@@ -82225,13 +82222,13 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U42" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V42" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W42">
         <v>4</v>
@@ -82246,13 +82243,13 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB42" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC42" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
@@ -82260,88 +82257,88 @@
         <v>283</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.35">
@@ -82355,61 +82352,61 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>3</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N44" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O44" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>3</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U44" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V44" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W44">
         <v>1</v>
@@ -82418,19 +82415,19 @@
         <v>3</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.35">
@@ -82438,10 +82435,10 @@
         <v>285</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -82450,76 +82447,76 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U45" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V45" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB45" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC45" s="114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.35">
@@ -82527,93 +82524,177 @@
         <v>286</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="120">
-        <v>0</v>
-      </c>
-      <c r="H46" s="122">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G46" s="113">
+        <v>1</v>
+      </c>
+      <c r="H46" s="114">
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" s="120">
-        <v>0</v>
-      </c>
-      <c r="O46" s="122">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N46" s="113">
+        <v>1</v>
+      </c>
+      <c r="O46" s="114">
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46" s="120">
-        <v>0</v>
-      </c>
-      <c r="V46" s="122">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="U46" s="113">
+        <v>1</v>
+      </c>
+      <c r="V46" s="114">
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="120">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="122">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AB46" s="113">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="114">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="76" t="s">
         <v>287</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="120">
+        <v>0</v>
+      </c>
+      <c r="H47" s="122">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="120">
+        <v>0</v>
+      </c>
+      <c r="O47" s="122">
+        <v>3</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47" s="120">
+        <v>0</v>
+      </c>
+      <c r="V47" s="122">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>4</v>
+      </c>
+      <c r="X47">
+        <v>3</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>3</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="120">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="122">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/CASE_E_INPUT.xlsx
+++ b/CASE_E_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axwau\Documents\caseEibmcplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC6F534-9B13-4384-8AED-A12EFCD810B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83332DFC-3081-4EFF-B95C-57FD36E50D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="45" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="325">
   <si>
     <t>University Hospital Case Study</t>
   </si>
@@ -1048,6 +1048,9 @@
   </si>
   <si>
     <t>day 38</t>
+  </si>
+  <si>
+    <t>302D002</t>
   </si>
 </sst>
 </file>
@@ -2951,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B830457-2580-4663-B840-9EA856DF5E85}">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3046,6 +3049,2320 @@
       </c>
       <c r="AC1" s="55" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="126">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="126">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="126">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="126">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="126">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="126">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="126">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="126">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="126">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="126">
+        <v>2</v>
+      </c>
+      <c r="B11" s="111">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="126">
+        <v>2</v>
+      </c>
+      <c r="B12" s="113">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="114">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="126">
+        <v>2</v>
+      </c>
+      <c r="B13" s="113">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="114">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="126">
+        <v>2</v>
+      </c>
+      <c r="B14" s="113">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="114">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="126">
+        <v>2</v>
+      </c>
+      <c r="B15" s="113">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="114">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="126">
+        <v>2</v>
+      </c>
+      <c r="B16" s="113">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="114">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="126">
+        <v>2</v>
+      </c>
+      <c r="B17" s="113">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="114">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="126">
+        <v>2</v>
+      </c>
+      <c r="B18" s="113">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="114">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" s="126">
+        <v>2</v>
+      </c>
+      <c r="B19" s="113">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="114">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" s="126">
+        <v>2</v>
+      </c>
+      <c r="B20" s="113">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="114">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="126">
+        <v>2</v>
+      </c>
+      <c r="B21" s="113">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" s="114">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" s="126">
+        <v>2</v>
+      </c>
+      <c r="B22" s="113">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="114">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" s="126">
+        <v>2</v>
+      </c>
+      <c r="B23" s="113">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="114">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="126">
+        <v>2</v>
+      </c>
+      <c r="B24" s="113">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" s="114">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="126">
+        <v>2</v>
+      </c>
+      <c r="B25" s="113">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25" s="114">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="127">
+        <v>2</v>
+      </c>
+      <c r="B26" s="113">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="114">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="126">
+        <v>1</v>
+      </c>
+      <c r="B27" s="120">
+        <v>3</v>
+      </c>
+      <c r="C27" s="121">
+        <v>3</v>
+      </c>
+      <c r="D27" s="121">
+        <v>4</v>
+      </c>
+      <c r="E27" s="121">
+        <v>0</v>
+      </c>
+      <c r="F27" s="121">
+        <v>4</v>
+      </c>
+      <c r="G27" s="121">
+        <v>0</v>
+      </c>
+      <c r="H27" s="122">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>4</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3057,7 +5374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E76B91-8317-41E8-8E1D-428B8605D1B3}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+    <sheetView zoomScale="53" workbookViewId="0">
       <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
@@ -24343,10 +26660,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB16BA8-64D7-41D6-95B2-6B2075FC811E}">
-  <dimension ref="A1:EM25"/>
+  <dimension ref="A1:EM26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35126,7 +37443,439 @@
         <v>2</v>
       </c>
     </row>
+    <row r="26" spans="1:143" x14ac:dyDescent="0.35">
+      <c r="A26" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="64">
+        <v>100</v>
+      </c>
+      <c r="C26" s="65">
+        <v>100</v>
+      </c>
+      <c r="D26" s="66">
+        <v>100</v>
+      </c>
+      <c r="E26" s="67">
+        <v>100</v>
+      </c>
+      <c r="F26" s="68">
+        <v>0</v>
+      </c>
+      <c r="G26" s="64">
+        <v>100</v>
+      </c>
+      <c r="H26" s="65">
+        <v>100</v>
+      </c>
+      <c r="I26" s="66">
+        <v>100</v>
+      </c>
+      <c r="J26" s="67">
+        <v>100</v>
+      </c>
+      <c r="K26" s="68">
+        <v>0</v>
+      </c>
+      <c r="L26" s="64">
+        <v>3</v>
+      </c>
+      <c r="M26" s="65">
+        <v>3</v>
+      </c>
+      <c r="N26" s="66">
+        <v>8</v>
+      </c>
+      <c r="O26" s="67">
+        <v>8</v>
+      </c>
+      <c r="P26" s="68">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="64">
+        <v>100</v>
+      </c>
+      <c r="R26" s="65">
+        <v>100</v>
+      </c>
+      <c r="S26" s="66">
+        <v>100</v>
+      </c>
+      <c r="T26" s="67">
+        <v>100</v>
+      </c>
+      <c r="U26" s="68">
+        <v>0</v>
+      </c>
+      <c r="V26" s="64">
+        <v>7</v>
+      </c>
+      <c r="W26" s="65">
+        <v>2</v>
+      </c>
+      <c r="X26" s="66">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="67">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="68">
+        <v>9</v>
+      </c>
+      <c r="AA26" s="64">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="65">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="66">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="67">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="68">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="64">
+        <v>100</v>
+      </c>
+      <c r="AG26" s="65">
+        <v>100</v>
+      </c>
+      <c r="AH26" s="66">
+        <v>100</v>
+      </c>
+      <c r="AI26" s="67">
+        <v>100</v>
+      </c>
+      <c r="AJ26" s="68">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="64">
+        <v>100</v>
+      </c>
+      <c r="AL26" s="65">
+        <v>100</v>
+      </c>
+      <c r="AM26" s="66">
+        <v>100</v>
+      </c>
+      <c r="AN26" s="67">
+        <v>100</v>
+      </c>
+      <c r="AO26" s="68">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="64">
+        <v>100</v>
+      </c>
+      <c r="AQ26" s="65">
+        <v>100</v>
+      </c>
+      <c r="AR26" s="66">
+        <v>100</v>
+      </c>
+      <c r="AS26" s="67">
+        <v>100</v>
+      </c>
+      <c r="AT26" s="68">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="64">
+        <v>8</v>
+      </c>
+      <c r="AV26" s="65">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="66">
+        <v>4</v>
+      </c>
+      <c r="AX26" s="67">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="68">
+        <v>4</v>
+      </c>
+      <c r="AZ26" s="64">
+        <v>9</v>
+      </c>
+      <c r="BA26" s="65">
+        <v>2</v>
+      </c>
+      <c r="BB26" s="66">
+        <v>9</v>
+      </c>
+      <c r="BC26" s="67">
+        <v>5</v>
+      </c>
+      <c r="BD26" s="68">
+        <v>6</v>
+      </c>
+      <c r="BE26" s="64">
+        <v>5</v>
+      </c>
+      <c r="BF26" s="65">
+        <v>5</v>
+      </c>
+      <c r="BG26" s="66">
+        <v>5</v>
+      </c>
+      <c r="BH26" s="67">
+        <v>7</v>
+      </c>
+      <c r="BI26" s="68">
+        <v>8</v>
+      </c>
+      <c r="BJ26" s="64">
+        <v>100</v>
+      </c>
+      <c r="BK26" s="65">
+        <v>100</v>
+      </c>
+      <c r="BL26" s="66">
+        <v>100</v>
+      </c>
+      <c r="BM26" s="67">
+        <v>100</v>
+      </c>
+      <c r="BN26" s="68">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="64">
+        <v>4</v>
+      </c>
+      <c r="BP26" s="65">
+        <v>5</v>
+      </c>
+      <c r="BQ26" s="66">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="67">
+        <v>6</v>
+      </c>
+      <c r="BS26" s="68">
+        <v>1</v>
+      </c>
+      <c r="BT26" s="64">
+        <v>100</v>
+      </c>
+      <c r="BU26" s="65">
+        <v>100</v>
+      </c>
+      <c r="BV26" s="66">
+        <v>100</v>
+      </c>
+      <c r="BW26" s="67">
+        <v>100</v>
+      </c>
+      <c r="BX26" s="68">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="64">
+        <v>100</v>
+      </c>
+      <c r="BZ26" s="65">
+        <v>100</v>
+      </c>
+      <c r="CA26" s="66">
+        <v>100</v>
+      </c>
+      <c r="CB26" s="67">
+        <v>100</v>
+      </c>
+      <c r="CC26" s="68">
+        <v>0</v>
+      </c>
+      <c r="CD26" s="64">
+        <v>4</v>
+      </c>
+      <c r="CE26" s="65">
+        <v>4</v>
+      </c>
+      <c r="CF26" s="66">
+        <v>6</v>
+      </c>
+      <c r="CG26" s="67">
+        <v>4</v>
+      </c>
+      <c r="CH26" s="68">
+        <v>4</v>
+      </c>
+      <c r="CI26" s="64">
+        <v>8</v>
+      </c>
+      <c r="CJ26" s="65">
+        <v>2</v>
+      </c>
+      <c r="CK26" s="66">
+        <v>4</v>
+      </c>
+      <c r="CL26" s="67">
+        <v>5</v>
+      </c>
+      <c r="CM26" s="68">
+        <v>5</v>
+      </c>
+      <c r="CN26" s="64">
+        <v>9</v>
+      </c>
+      <c r="CO26" s="65">
+        <v>8</v>
+      </c>
+      <c r="CP26" s="66">
+        <v>0</v>
+      </c>
+      <c r="CQ26" s="67">
+        <v>2</v>
+      </c>
+      <c r="CR26" s="68">
+        <v>1</v>
+      </c>
+      <c r="CS26" s="64">
+        <v>5</v>
+      </c>
+      <c r="CT26" s="65">
+        <v>1</v>
+      </c>
+      <c r="CU26" s="66">
+        <v>4</v>
+      </c>
+      <c r="CV26" s="67">
+        <v>1</v>
+      </c>
+      <c r="CW26" s="68">
+        <v>6</v>
+      </c>
+      <c r="CX26" s="64">
+        <v>5</v>
+      </c>
+      <c r="CY26" s="65">
+        <v>4</v>
+      </c>
+      <c r="CZ26" s="66">
+        <v>8</v>
+      </c>
+      <c r="DA26" s="67">
+        <v>7</v>
+      </c>
+      <c r="DB26" s="68">
+        <v>9</v>
+      </c>
+      <c r="DC26" s="64">
+        <v>100</v>
+      </c>
+      <c r="DD26" s="65">
+        <v>100</v>
+      </c>
+      <c r="DE26" s="66">
+        <v>100</v>
+      </c>
+      <c r="DF26" s="67">
+        <v>100</v>
+      </c>
+      <c r="DG26" s="68">
+        <v>0</v>
+      </c>
+      <c r="DH26" s="64">
+        <v>1</v>
+      </c>
+      <c r="DI26" s="65">
+        <v>3</v>
+      </c>
+      <c r="DJ26" s="66">
+        <v>5</v>
+      </c>
+      <c r="DK26" s="67">
+        <v>3</v>
+      </c>
+      <c r="DL26" s="68">
+        <v>0</v>
+      </c>
+      <c r="DM26" s="64">
+        <v>2</v>
+      </c>
+      <c r="DN26" s="65">
+        <v>9</v>
+      </c>
+      <c r="DO26" s="66">
+        <v>2</v>
+      </c>
+      <c r="DP26" s="67">
+        <v>9</v>
+      </c>
+      <c r="DQ26" s="68">
+        <v>7</v>
+      </c>
+      <c r="DR26" s="64">
+        <v>8</v>
+      </c>
+      <c r="DS26" s="65">
+        <v>5</v>
+      </c>
+      <c r="DT26" s="66">
+        <v>0</v>
+      </c>
+      <c r="DU26" s="67">
+        <v>0</v>
+      </c>
+      <c r="DV26" s="68">
+        <v>5</v>
+      </c>
+      <c r="DW26" s="64">
+        <v>6</v>
+      </c>
+      <c r="DX26" s="65">
+        <v>8</v>
+      </c>
+      <c r="DY26" s="66">
+        <v>7</v>
+      </c>
+      <c r="DZ26" s="67">
+        <v>1</v>
+      </c>
+      <c r="EA26" s="68">
+        <v>0</v>
+      </c>
+      <c r="EB26" s="64">
+        <v>1</v>
+      </c>
+      <c r="EC26" s="65">
+        <v>2</v>
+      </c>
+      <c r="ED26" s="66">
+        <v>5</v>
+      </c>
+      <c r="EE26" s="67">
+        <v>8</v>
+      </c>
+      <c r="EF26" s="68">
+        <v>8</v>
+      </c>
+      <c r="EG26" s="64">
+        <v>5</v>
+      </c>
+      <c r="EH26" s="65">
+        <v>4</v>
+      </c>
+      <c r="EI26" s="66">
+        <v>8</v>
+      </c>
+      <c r="EJ26" s="67">
+        <v>7</v>
+      </c>
+      <c r="EK26" s="68">
+        <v>6</v>
+      </c>
+      <c r="EL26" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="EM26" s="101">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -49373,8 +52122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3942FDD-F020-4D16-AABA-8B9C09A38A1A}">
   <dimension ref="A1:EM46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A1:A46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -75457,14 +78206,2415 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7BA412-8E80-4184-9DBA-29D687F1A710}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B1" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y1" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z1" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA1" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB1" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC1" s="55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="111">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="113">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="114">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="113">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="114">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="113">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="114">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="113">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="114">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="113">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="114">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="113">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="114">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="113">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="114">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="113">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="114">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="113">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="114">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="113">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" s="114">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="113">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="114">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="113">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="114">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="113">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" s="114">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="113">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25" s="114">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="113">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="114">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="120">
+        <v>3</v>
+      </c>
+      <c r="C27" s="121">
+        <v>3</v>
+      </c>
+      <c r="D27" s="121">
+        <v>4</v>
+      </c>
+      <c r="E27" s="121">
+        <v>0</v>
+      </c>
+      <c r="F27" s="121">
+        <v>4</v>
+      </c>
+      <c r="G27" s="121">
+        <v>0</v>
+      </c>
+      <c r="H27" s="122">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>4</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
